--- a/resources/usage_fan_in_file.xlsx
+++ b/resources/usage_fan_in_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Total-DB</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total-Project</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Rate</t>
         </is>
       </c>
     </row>
@@ -473,10 +483,16 @@
         <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>276</v>
+        <v>339</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4890</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.932515337423313</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +511,13 @@
         <v>282</v>
       </c>
       <c r="E3" t="n">
-        <v>400</v>
+        <v>425</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2538</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.74546887312845</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +533,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8149</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4295005522149957</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +561,13 @@
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2587</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4252029377657518</v>
       </c>
     </row>
     <row r="6">
@@ -552,64 +586,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>docker-java</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>languagetool</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ebean</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3398</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4120070629782225</v>
       </c>
     </row>
   </sheetData>

--- a/resources/usage_fan_in_file.xlsx
+++ b/resources/usage_fan_in_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>339</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>4890</v>
+        <v>4899</v>
       </c>
       <c r="G2" t="n">
-        <v>6.932515337423313</v>
+        <v>1.285976729944887</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>425</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
         <v>2538</v>
       </c>
       <c r="G3" t="n">
-        <v>16.74546887312845</v>
+        <v>1.024428684003152</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>8149</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4295005522149957</v>
+        <v>0.04908577739599951</v>
       </c>
     </row>
     <row r="5">
@@ -552,47 +552,72 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>2587</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4252029377657518</v>
+        <v>0.154619250096637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>wildfly</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14079</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01420555437175936</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>storm</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
         <v>3398</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.4120070629782225</v>
+      <c r="G7" t="n">
+        <v>0.05885815185403178</v>
       </c>
     </row>
   </sheetData>

--- a/resources/usage_fan_in_file.xlsx
+++ b/resources/usage_fan_in_file.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F2" t="n">
         <v>4899</v>
       </c>
       <c r="G2" t="n">
-        <v>1.285976729944887</v>
+        <v>1.816697285160237</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="F3" t="n">
         <v>2538</v>
       </c>
       <c r="G3" t="n">
-        <v>1.024428684003152</v>
+        <v>4.964539007092199</v>
       </c>
     </row>
     <row r="4">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -558,16 +558,16 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>2587</v>
       </c>
       <c r="G5" t="n">
-        <v>0.154619250096637</v>
+        <v>0.1159644375724778</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>538</v>
       </c>
       <c r="F6" t="n">
         <v>14079</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01420555437175936</v>
+        <v>3.821294126003268</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>3398</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05885815185403178</v>
+        <v>0.1177163037080636</v>
       </c>
     </row>
   </sheetData>

--- a/resources/usage_fan_in_file.xlsx
+++ b/resources/usage_fan_in_file.xlsx
@@ -40,931 +40,931 @@
     <t>Activiti</t>
   </si>
   <si>
+    <t>airbyte</t>
+  </si>
+  <si>
+    <t>airsonic</t>
+  </si>
+  <si>
+    <t>spring-cloud-alibaba</t>
+  </si>
+  <si>
+    <t>nacos</t>
+  </si>
+  <si>
+    <t>alluxio</t>
+  </si>
+  <si>
+    <t>VirtualXposed</t>
+  </si>
+  <si>
+    <t>angel</t>
+  </si>
+  <si>
+    <t>Anki-Android</t>
+  </si>
+  <si>
+    <t>AntennaPod</t>
+  </si>
+  <si>
+    <t>AnySoftKeyboard</t>
+  </si>
+  <si>
+    <t>cyclops</t>
+  </si>
+  <si>
+    <t>dubbo</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
     <t>skywalking</t>
   </si>
   <si>
+    <t>hadoop</t>
+  </si>
+  <si>
+    <t>rocketmq</t>
+  </si>
+  <si>
+    <t>shardingsphere-elasticjob</t>
+  </si>
+  <si>
+    <t>zookeeper</t>
+  </si>
+  <si>
     <t>storm</t>
   </si>
   <si>
+    <t>incubator-dolphinscheduler</t>
+  </si>
+  <si>
+    <t>zeppelin</t>
+  </si>
+  <si>
+    <t>pulsar</t>
+  </si>
+  <si>
+    <t>tomcat</t>
+  </si>
+  <si>
+    <t>incubator-heron</t>
+  </si>
+  <si>
+    <t>jmeter</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>incubator-pinot</t>
+  </si>
+  <si>
+    <t>nutch</t>
+  </si>
+  <si>
+    <t>hudi</t>
+  </si>
+  <si>
+    <t>servicecomb-pack</t>
+  </si>
+  <si>
+    <t>maven</t>
+  </si>
+  <si>
+    <t>flume</t>
+  </si>
+  <si>
+    <t>mahout</t>
+  </si>
+  <si>
+    <t>nifi</t>
+  </si>
+  <si>
+    <t>activemq</t>
+  </si>
+  <si>
+    <t>avro</t>
+  </si>
+  <si>
+    <t>iceberg</t>
+  </si>
+  <si>
+    <t>parquet-mr</t>
+  </si>
+  <si>
+    <t>bookkeeper</t>
+  </si>
+  <si>
+    <t>ambari</t>
+  </si>
+  <si>
+    <t>tika</t>
+  </si>
+  <si>
+    <t>netbeans</t>
+  </si>
+  <si>
+    <t>httpcomponents-client</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>AsciidocFX</t>
+  </si>
+  <si>
+    <t>commafeed</t>
+  </si>
+  <si>
+    <t>simplenote-android</t>
+  </si>
+  <si>
+    <t>azkaban</t>
+  </si>
+  <si>
+    <t>mybatis-plus</t>
+  </si>
+  <si>
+    <t>bazel</t>
+  </si>
+  <si>
+    <t>bc-java</t>
+  </si>
+  <si>
+    <t>bigbluebutton</t>
+  </si>
+  <si>
+    <t>bisq</t>
+  </si>
+  <si>
+    <t>bitcoin-wallet</t>
+  </si>
+  <si>
+    <t>keepassdroid</t>
+  </si>
+  <si>
+    <t>gatk</t>
+  </si>
+  <si>
+    <t>btrace</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>BuildCraft</t>
+  </si>
+  <si>
+    <t>Bukkit</t>
+  </si>
+  <si>
+    <t>baritone</t>
+  </si>
+  <si>
+    <t>zeebe</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>Android-IMSI-Catcher-Detector</t>
+  </si>
+  <si>
+    <t>cgeo</t>
+  </si>
+  <si>
+    <t>checkstyle</t>
+  </si>
+  <si>
+    <t>material-theme-jetbrains</t>
+  </si>
+  <si>
+    <t>libsvm</t>
+  </si>
+  <si>
+    <t>lucida</t>
+  </si>
+  <si>
+    <t>classgraph</t>
+  </si>
+  <si>
+    <t>uaa</t>
+  </si>
+  <si>
+    <t>spring-boot-admin</t>
+  </si>
+  <si>
+    <t>gnucash-android</t>
+  </si>
+  <si>
+    <t>Recaf</t>
+  </si>
+  <si>
+    <t>schema-registry</t>
+  </si>
+  <si>
+    <t>kafka-rest</t>
+  </si>
+  <si>
+    <t>connectbot</t>
+  </si>
+  <si>
+    <t>cryptomator</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>apollo</t>
+  </si>
+  <si>
+    <t>cucumber-jvm</t>
+  </si>
+  <si>
+    <t>dbeaver</t>
+  </si>
+  <si>
+    <t>debezium</t>
+  </si>
+  <si>
+    <t>dl4j-examples</t>
+  </si>
+  <si>
+    <t>spotless</t>
+  </si>
+  <si>
+    <t>docker-java</t>
+  </si>
+  <si>
+    <t>soul</t>
+  </si>
+  <si>
+    <t>ebean</t>
+  </si>
+  <si>
     <t>che</t>
   </si>
   <si>
+    <t>jetty.project</t>
+  </si>
+  <si>
+    <t>openj9</t>
+  </si>
+  <si>
+    <t>vert.x</t>
+  </si>
+  <si>
+    <t>ehcache3</t>
+  </si>
+  <si>
+    <t>elasticsearch-hadoop</t>
+  </si>
+  <si>
+    <t>embulk</t>
+  </si>
+  <si>
+    <t>WorldEdit</t>
+  </si>
+  <si>
+    <t>eclim</t>
+  </si>
+  <si>
+    <t>Etar-Calendar</t>
+  </si>
+  <si>
+    <t>docker-maven-plugin</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>jackson-core</t>
+  </si>
+  <si>
+    <t>Omni-Notes</t>
+  </si>
+  <si>
+    <t>find-sec-bugs</t>
+  </si>
+  <si>
+    <t>search-guard</t>
+  </si>
+  <si>
+    <t>flowable-engine</t>
+  </si>
+  <si>
+    <t>flutter-intellij</t>
+  </si>
+  <si>
+    <t>flyway</t>
+  </si>
+  <si>
+    <t>open-event-organizer-android</t>
+  </si>
+  <si>
+    <t>susi_server</t>
+  </si>
+  <si>
+    <t>phimpme-android</t>
+  </si>
+  <si>
+    <t>pslab-android</t>
+  </si>
+  <si>
+    <t>Gadgetbridge</t>
+  </si>
+  <si>
+    <t>FBReaderJ</t>
+  </si>
+  <si>
+    <t>geoserver</t>
+  </si>
+  <si>
+    <t>gephi</t>
+  </si>
+  <si>
+    <t>Geyser</t>
+  </si>
+  <si>
+    <t>git-commit-id-maven-plugin</t>
+  </si>
+  <si>
+    <t>gitblit</t>
+  </si>
+  <si>
+    <t>Glowstone</t>
+  </si>
+  <si>
+    <t>guacamole-client</t>
+  </si>
+  <si>
+    <t>gocd</t>
+  </si>
+  <si>
+    <t>ExoPlayer</t>
+  </si>
+  <si>
+    <t>j2objc</t>
+  </si>
+  <si>
+    <t>error-prone</t>
+  </si>
+  <si>
+    <t>nomulus</t>
+  </si>
+  <si>
+    <t>copybara</t>
+  </si>
+  <si>
+    <t>jib</t>
+  </si>
+  <si>
+    <t>graphhopper</t>
+  </si>
+  <si>
+    <t>jsprit</t>
+  </si>
+  <si>
+    <t>gravitee-gateway</t>
+  </si>
+  <si>
+    <t>graylog2-server</t>
+  </si>
+  <si>
+    <t>markor</t>
+  </si>
+  <si>
+    <t>h2o-3</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>hawtio</t>
+  </si>
+  <si>
+    <t>pitest</t>
+  </si>
+  <si>
+    <t>materialistic</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>HMCL</t>
+  </si>
+  <si>
+    <t>i2p.i2p</t>
+  </si>
+  <si>
+    <t>Apktool</t>
+  </si>
+  <si>
+    <t>Openfire</t>
+  </si>
+  <si>
+    <t>Conversations</t>
+  </si>
+  <si>
+    <t>heritrix3</t>
+  </si>
+  <si>
+    <t>iri</t>
+  </si>
+  <si>
+    <t>uhabits</t>
+  </si>
+  <si>
+    <t>cyberduck</t>
+  </si>
+  <si>
+    <t>jabref</t>
+  </si>
+  <si>
+    <t>mockserver</t>
+  </si>
+  <si>
+    <t>mapdb</t>
+  </si>
+  <si>
+    <t>javamelody</t>
+  </si>
+  <si>
+    <t>sms-backup-plus</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>blueocean-plugin</t>
+  </si>
+  <si>
+    <t>kubernetes-plugin</t>
+  </si>
+  <si>
+    <t>gitlab-plugin</t>
+  </si>
+  <si>
+    <t>DependencyCheck</t>
+  </si>
+  <si>
+    <t>smali</t>
+  </si>
+  <si>
+    <t>intellij-community</t>
+  </si>
+  <si>
+    <t>ideavim</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>jpexs-decompiler</t>
+  </si>
+  <si>
+    <t>jitsi-videobridge</t>
+  </si>
+  <si>
+    <t>jitsi</t>
+  </si>
+  <si>
+    <t>zotfile</t>
+  </si>
+  <si>
+    <t>jmonkeyengine</t>
+  </si>
+  <si>
+    <t>jmxtrans</t>
+  </si>
+  <si>
+    <t>jsonschema2pojo</t>
+  </si>
+  <si>
+    <t>JSqlParser</t>
+  </si>
+  <si>
+    <t>tablesaw</t>
+  </si>
+  <si>
+    <t>FastHub</t>
+  </si>
+  <si>
+    <t>k-9</t>
+  </si>
+  <si>
+    <t>kaa</t>
+  </si>
+  <si>
+    <t>Phonograph</t>
+  </si>
+  <si>
+    <t>phpinspectionsea</t>
+  </si>
+  <si>
+    <t>grobid</t>
+  </si>
+  <si>
+    <t>keycloak</t>
+  </si>
+  <si>
+    <t>android-oss</t>
+  </si>
+  <si>
+    <t>drools</t>
+  </si>
+  <si>
+    <t>optaplanner</t>
+  </si>
+  <si>
+    <t>jbpm</t>
+  </si>
+  <si>
+    <t>killbill</t>
+  </si>
+  <si>
+    <t>intellij-elixir</t>
+  </si>
+  <si>
+    <t>languagetool</t>
+  </si>
+  <si>
+    <t>Lawnchair</t>
+  </si>
+  <si>
+    <t>lbry-android</t>
+  </si>
+  <si>
+    <t>liferay-portal</t>
+  </si>
+  <si>
+    <t>ambry</t>
+  </si>
+  <si>
+    <t>liquibase</t>
+  </si>
+  <si>
+    <t>LuckPerms</t>
+  </si>
+  <si>
+    <t>NetGuard</t>
+  </si>
+  <si>
+    <t>mage</t>
+  </si>
+  <si>
+    <t>mapstruct</t>
+  </si>
+  <si>
+    <t>marytts</t>
+  </si>
+  <si>
+    <t>material-components-android</t>
+  </si>
+  <si>
+    <t>gpslogger</t>
+  </si>
+  <si>
+    <t>micrometer</t>
+  </si>
+  <si>
+    <t>malmo</t>
+  </si>
+  <si>
+    <t>MinecraftForge</t>
+  </si>
+  <si>
+    <t>OpenID-Connect-Java-Spring-Server</t>
+  </si>
+  <si>
+    <t>qksms</t>
+  </si>
+  <si>
+    <t>Terasology</t>
+  </si>
+  <si>
+    <t>focus-android</t>
+  </si>
+  <si>
+    <t>msgpack-java</t>
+  </si>
+  <si>
     <t>pinpoint</t>
   </si>
   <si>
+    <t>ngrinder</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>eureka</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>genie</t>
+  </si>
+  <si>
+    <t>cqengine</t>
+  </si>
+  <si>
+    <t>open-keychain</t>
+  </si>
+  <si>
+    <t>openapi-generator</t>
+  </si>
+  <si>
+    <t>Chronicle-Queue</t>
+  </si>
+  <si>
+    <t>Chronicle-Map</t>
+  </si>
+  <si>
+    <t>OpenRefine</t>
+  </si>
+  <si>
+    <t>BIMserver</t>
+  </si>
+  <si>
+    <t>OpenTripPlanner</t>
+  </si>
+  <si>
+    <t>openvidu</t>
+  </si>
+  <si>
+    <t>zipkin</t>
+  </si>
+  <si>
+    <t>opengrok</t>
+  </si>
+  <si>
+    <t>visualvm</t>
+  </si>
+  <si>
+    <t>orgzly-android</t>
+  </si>
+  <si>
+    <t>oryx</t>
+  </si>
+  <si>
+    <t>oshi</t>
+  </si>
+  <si>
+    <t>OsmAnd</t>
+  </si>
+  <si>
+    <t>Osmand</t>
+  </si>
+  <si>
+    <t>osmdroid</t>
+  </si>
+  <si>
+    <t>pac4j</t>
+  </si>
+  <si>
+    <t>pentaho-kettle</t>
+  </si>
+  <si>
+    <t>keepass2android</t>
+  </si>
+  <si>
+    <t>secor</t>
+  </si>
+  <si>
+    <t>pmd</t>
+  </si>
+  <si>
+    <t>PocketHub</t>
+  </si>
+  <si>
+    <t>pravega</t>
+  </si>
+  <si>
+    <t>presto</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>psi-probe</t>
+  </si>
+  <si>
+    <t>storio</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>slf4j</t>
+  </si>
+  <si>
+    <t>RedReader</t>
+  </si>
+  <si>
+    <t>quran_android</t>
+  </si>
+  <si>
+    <t>Rajawali</t>
+  </si>
+  <si>
+    <t>reactor-netty</t>
+  </si>
+  <si>
+    <t>aeron</t>
+  </si>
+  <si>
+    <t>simple-binary-encoding</t>
+  </si>
+  <si>
+    <t>redisson</t>
+  </si>
+  <si>
+    <t>xabber-android</t>
+  </si>
+  <si>
+    <t>rest-assured</t>
+  </si>
+  <si>
+    <t>ripme</t>
+  </si>
+  <si>
+    <t>rstudio</t>
+  </si>
+  <si>
+    <t>runelite</t>
+  </si>
+  <si>
+    <t>ics-openvpn</t>
+  </si>
+  <si>
+    <t>scouter</t>
+  </si>
+  <si>
+    <t>Signal-Android</t>
+  </si>
+  <si>
+    <t>android-maven-plugin</t>
+  </si>
+  <si>
+    <t>jadx</t>
+  </si>
+  <si>
+    <t>gh4a</t>
+  </si>
+  <si>
+    <t>autopsy</t>
+  </si>
+  <si>
+    <t>sonarqube</t>
+  </si>
+  <si>
+    <t>nokogiri</t>
+  </si>
+  <si>
+    <t>speedment</t>
+  </si>
+  <si>
+    <t>BungeeCord</t>
+  </si>
+  <si>
+    <t>SpongeAPI</t>
+  </si>
+  <si>
+    <t>SpongeForge</t>
+  </si>
+  <si>
+    <t>spotbugs</t>
+  </si>
+  <si>
+    <t>helios</t>
+  </si>
+  <si>
+    <t>spring-cloud-netflix</t>
+  </si>
+  <si>
+    <t>spring-cloud-gateway</t>
+  </si>
+  <si>
+    <t>spring-cloud-config</t>
+  </si>
+  <si>
+    <t>spring-cloud-sleuth</t>
+  </si>
+  <si>
+    <t>okhttp</t>
+  </si>
+  <si>
+    <t>retrofit</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>keywhiz</t>
+  </si>
+  <si>
+    <t>stagemonitor</t>
+  </si>
+  <si>
+    <t>strimzi-kafka-operator</t>
+  </si>
+  <si>
+    <t>swagger-core</t>
+  </si>
+  <si>
+    <t>syncany</t>
+  </si>
+  <si>
+    <t>syncthing-android</t>
+  </si>
+  <si>
+    <t>synthea</t>
+  </si>
+  <si>
+    <t>AmazeFileManager</t>
+  </si>
+  <si>
+    <t>teammates</t>
+  </si>
+  <si>
+    <t>onedev</t>
+  </si>
+  <si>
+    <t>thingsboard</t>
+  </si>
+  <si>
+    <t>thymeleaf</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>wiremock</t>
+  </si>
+  <si>
+    <t>amidst</t>
+  </si>
+  <si>
+    <t>traccar</t>
+  </si>
+  <si>
+    <t>java-tron</t>
+  </si>
+  <si>
+    <t>beakerx</t>
+  </si>
+  <si>
+    <t>afwall</t>
+  </si>
+  <si>
+    <t>undertow</t>
+  </si>
+  <si>
+    <t>LeafPic</t>
+  </si>
+  <si>
+    <t>UniversalMediaServer</t>
+  </si>
+  <si>
+    <t>validator</t>
+  </si>
+  <si>
+    <t>modeldb</t>
+  </si>
+  <si>
+    <t>vespa</t>
+  </si>
+  <si>
+    <t>Saturn</t>
+  </si>
+  <si>
+    <t>flexmark-java</t>
+  </si>
+  <si>
+    <t>epubcheck</t>
+  </si>
+  <si>
+    <t>dynmap</t>
+  </si>
+  <si>
+    <t>StreetComplete</t>
+  </si>
+  <si>
+    <t>apps-android-wikipedia</t>
+  </si>
+  <si>
     <t>wildfly</t>
-  </si>
-  <si>
-    <t>airbyte</t>
-  </si>
-  <si>
-    <t>airsonic</t>
-  </si>
-  <si>
-    <t>spring-cloud-alibaba</t>
-  </si>
-  <si>
-    <t>nacos</t>
-  </si>
-  <si>
-    <t>alluxio</t>
-  </si>
-  <si>
-    <t>VirtualXposed</t>
-  </si>
-  <si>
-    <t>angel</t>
-  </si>
-  <si>
-    <t>Anki-Android</t>
-  </si>
-  <si>
-    <t>AntennaPod</t>
-  </si>
-  <si>
-    <t>AnySoftKeyboard</t>
-  </si>
-  <si>
-    <t>cyclops</t>
-  </si>
-  <si>
-    <t>dubbo</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>hadoop</t>
-  </si>
-  <si>
-    <t>rocketmq</t>
-  </si>
-  <si>
-    <t>shardingsphere-elasticjob</t>
-  </si>
-  <si>
-    <t>zookeeper</t>
-  </si>
-  <si>
-    <t>incubator-dolphinscheduler</t>
-  </si>
-  <si>
-    <t>zeppelin</t>
-  </si>
-  <si>
-    <t>pulsar</t>
-  </si>
-  <si>
-    <t>tomcat</t>
-  </si>
-  <si>
-    <t>incubator-heron</t>
-  </si>
-  <si>
-    <t>jmeter</t>
-  </si>
-  <si>
-    <t>beam</t>
-  </si>
-  <si>
-    <t>incubator-pinot</t>
-  </si>
-  <si>
-    <t>nutch</t>
-  </si>
-  <si>
-    <t>hudi</t>
-  </si>
-  <si>
-    <t>servicecomb-pack</t>
-  </si>
-  <si>
-    <t>maven</t>
-  </si>
-  <si>
-    <t>flume</t>
-  </si>
-  <si>
-    <t>mahout</t>
-  </si>
-  <si>
-    <t>nifi</t>
-  </si>
-  <si>
-    <t>activemq</t>
-  </si>
-  <si>
-    <t>avro</t>
-  </si>
-  <si>
-    <t>iceberg</t>
-  </si>
-  <si>
-    <t>parquet-mr</t>
-  </si>
-  <si>
-    <t>bookkeeper</t>
-  </si>
-  <si>
-    <t>ambari</t>
-  </si>
-  <si>
-    <t>tika</t>
-  </si>
-  <si>
-    <t>netbeans</t>
-  </si>
-  <si>
-    <t>httpcomponents-client</t>
-  </si>
-  <si>
-    <t>cas</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>AsciidocFX</t>
-  </si>
-  <si>
-    <t>commafeed</t>
-  </si>
-  <si>
-    <t>simplenote-android</t>
-  </si>
-  <si>
-    <t>azkaban</t>
-  </si>
-  <si>
-    <t>mybatis-plus</t>
-  </si>
-  <si>
-    <t>bazel</t>
-  </si>
-  <si>
-    <t>bc-java</t>
-  </si>
-  <si>
-    <t>bigbluebutton</t>
-  </si>
-  <si>
-    <t>bisq</t>
-  </si>
-  <si>
-    <t>bitcoin-wallet</t>
-  </si>
-  <si>
-    <t>keepassdroid</t>
-  </si>
-  <si>
-    <t>gatk</t>
-  </si>
-  <si>
-    <t>btrace</t>
-  </si>
-  <si>
-    <t>portfolio</t>
-  </si>
-  <si>
-    <t>BuildCraft</t>
-  </si>
-  <si>
-    <t>Bukkit</t>
-  </si>
-  <si>
-    <t>baritone</t>
-  </si>
-  <si>
-    <t>zeebe</t>
-  </si>
-  <si>
-    <t>Slide</t>
-  </si>
-  <si>
-    <t>Android-IMSI-Catcher-Detector</t>
-  </si>
-  <si>
-    <t>cgeo</t>
-  </si>
-  <si>
-    <t>checkstyle</t>
-  </si>
-  <si>
-    <t>material-theme-jetbrains</t>
-  </si>
-  <si>
-    <t>libsvm</t>
-  </si>
-  <si>
-    <t>lucida</t>
-  </si>
-  <si>
-    <t>classgraph</t>
-  </si>
-  <si>
-    <t>uaa</t>
-  </si>
-  <si>
-    <t>spring-boot-admin</t>
-  </si>
-  <si>
-    <t>gnucash-android</t>
-  </si>
-  <si>
-    <t>Recaf</t>
-  </si>
-  <si>
-    <t>schema-registry</t>
-  </si>
-  <si>
-    <t>kafka-rest</t>
-  </si>
-  <si>
-    <t>connectbot</t>
-  </si>
-  <si>
-    <t>cryptomator</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>apollo</t>
-  </si>
-  <si>
-    <t>cucumber-jvm</t>
-  </si>
-  <si>
-    <t>dbeaver</t>
-  </si>
-  <si>
-    <t>debezium</t>
-  </si>
-  <si>
-    <t>dl4j-examples</t>
-  </si>
-  <si>
-    <t>spotless</t>
-  </si>
-  <si>
-    <t>docker-java</t>
-  </si>
-  <si>
-    <t>soul</t>
-  </si>
-  <si>
-    <t>ebean</t>
-  </si>
-  <si>
-    <t>jetty.project</t>
-  </si>
-  <si>
-    <t>openj9</t>
-  </si>
-  <si>
-    <t>vert.x</t>
-  </si>
-  <si>
-    <t>ehcache3</t>
-  </si>
-  <si>
-    <t>elasticsearch-hadoop</t>
-  </si>
-  <si>
-    <t>embulk</t>
-  </si>
-  <si>
-    <t>WorldEdit</t>
-  </si>
-  <si>
-    <t>eclim</t>
-  </si>
-  <si>
-    <t>Etar-Calendar</t>
-  </si>
-  <si>
-    <t>docker-maven-plugin</t>
-  </si>
-  <si>
-    <t>buck</t>
-  </si>
-  <si>
-    <t>jackson-databind</t>
-  </si>
-  <si>
-    <t>jackson-core</t>
-  </si>
-  <si>
-    <t>Omni-Notes</t>
-  </si>
-  <si>
-    <t>find-sec-bugs</t>
-  </si>
-  <si>
-    <t>search-guard</t>
-  </si>
-  <si>
-    <t>flowable-engine</t>
-  </si>
-  <si>
-    <t>flutter-intellij</t>
-  </si>
-  <si>
-    <t>flyway</t>
-  </si>
-  <si>
-    <t>open-event-organizer-android</t>
-  </si>
-  <si>
-    <t>susi_server</t>
-  </si>
-  <si>
-    <t>phimpme-android</t>
-  </si>
-  <si>
-    <t>pslab-android</t>
-  </si>
-  <si>
-    <t>Gadgetbridge</t>
-  </si>
-  <si>
-    <t>FBReaderJ</t>
-  </si>
-  <si>
-    <t>geoserver</t>
-  </si>
-  <si>
-    <t>gephi</t>
-  </si>
-  <si>
-    <t>Geyser</t>
-  </si>
-  <si>
-    <t>git-commit-id-maven-plugin</t>
-  </si>
-  <si>
-    <t>gitblit</t>
-  </si>
-  <si>
-    <t>Glowstone</t>
-  </si>
-  <si>
-    <t>guacamole-client</t>
-  </si>
-  <si>
-    <t>gocd</t>
-  </si>
-  <si>
-    <t>ExoPlayer</t>
-  </si>
-  <si>
-    <t>j2objc</t>
-  </si>
-  <si>
-    <t>error-prone</t>
-  </si>
-  <si>
-    <t>nomulus</t>
-  </si>
-  <si>
-    <t>copybara</t>
-  </si>
-  <si>
-    <t>jib</t>
-  </si>
-  <si>
-    <t>graphhopper</t>
-  </si>
-  <si>
-    <t>jsprit</t>
-  </si>
-  <si>
-    <t>gravitee-gateway</t>
-  </si>
-  <si>
-    <t>graylog2-server</t>
-  </si>
-  <si>
-    <t>markor</t>
-  </si>
-  <si>
-    <t>h2o-3</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>hawtio</t>
-  </si>
-  <si>
-    <t>pitest</t>
-  </si>
-  <si>
-    <t>materialistic</t>
-  </si>
-  <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>HMCL</t>
-  </si>
-  <si>
-    <t>i2p.i2p</t>
-  </si>
-  <si>
-    <t>Apktool</t>
-  </si>
-  <si>
-    <t>Openfire</t>
-  </si>
-  <si>
-    <t>Conversations</t>
-  </si>
-  <si>
-    <t>heritrix3</t>
-  </si>
-  <si>
-    <t>iri</t>
-  </si>
-  <si>
-    <t>uhabits</t>
-  </si>
-  <si>
-    <t>cyberduck</t>
-  </si>
-  <si>
-    <t>jabref</t>
-  </si>
-  <si>
-    <t>mockserver</t>
-  </si>
-  <si>
-    <t>mapdb</t>
-  </si>
-  <si>
-    <t>javamelody</t>
-  </si>
-  <si>
-    <t>sms-backup-plus</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>blueocean-plugin</t>
-  </si>
-  <si>
-    <t>kubernetes-plugin</t>
-  </si>
-  <si>
-    <t>gitlab-plugin</t>
-  </si>
-  <si>
-    <t>DependencyCheck</t>
-  </si>
-  <si>
-    <t>smali</t>
-  </si>
-  <si>
-    <t>intellij-community</t>
-  </si>
-  <si>
-    <t>ideavim</t>
-  </si>
-  <si>
-    <t>MPS</t>
-  </si>
-  <si>
-    <t>jpexs-decompiler</t>
-  </si>
-  <si>
-    <t>jitsi-videobridge</t>
-  </si>
-  <si>
-    <t>jitsi</t>
-  </si>
-  <si>
-    <t>zotfile</t>
-  </si>
-  <si>
-    <t>jmonkeyengine</t>
-  </si>
-  <si>
-    <t>jmxtrans</t>
-  </si>
-  <si>
-    <t>jsonschema2pojo</t>
-  </si>
-  <si>
-    <t>JSqlParser</t>
-  </si>
-  <si>
-    <t>tablesaw</t>
-  </si>
-  <si>
-    <t>FastHub</t>
-  </si>
-  <si>
-    <t>k-9</t>
-  </si>
-  <si>
-    <t>kaa</t>
-  </si>
-  <si>
-    <t>Phonograph</t>
-  </si>
-  <si>
-    <t>phpinspectionsea</t>
-  </si>
-  <si>
-    <t>grobid</t>
-  </si>
-  <si>
-    <t>keycloak</t>
-  </si>
-  <si>
-    <t>android-oss</t>
-  </si>
-  <si>
-    <t>drools</t>
-  </si>
-  <si>
-    <t>optaplanner</t>
-  </si>
-  <si>
-    <t>jbpm</t>
-  </si>
-  <si>
-    <t>killbill</t>
-  </si>
-  <si>
-    <t>intellij-elixir</t>
-  </si>
-  <si>
-    <t>languagetool</t>
-  </si>
-  <si>
-    <t>Lawnchair</t>
-  </si>
-  <si>
-    <t>lbry-android</t>
-  </si>
-  <si>
-    <t>liferay-portal</t>
-  </si>
-  <si>
-    <t>ambry</t>
-  </si>
-  <si>
-    <t>liquibase</t>
-  </si>
-  <si>
-    <t>LuckPerms</t>
-  </si>
-  <si>
-    <t>NetGuard</t>
-  </si>
-  <si>
-    <t>mage</t>
-  </si>
-  <si>
-    <t>mapstruct</t>
-  </si>
-  <si>
-    <t>marytts</t>
-  </si>
-  <si>
-    <t>material-components-android</t>
-  </si>
-  <si>
-    <t>gpslogger</t>
-  </si>
-  <si>
-    <t>micrometer</t>
-  </si>
-  <si>
-    <t>malmo</t>
-  </si>
-  <si>
-    <t>MinecraftForge</t>
-  </si>
-  <si>
-    <t>OpenID-Connect-Java-Spring-Server</t>
-  </si>
-  <si>
-    <t>qksms</t>
-  </si>
-  <si>
-    <t>Terasology</t>
-  </si>
-  <si>
-    <t>focus-android</t>
-  </si>
-  <si>
-    <t>msgpack-java</t>
-  </si>
-  <si>
-    <t>ngrinder</t>
-  </si>
-  <si>
-    <t>KISS</t>
-  </si>
-  <si>
-    <t>eureka</t>
-  </si>
-  <si>
-    <t>conductor</t>
-  </si>
-  <si>
-    <t>genie</t>
-  </si>
-  <si>
-    <t>cqengine</t>
-  </si>
-  <si>
-    <t>open-keychain</t>
-  </si>
-  <si>
-    <t>openapi-generator</t>
-  </si>
-  <si>
-    <t>Chronicle-Queue</t>
-  </si>
-  <si>
-    <t>Chronicle-Map</t>
-  </si>
-  <si>
-    <t>OpenRefine</t>
-  </si>
-  <si>
-    <t>BIMserver</t>
-  </si>
-  <si>
-    <t>OpenTripPlanner</t>
-  </si>
-  <si>
-    <t>openvidu</t>
-  </si>
-  <si>
-    <t>zipkin</t>
-  </si>
-  <si>
-    <t>opengrok</t>
-  </si>
-  <si>
-    <t>visualvm</t>
-  </si>
-  <si>
-    <t>orgzly-android</t>
-  </si>
-  <si>
-    <t>oryx</t>
-  </si>
-  <si>
-    <t>oshi</t>
-  </si>
-  <si>
-    <t>OsmAnd</t>
-  </si>
-  <si>
-    <t>Osmand</t>
-  </si>
-  <si>
-    <t>osmdroid</t>
-  </si>
-  <si>
-    <t>pac4j</t>
-  </si>
-  <si>
-    <t>pentaho-kettle</t>
-  </si>
-  <si>
-    <t>keepass2android</t>
-  </si>
-  <si>
-    <t>secor</t>
-  </si>
-  <si>
-    <t>pmd</t>
-  </si>
-  <si>
-    <t>PocketHub</t>
-  </si>
-  <si>
-    <t>pravega</t>
-  </si>
-  <si>
-    <t>presto</t>
-  </si>
-  <si>
-    <t>processing</t>
-  </si>
-  <si>
-    <t>psi-probe</t>
-  </si>
-  <si>
-    <t>storio</t>
-  </si>
-  <si>
-    <t>serve</t>
-  </si>
-  <si>
-    <t>slf4j</t>
-  </si>
-  <si>
-    <t>RedReader</t>
-  </si>
-  <si>
-    <t>quran_android</t>
-  </si>
-  <si>
-    <t>Rajawali</t>
-  </si>
-  <si>
-    <t>reactor-netty</t>
-  </si>
-  <si>
-    <t>aeron</t>
-  </si>
-  <si>
-    <t>simple-binary-encoding</t>
-  </si>
-  <si>
-    <t>redisson</t>
-  </si>
-  <si>
-    <t>xabber-android</t>
-  </si>
-  <si>
-    <t>rest-assured</t>
-  </si>
-  <si>
-    <t>ripme</t>
-  </si>
-  <si>
-    <t>rstudio</t>
-  </si>
-  <si>
-    <t>runelite</t>
-  </si>
-  <si>
-    <t>ics-openvpn</t>
-  </si>
-  <si>
-    <t>scouter</t>
-  </si>
-  <si>
-    <t>Signal-Android</t>
-  </si>
-  <si>
-    <t>android-maven-plugin</t>
-  </si>
-  <si>
-    <t>jadx</t>
-  </si>
-  <si>
-    <t>gh4a</t>
-  </si>
-  <si>
-    <t>autopsy</t>
-  </si>
-  <si>
-    <t>sonarqube</t>
-  </si>
-  <si>
-    <t>nokogiri</t>
-  </si>
-  <si>
-    <t>speedment</t>
-  </si>
-  <si>
-    <t>BungeeCord</t>
-  </si>
-  <si>
-    <t>SpongeAPI</t>
-  </si>
-  <si>
-    <t>SpongeForge</t>
-  </si>
-  <si>
-    <t>spotbugs</t>
-  </si>
-  <si>
-    <t>helios</t>
-  </si>
-  <si>
-    <t>spring-cloud-netflix</t>
-  </si>
-  <si>
-    <t>spring-cloud-gateway</t>
-  </si>
-  <si>
-    <t>spring-cloud-config</t>
-  </si>
-  <si>
-    <t>spring-cloud-sleuth</t>
-  </si>
-  <si>
-    <t>okhttp</t>
-  </si>
-  <si>
-    <t>retrofit</t>
-  </si>
-  <si>
-    <t>wire</t>
-  </si>
-  <si>
-    <t>keywhiz</t>
-  </si>
-  <si>
-    <t>stagemonitor</t>
-  </si>
-  <si>
-    <t>strimzi-kafka-operator</t>
-  </si>
-  <si>
-    <t>swagger-core</t>
-  </si>
-  <si>
-    <t>syncany</t>
-  </si>
-  <si>
-    <t>syncthing-android</t>
-  </si>
-  <si>
-    <t>synthea</t>
-  </si>
-  <si>
-    <t>AmazeFileManager</t>
-  </si>
-  <si>
-    <t>teammates</t>
-  </si>
-  <si>
-    <t>onedev</t>
-  </si>
-  <si>
-    <t>thingsboard</t>
-  </si>
-  <si>
-    <t>thymeleaf</t>
-  </si>
-  <si>
-    <t>Shuttle</t>
-  </si>
-  <si>
-    <t>wiremock</t>
-  </si>
-  <si>
-    <t>amidst</t>
-  </si>
-  <si>
-    <t>traccar</t>
-  </si>
-  <si>
-    <t>java-tron</t>
-  </si>
-  <si>
-    <t>beakerx</t>
-  </si>
-  <si>
-    <t>afwall</t>
-  </si>
-  <si>
-    <t>undertow</t>
-  </si>
-  <si>
-    <t>LeafPic</t>
-  </si>
-  <si>
-    <t>UniversalMediaServer</t>
-  </si>
-  <si>
-    <t>validator</t>
-  </si>
-  <si>
-    <t>modeldb</t>
-  </si>
-  <si>
-    <t>vespa</t>
-  </si>
-  <si>
-    <t>Saturn</t>
-  </si>
-  <si>
-    <t>flexmark-java</t>
-  </si>
-  <si>
-    <t>epubcheck</t>
-  </si>
-  <si>
-    <t>dynmap</t>
-  </si>
-  <si>
-    <t>StreetComplete</t>
-  </si>
-  <si>
-    <t>apps-android-wikipedia</t>
   </si>
   <si>
     <t>Universal-G-Code-Sender</t>
@@ -1380,22 +1380,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>62</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>4872</v>
       </c>
       <c r="G2">
-        <v>1.293103448275862</v>
+        <v>1.847290640394089</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1403,22 +1403,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>2534</v>
+        <v>6172</v>
       </c>
       <c r="G3">
-        <v>0.2367797947908445</v>
+        <v>1.166558651976669</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1426,22 +1426,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3397</v>
+        <v>1535</v>
       </c>
       <c r="G4">
-        <v>0.05887547836326171</v>
+        <v>0.1954397394136808</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1452,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>181</v>
+        <v>645</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.4651162790697674</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1472,22 +1472,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>8036</v>
+        <v>1939</v>
       </c>
       <c r="G6">
-        <v>0.04977600796416128</v>
+        <v>0.3094378545642084</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1498,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>14246</v>
+        <v>3470</v>
       </c>
       <c r="G7">
-        <v>0.01403902849922785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1524,16 +1524,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>6172</v>
+        <v>823</v>
       </c>
       <c r="G8">
-        <v>0.01620220349967596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1544,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1535</v>
+        <v>2733</v>
       </c>
       <c r="G9">
-        <v>0.1954397394136808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>645</v>
+        <v>3030</v>
       </c>
       <c r="G10">
-        <v>0.4651162790697674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1590,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1939</v>
+        <v>1100</v>
       </c>
       <c r="G11">
-        <v>0.2062919030428056</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3470</v>
+        <v>5353</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>823</v>
+        <v>1659</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2733</v>
+        <v>3099</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3030</v>
+        <v>4523</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1705,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>1100</v>
+        <v>2534</v>
       </c>
       <c r="G16">
-        <v>0.09090909090909091</v>
+        <v>0.2367797947908445</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1728,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>5353</v>
+        <v>14507</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.01378644792169298</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1659</v>
+        <v>1213</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F19">
-        <v>3099</v>
+        <v>1261</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.9516256938937351</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4523</v>
+        <v>1435</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1817,22 +1817,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>14507</v>
+        <v>3397</v>
       </c>
       <c r="G21">
-        <v>0.01378644792169298</v>
+        <v>0.1177509567265234</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1840,22 +1840,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="F22">
-        <v>1213</v>
+        <v>1973</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>11.09984794728839</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1866,19 +1866,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1261</v>
+        <v>2690</v>
       </c>
       <c r="G23">
-        <v>0.9516256938937351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1435</v>
+        <v>7435</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.01344989912575656</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1912,19 +1912,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1973</v>
+        <v>4276</v>
       </c>
       <c r="G25">
-        <v>0.1520527116066903</v>
+        <v>0.02338634237605238</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2690</v>
+        <v>3030</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1958,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>7435</v>
+        <v>3048</v>
       </c>
       <c r="G27">
-        <v>0.01344989912575656</v>
+        <v>0.06561679790026247</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1981,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>4276</v>
+        <v>9115</v>
       </c>
       <c r="G28">
-        <v>0.02338634237605238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>3030</v>
+        <v>3435</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.05822416302765648</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2027,19 +2027,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>3048</v>
+        <v>1077</v>
       </c>
       <c r="G30">
-        <v>0.06561679790026247</v>
+        <v>0.09285051067780872</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2047,22 +2047,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>9115</v>
+        <v>1857</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.1615508885298869</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2070,22 +2070,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>3435</v>
+        <v>948</v>
       </c>
       <c r="G32">
-        <v>0.05822416302765648</v>
+        <v>1.476793248945148</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2096,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1077</v>
+        <v>2009</v>
       </c>
       <c r="G33">
-        <v>0.09285051067780872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2119,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1857</v>
+        <v>1014</v>
       </c>
       <c r="G34">
-        <v>0.05385029617662897</v>
+        <v>0.1972386587771203</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2142,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>948</v>
+        <v>2100</v>
       </c>
       <c r="G35">
-        <v>0.1054852320675105</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2162,22 +2162,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>2009</v>
+        <v>11400</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.04385964912280702</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2185,22 +2185,22 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37">
-        <v>1014</v>
+        <v>5357</v>
       </c>
       <c r="G37">
-        <v>0.1972386587771203</v>
+        <v>0.07466865783087549</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2100</v>
+        <v>1740</v>
       </c>
       <c r="G38">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2234,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>11400</v>
+        <v>7649</v>
       </c>
       <c r="G39">
-        <v>0.03508771929824561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2260,16 +2260,16 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>5357</v>
+        <v>875</v>
       </c>
       <c r="G40">
-        <v>0.03733432891543775</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2280,19 +2280,19 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1740</v>
+        <v>3650</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.0273972602739726</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2300,22 +2300,22 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="F42">
-        <v>7649</v>
+        <v>9955</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>4.91210447011552</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2335,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>875</v>
+        <v>3054</v>
       </c>
       <c r="G43">
-        <v>0.1142857142857143</v>
+        <v>0.03274394237066143</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2346,22 +2346,22 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>5525</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>5650</v>
       </c>
       <c r="F44">
-        <v>3650</v>
+        <v>82572</v>
       </c>
       <c r="G44">
-        <v>0.0273972602739726</v>
+        <v>6.842513200600687</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45">
-        <v>9955</v>
+        <v>747</v>
       </c>
       <c r="G45">
-        <v>0.02009040683073832</v>
+        <v>0.2677376171352075</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2392,22 +2392,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="F46">
-        <v>3054</v>
+        <v>8451</v>
       </c>
       <c r="G46">
-        <v>0.03274394237066143</v>
+        <v>0.9939652112176074</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>82572</v>
+        <v>1024</v>
       </c>
       <c r="G47">
-        <v>0.001211064283292157</v>
+        <v>0.09765625</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2441,19 +2441,19 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>747</v>
+        <v>1921</v>
       </c>
       <c r="G48">
-        <v>0.2677376171352075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2461,22 +2461,22 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F49">
-        <v>8451</v>
+        <v>299</v>
       </c>
       <c r="G49">
-        <v>0.01183291918116199</v>
+        <v>8.695652173913043</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2487,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1024</v>
+        <v>588</v>
       </c>
       <c r="G50">
-        <v>0.09765625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2507,22 +2507,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F51">
-        <v>1921</v>
+        <v>1787</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.3357582540570789</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2530,22 +2530,22 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F52">
-        <v>299</v>
+        <v>588</v>
       </c>
       <c r="G52">
-        <v>0.6688963210702341</v>
+        <v>8.163265306122449</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>588</v>
+        <v>9147</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2579,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>1787</v>
+        <v>7932</v>
       </c>
       <c r="G54">
-        <v>0.05595970900951316</v>
+        <v>0.02521432173474534</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>588</v>
+        <v>3513</v>
       </c>
       <c r="G55">
-        <v>0.1700680272108843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>9147</v>
+        <v>2854</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2648,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>7932</v>
+        <v>518</v>
       </c>
       <c r="G57">
-        <v>0.02521432173474534</v>
+        <v>0.1930501930501931</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>3513</v>
+        <v>683</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>2854</v>
+        <v>5947</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2720,16 +2720,16 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>518</v>
+        <v>615</v>
       </c>
       <c r="G60">
-        <v>0.1930501930501931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>683</v>
+        <v>2095</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>5947</v>
+        <v>3498</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>615</v>
+        <v>740</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>2095</v>
+        <v>349</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>3498</v>
+        <v>5277</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>0.05685048322910744</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2855,19 +2855,19 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>740</v>
+        <v>880</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2901,19 +2901,19 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>5277</v>
+        <v>2585</v>
       </c>
       <c r="G68">
-        <v>0.05685048322910744</v>
+        <v>0.1934235976789168</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2933,10 +2933,10 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>880</v>
+        <v>4399</v>
       </c>
       <c r="G69">
-        <v>0.1136363636363636</v>
+        <v>0.02273243919072516</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>397</v>
+        <v>592</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2973,16 +2973,16 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>2585</v>
+        <v>60</v>
       </c>
       <c r="G71">
-        <v>0.03868471953578336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2993,19 +2993,19 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>4399</v>
+        <v>1281</v>
       </c>
       <c r="G72">
-        <v>0.02273243919072516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3013,22 +3013,22 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F73">
-        <v>592</v>
+        <v>379</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1.055408970976253</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3036,22 +3036,22 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F74">
-        <v>60</v>
+        <v>1960</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>0.2040816326530612</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3059,22 +3059,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F75">
-        <v>1281</v>
+        <v>895</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>0.335195530726257</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>379</v>
+        <v>600</v>
       </c>
       <c r="G76">
-        <v>0.5277044854881267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1960</v>
+        <v>618</v>
       </c>
       <c r="G77">
-        <v>0.2040816326530612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3131,19 +3131,19 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>895</v>
+        <v>626</v>
       </c>
       <c r="G78">
-        <v>0.111731843575419</v>
+        <v>0.4792332268370607</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3157,16 +3157,16 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>600</v>
+        <v>497</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>0.2012072434607646</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3177,19 +3177,19 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>618</v>
+        <v>429</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>0.2331002331002331</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3200,19 +3200,19 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>626</v>
+        <v>485</v>
       </c>
       <c r="G81">
-        <v>0.3194888178913738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3223,19 +3223,19 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="G82">
-        <v>0.2012072434607646</v>
+        <v>0.4201680672268908</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3243,22 +3243,22 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="F83">
-        <v>429</v>
+        <v>1485</v>
       </c>
       <c r="G83">
-        <v>0.2331002331002331</v>
+        <v>5.521885521885522</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F84">
-        <v>485</v>
+        <v>1053</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>0.5698005698005698</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3289,7 +3289,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>476</v>
+        <v>7025</v>
       </c>
       <c r="G85">
-        <v>0.4201680672268908</v>
+        <v>0.04270462633451957</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3312,22 +3312,22 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F86">
-        <v>1485</v>
+        <v>1646</v>
       </c>
       <c r="G86">
-        <v>0.4713804713804713</v>
+        <v>0.1822600243013366</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3338,19 +3338,19 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1053</v>
+        <v>324</v>
       </c>
       <c r="G87">
-        <v>0.1899335232668566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3361,19 +3361,19 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>7025</v>
+        <v>776</v>
       </c>
       <c r="G88">
-        <v>0.04270462633451957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3384,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1646</v>
+        <v>877</v>
       </c>
       <c r="G89">
-        <v>0.1215066828675577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3404,22 +3404,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F90">
-        <v>324</v>
+        <v>1791</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.7258514796203238</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3427,22 +3427,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="F91">
-        <v>776</v>
+        <v>3834</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>23.3698487219614</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>877</v>
+        <v>181</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3476,19 +3476,19 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1791</v>
+        <v>5107</v>
       </c>
       <c r="G93">
-        <v>0.2791736460078169</v>
+        <v>0.01958096729978461</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3496,7 +3496,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94">
-        <v>3834</v>
+        <v>9909</v>
       </c>
       <c r="G94">
-        <v>0.02608242044861763</v>
+        <v>0.02018367140982945</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3522,19 +3522,19 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>5107</v>
+        <v>1092</v>
       </c>
       <c r="G95">
-        <v>0.01958096729978461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>9909</v>
+        <v>1763</v>
       </c>
       <c r="G96">
-        <v>0.01009183570491472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1092</v>
+        <v>1189</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3591,19 +3591,19 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F98">
-        <v>1763</v>
+        <v>459</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>0.4357298474945534</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1189</v>
+        <v>1087</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3646,10 +3646,10 @@
         <v>2</v>
       </c>
       <c r="F100">
-        <v>459</v>
+        <v>800</v>
       </c>
       <c r="G100">
-        <v>0.4357298474945534</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1087</v>
+        <v>732</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3683,19 +3683,19 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>800</v>
+        <v>525</v>
       </c>
       <c r="G102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>732</v>
+        <v>15649</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>525</v>
+        <v>17422</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>15649</v>
+        <v>4932</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3775,19 +3775,19 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>17422</v>
+        <v>959</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.1042752867570386</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3795,22 +3795,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F107">
-        <v>4932</v>
+        <v>1334</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.3748125937031484</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>959</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0.1042752867570386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3844,19 +3844,19 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="F109">
-        <v>1334</v>
+        <v>19476</v>
       </c>
       <c r="G109">
-        <v>0.07496251874062969</v>
+        <v>1.304169233928938</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>15038</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>0.01329964090969544</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3890,19 +3890,19 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>19476</v>
+        <v>532</v>
       </c>
       <c r="G111">
-        <v>1.304169233928938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3913,19 +3913,19 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>15038</v>
+        <v>810</v>
       </c>
       <c r="G112">
-        <v>0.01329964090969544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>810</v>
+        <v>1028</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>522</v>
+        <v>593</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4005,19 +4005,19 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>1028</v>
+        <v>1709</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>0.1755412521942656</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>593</v>
+        <v>2432</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4048,22 +4048,22 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F118">
-        <v>1709</v>
+        <v>16868</v>
       </c>
       <c r="G118">
-        <v>0.1755412521942656</v>
+        <v>0.3142044107185203</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4074,19 +4074,19 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>2432</v>
+        <v>3243</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>0.03083564600678384</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4097,19 +4097,19 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>16868</v>
+        <v>649</v>
       </c>
       <c r="G120">
-        <v>0.01185677021579322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4120,19 +4120,19 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>3243</v>
+        <v>2020</v>
       </c>
       <c r="G121">
-        <v>0.03083564600678384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>649</v>
+        <v>1115</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4163,22 +4163,22 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F123">
-        <v>2020</v>
+        <v>1413</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.4246284501061571</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4186,7 +4186,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F124">
-        <v>1115</v>
+        <v>1747</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>0.3434459072696051</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4209,22 +4209,22 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F125">
-        <v>1413</v>
+        <v>8398</v>
       </c>
       <c r="G125">
-        <v>0.07077140835102619</v>
+        <v>0.5834722552988807</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4238,16 +4238,16 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1747</v>
+        <v>4528</v>
       </c>
       <c r="G126">
-        <v>0.05724098454493417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4261,16 +4261,16 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>8398</v>
+        <v>5969</v>
       </c>
       <c r="G127">
-        <v>0.01190759704691593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>4528</v>
+        <v>2504</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4301,22 +4301,22 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="F129">
-        <v>5969</v>
+        <v>3879</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>14.43671049239495</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>2504</v>
+        <v>606</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4350,19 +4350,19 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>3879</v>
+        <v>1187</v>
       </c>
       <c r="G131">
-        <v>0.2320185614849188</v>
+        <v>0.08424599831508003</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4370,22 +4370,22 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F132">
-        <v>606</v>
+        <v>1312</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.1524390243902439</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4396,19 +4396,19 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1187</v>
+        <v>959</v>
       </c>
       <c r="G133">
-        <v>0.08424599831508003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4422,16 +4422,16 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1312</v>
+        <v>739</v>
       </c>
       <c r="G134">
-        <v>0.07621951219512195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4439,22 +4439,22 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F135">
-        <v>959</v>
+        <v>6079</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>0.4112518506333278</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>739</v>
+        <v>668</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4491,16 +4491,16 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>6079</v>
+        <v>7422</v>
       </c>
       <c r="G137">
-        <v>0.01645007402533311</v>
+        <v>0.04042037186742118</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>668</v>
+        <v>1536</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4537,16 +4537,16 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>7422</v>
+        <v>384</v>
       </c>
       <c r="G139">
-        <v>0.01347345728914039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4557,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1536</v>
+        <v>1153</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.08673026886383348</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>384</v>
+        <v>477</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>1153</v>
+        <v>2185</v>
       </c>
       <c r="G142">
-        <v>0.08673026886383348</v>
+        <v>0.04576659038901602</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>477</v>
+        <v>576</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4649,19 +4649,19 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F144">
-        <v>2185</v>
+        <v>4341</v>
       </c>
       <c r="G144">
-        <v>0.04576659038901602</v>
+        <v>0.598940336328035</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>576</v>
+        <v>355</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4695,19 +4695,19 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>4341</v>
+        <v>1549</v>
       </c>
       <c r="G146">
-        <v>0.598940336328035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4718,19 +4718,19 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>355</v>
+        <v>1947</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.05136106831022085</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4741,19 +4741,19 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1549</v>
+        <v>1006</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>0.09940357852882703</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4764,19 +4764,19 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1947</v>
+        <v>459</v>
       </c>
       <c r="G149">
-        <v>0.05136106831022085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4787,19 +4787,19 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1006</v>
+        <v>1113</v>
       </c>
       <c r="G150">
-        <v>0.09940357852882703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4810,19 +4810,19 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F151">
-        <v>459</v>
+        <v>6656</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>0.03004807692307692</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1113</v>
+        <v>13045</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -4856,19 +4856,19 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>6656</v>
+        <v>1241</v>
       </c>
       <c r="G153">
-        <v>0.03004807692307692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>13045</v>
+        <v>148</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4899,22 +4899,22 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F155">
-        <v>1241</v>
+        <v>1020</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -4948,19 +4948,19 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F157">
-        <v>1020</v>
+        <v>11656</v>
       </c>
       <c r="G157">
-        <v>0.392156862745098</v>
+        <v>0.01715854495538778</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>286</v>
+        <v>2937</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -4997,16 +4997,16 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>11656</v>
+        <v>478</v>
       </c>
       <c r="G159">
-        <v>0.008579272477693892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5017,19 +5017,19 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>2937</v>
+        <v>284</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>0.3521126760563381</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5040,19 +5040,19 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>478</v>
+        <v>1195</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>0.08368200836820083</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5063,19 +5063,19 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>284</v>
+        <v>929</v>
       </c>
       <c r="G162">
-        <v>0.3521126760563381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5083,22 +5083,22 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="F163">
-        <v>1195</v>
+        <v>183435</v>
       </c>
       <c r="G163">
-        <v>0.08368200836820083</v>
+        <v>0.09158557527189468</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>929</v>
+        <v>961</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -5129,22 +5129,22 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F165">
-        <v>183435</v>
+        <v>43362</v>
       </c>
       <c r="G165">
-        <v>0.0005451522337612778</v>
+        <v>0.03920483372538167</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>961</v>
+        <v>3816</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -5181,16 +5181,16 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>43362</v>
+        <v>273</v>
       </c>
       <c r="G167">
-        <v>0.002306166689728334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>3816</v>
+        <v>3646</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>273</v>
+        <v>119</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>3646</v>
+        <v>2629</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>119</v>
+        <v>437</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -5293,19 +5293,19 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D172">
         <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F172">
-        <v>2629</v>
+        <v>534</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>0.3745318352059925</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5316,19 +5316,19 @@
         <v>0</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>0</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>437</v>
+        <v>802</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>0.1246882793017456</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5339,19 +5339,19 @@
         <v>0</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
         <v>0</v>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>534</v>
+        <v>767</v>
       </c>
       <c r="G174">
-        <v>0.3745318352059925</v>
+        <v>0.1303780964797914</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5362,19 +5362,19 @@
         <v>0</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175">
-        <v>802</v>
+        <v>1285</v>
       </c>
       <c r="G175">
-        <v>0.1246882793017456</v>
+        <v>0.1556420233463035</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5385,19 +5385,19 @@
         <v>0</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F176">
-        <v>767</v>
+        <v>1780</v>
       </c>
       <c r="G176">
-        <v>0.1303780964797914</v>
+        <v>0.1123595505617978</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5411,16 +5411,16 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1285</v>
+        <v>309</v>
       </c>
       <c r="G177">
-        <v>0.07782101167315175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5431,19 +5431,19 @@
         <v>0</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F178">
-        <v>1780</v>
+        <v>519</v>
       </c>
       <c r="G178">
-        <v>0.1123595505617978</v>
+        <v>0.5780346820809248</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>309</v>
+        <v>1143</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -5477,19 +5477,19 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>519</v>
+        <v>7979</v>
       </c>
       <c r="G180">
-        <v>0.5780346820809248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5497,22 +5497,22 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F181">
-        <v>1143</v>
+        <v>10624</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>0.7435993975903614</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>7979</v>
+        <v>1448</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F183">
-        <v>10624</v>
+        <v>10490</v>
       </c>
       <c r="G183">
-        <v>0.009412650602409639</v>
+        <v>0.2478551000953289</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5566,22 +5566,22 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F184">
-        <v>1448</v>
+        <v>5778</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>0.778816199376947</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5589,22 +5589,22 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E185">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="F185">
-        <v>10490</v>
+        <v>4824</v>
       </c>
       <c r="G185">
-        <v>0.03813155386081982</v>
+        <v>3.254560530679933</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5615,19 +5615,19 @@
         <v>0</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186">
         <v>2</v>
       </c>
       <c r="F186">
-        <v>5778</v>
+        <v>1927</v>
       </c>
       <c r="G186">
-        <v>0.03461405330564209</v>
+        <v>0.1037882719252724</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5641,16 +5641,16 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>4824</v>
+        <v>5753</v>
       </c>
       <c r="G187">
-        <v>0.02072968490878939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5658,7 +5658,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188">
         <v>2</v>
@@ -5667,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F188">
-        <v>1927</v>
+        <v>3323</v>
       </c>
       <c r="G188">
-        <v>0.1037882719252724</v>
+        <v>0.09027986758952752</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>5753</v>
+        <v>1471</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -5707,19 +5707,19 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>3323</v>
+        <v>636</v>
       </c>
       <c r="G190">
-        <v>0.09027986758952752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5727,22 +5727,22 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="F191">
-        <v>1471</v>
+        <v>105084</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>0.2255338586273838</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>636</v>
+        <v>1226</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5773,10 +5773,10 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -5785,10 +5785,10 @@
         <v>2</v>
       </c>
       <c r="F193">
-        <v>105084</v>
+        <v>2717</v>
       </c>
       <c r="G193">
-        <v>0.001903239313311256</v>
+        <v>0.07361059992638939</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1226</v>
+        <v>865</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -5825,16 +5825,16 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>2717</v>
+        <v>518</v>
       </c>
       <c r="G195">
-        <v>0.0368052999631947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5842,22 +5842,22 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F196">
-        <v>865</v>
+        <v>29353</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>0.006813613599972746</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5871,16 +5871,16 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F197">
-        <v>518</v>
+        <v>3195</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>0.3755868544600939</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5891,19 +5891,19 @@
         <v>0</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>29353</v>
+        <v>1293</v>
       </c>
       <c r="G198">
-        <v>0.006813613599972746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5914,19 +5914,19 @@
         <v>0</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199">
-        <v>3195</v>
+        <v>2809</v>
       </c>
       <c r="G199">
-        <v>0.03129890453834116</v>
+        <v>0.0355998576005696</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1293</v>
+        <v>604</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -5969,10 +5969,10 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>2809</v>
+        <v>864</v>
       </c>
       <c r="G201">
-        <v>0.0355998576005696</v>
+        <v>0.1157407407407407</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>604</v>
+        <v>493</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -6009,16 +6009,16 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>864</v>
+        <v>2230</v>
       </c>
       <c r="G203">
-        <v>0.1157407407407407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6026,27 +6026,27 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F204">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>10.85271317829457</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>2230</v>
+        <v>1241</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -6069,48 +6069,48 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>516</v>
+        <v>899</v>
       </c>
       <c r="G206">
-        <v>0.5813953488372093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C207">
         <v>0</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="F207">
-        <v>1241</v>
+        <v>2861</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>4.264243271583362</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6121,19 +6121,19 @@
         <v>0</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F208">
-        <v>899</v>
+        <v>801</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>0.3745318352059925</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6147,16 +6147,16 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>2861</v>
+        <v>130</v>
       </c>
       <c r="G209">
-        <v>0.03495281370150297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6164,7 +6164,7 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210">
         <v>3</v>
@@ -6173,13 +6173,13 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F210">
-        <v>801</v>
+        <v>8036</v>
       </c>
       <c r="G210">
-        <v>0.3745318352059925</v>
+        <v>0.04977600796416128</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6187,22 +6187,22 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C211">
         <v>0</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F211">
-        <v>130</v>
+        <v>961</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>1.768990634755463</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6216,16 +6216,16 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="G212">
-        <v>0.1040582726326743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>950</v>
+        <v>469</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>469</v>
+        <v>970</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -6279,68 +6279,68 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C215">
         <v>0</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F215">
-        <v>970</v>
+        <v>1565</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>2.044728434504792</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216">
-        <v>1565</v>
+        <v>2208</v>
       </c>
       <c r="G216">
-        <v>0.06389776357827476</v>
+        <v>0.04528985507246377</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>2208</v>
+        <v>1638</v>
       </c>
       <c r="G217">
-        <v>0.04528985507246377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6351,19 +6351,19 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1638</v>
+        <v>2746</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>0.03641660597232338</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6371,22 +6371,22 @@
         <v>222</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="F219">
-        <v>2746</v>
+        <v>30828</v>
       </c>
       <c r="G219">
-        <v>0.03641660597232338</v>
+        <v>1.083430647463345</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6397,19 +6397,19 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>30828</v>
+        <v>418</v>
       </c>
       <c r="G220">
-        <v>0.00648760866744518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -6443,19 +6443,19 @@
         <v>0</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>495</v>
+        <v>1890</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>0.05291005291005291</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6466,19 +6466,19 @@
         <v>0</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1890</v>
+        <v>5950</v>
       </c>
       <c r="G223">
-        <v>0.05291005291005291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6486,22 +6486,22 @@
         <v>227</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224">
         <v>0</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F224">
-        <v>5950</v>
+        <v>2384</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>0.7550335570469799</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6515,16 +6515,16 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>2384</v>
+        <v>592</v>
       </c>
       <c r="G225">
-        <v>0.04194630872483222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6532,22 +6532,22 @@
         <v>229</v>
       </c>
       <c r="B226">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F226">
-        <v>592</v>
+        <v>732</v>
       </c>
       <c r="G226">
-        <v>0</v>
+        <v>6.967213114754098</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6558,19 +6558,19 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>732</v>
+        <v>1670</v>
       </c>
       <c r="G227">
-        <v>0.546448087431694</v>
+        <v>0.05988023952095808</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6578,22 +6578,22 @@
         <v>231</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F228">
-        <v>1670</v>
+        <v>4066</v>
       </c>
       <c r="G228">
-        <v>0.05988023952095808</v>
+        <v>0.4918839153959665</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6607,16 +6607,16 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>4066</v>
+        <v>1398</v>
       </c>
       <c r="G229">
-        <v>0.02459419576979833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1398</v>
+        <v>1069</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1069</v>
+        <v>538</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6673,19 +6673,19 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F232">
-        <v>538</v>
+        <v>5585</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>0.03581020590868397</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6719,24 +6719,24 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>5585</v>
+        <v>1524</v>
       </c>
       <c r="G234">
-        <v>0.03581020590868397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1524</v>
+        <v>1357</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6759,25 +6759,25 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>90</v>
+        <v>238</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1357</v>
+        <v>957</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>0.1044932079414838</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6788,19 +6788,19 @@
         <v>0</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>957</v>
+        <v>10385</v>
       </c>
       <c r="G237">
-        <v>0.1044932079414838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6811,19 +6811,19 @@
         <v>0</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>10385</v>
+        <v>3061</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>0.03266906239790918</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6834,19 +6834,19 @@
         <v>0</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>3061</v>
+        <v>223</v>
       </c>
       <c r="G239">
-        <v>0.03266906239790918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>223</v>
+        <v>4609</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6880,19 +6880,19 @@
         <v>0</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>4609</v>
+        <v>846</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>0.1182033096926714</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6903,19 +6903,19 @@
         <v>0</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>846</v>
+        <v>2296</v>
       </c>
       <c r="G242">
-        <v>0.1182033096926714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6926,19 +6926,19 @@
         <v>0</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F243">
-        <v>2296</v>
+        <v>9410</v>
       </c>
       <c r="G243">
-        <v>0</v>
+        <v>0.03188097768331562</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6946,22 +6946,22 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E244">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F244">
-        <v>9410</v>
+        <v>814</v>
       </c>
       <c r="G244">
-        <v>0.03188097768331562</v>
+        <v>4.545454545454546</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6972,19 +6972,19 @@
         <v>0</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245">
         <v>3</v>
       </c>
       <c r="F245">
-        <v>814</v>
+        <v>1010</v>
       </c>
       <c r="G245">
-        <v>0.3685503685503685</v>
+        <v>0.297029702970297</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6995,19 +6995,19 @@
         <v>0</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D246">
         <v>0</v>
       </c>
       <c r="E246">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1010</v>
+        <v>671</v>
       </c>
       <c r="G246">
-        <v>0.297029702970297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>671</v>
+        <v>865</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>865</v>
+        <v>426</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>426</v>
+        <v>754</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>754</v>
+        <v>735</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>735</v>
+        <v>787</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7142,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>787</v>
+        <v>522</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>522</v>
+        <v>1377</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1377</v>
+        <v>317</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7199,7 +7199,7 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -7208,13 +7208,13 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F255">
-        <v>317</v>
+        <v>2034</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>0.7866273352999017</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7228,16 +7228,16 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>2034</v>
+        <v>2972</v>
       </c>
       <c r="G256">
-        <v>0.04916420845624386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>2972</v>
+        <v>677</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="F258">
-        <v>677</v>
+        <v>346</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>346</v>
+        <v>7560</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -7317,19 +7317,19 @@
         <v>0</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F260">
-        <v>7560</v>
+        <v>2590</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>0.07722007722007722</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7340,19 +7340,19 @@
         <v>0</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>2590</v>
+        <v>854</v>
       </c>
       <c r="G261">
-        <v>0.07722007722007722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7363,24 +7363,24 @@
         <v>0</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F262">
-        <v>854</v>
+        <v>2471</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>0.04046944556859571</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -7395,15 +7395,15 @@
         <v>1</v>
       </c>
       <c r="F263">
-        <v>2471</v>
+        <v>1947</v>
       </c>
       <c r="G263">
-        <v>0.04046944556859571</v>
+        <v>0.05136106831022085</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -7418,10 +7418,10 @@
         <v>1</v>
       </c>
       <c r="F264">
-        <v>1947</v>
+        <v>5261</v>
       </c>
       <c r="G264">
-        <v>0.05136106831022085</v>
+        <v>0.01900779319521004</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7432,19 +7432,19 @@
         <v>0</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>5261</v>
+        <v>1442</v>
       </c>
       <c r="G265">
-        <v>0.01900779319521004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="F266">
-        <v>1442</v>
+        <v>1363</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>1363</v>
+        <v>762</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="F268">
-        <v>762</v>
+        <v>10909</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -7521,22 +7521,22 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C269">
         <v>0</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="F269">
-        <v>10909</v>
+        <v>11234</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>1.326330781555991</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7550,16 +7550,16 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270">
-        <v>11234</v>
+        <v>488</v>
       </c>
       <c r="G270">
-        <v>0.008901548869503294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7567,7 +7567,7 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -7576,13 +7576,13 @@
         <v>0</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271">
-        <v>488</v>
+        <v>3347</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>0.02987750224081267</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -7593,19 +7593,19 @@
         <v>0</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272">
         <v>1</v>
       </c>
       <c r="F272">
-        <v>3347</v>
+        <v>344</v>
       </c>
       <c r="G272">
-        <v>0.02987750224081267</v>
+        <v>0.2906976744186047</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -7625,10 +7625,10 @@
         <v>1</v>
       </c>
       <c r="F273">
-        <v>344</v>
+        <v>1401</v>
       </c>
       <c r="G273">
-        <v>0.2906976744186047</v>
+        <v>0.07137758743754462</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7639,19 +7639,19 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>1401</v>
+        <v>285</v>
       </c>
       <c r="G274">
-        <v>0.07137758743754462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7665,16 +7665,16 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F275">
-        <v>285</v>
+        <v>3245</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>0.2773497688751926</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -7688,16 +7688,16 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>3245</v>
+        <v>616</v>
       </c>
       <c r="G276">
-        <v>0.03081664098613251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="F277">
-        <v>616</v>
+        <v>194</v>
       </c>
       <c r="G277">
         <v>0</v>
@@ -7728,7 +7728,7 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -7737,13 +7737,13 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F278">
-        <v>194</v>
+        <v>437</v>
       </c>
       <c r="G278">
-        <v>0</v>
+        <v>0.4576659038901602</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -7754,19 +7754,19 @@
         <v>0</v>
       </c>
       <c r="C279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279">
         <v>1</v>
       </c>
       <c r="F279">
-        <v>437</v>
+        <v>715</v>
       </c>
       <c r="G279">
-        <v>0.2288329519450801</v>
+        <v>0.1398601398601399</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -7777,19 +7777,19 @@
         <v>0</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280">
         <v>0</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>715</v>
+        <v>1013</v>
       </c>
       <c r="G280">
-        <v>0.1398601398601399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -7809,7 +7809,7 @@
         <v>0</v>
       </c>
       <c r="F281">
-        <v>1013</v>
+        <v>570</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="F282">
-        <v>570</v>
+        <v>399</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="F283">
-        <v>399</v>
+        <v>1371</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -7866,22 +7866,22 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F284">
-        <v>1371</v>
+        <v>459</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>14.37908496732026</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -7892,19 +7892,19 @@
         <v>0</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F285">
-        <v>459</v>
+        <v>761</v>
       </c>
       <c r="G285">
-        <v>0.6535947712418301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>761</v>
+        <v>2077</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -7947,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>2077</v>
+        <v>952</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="F288">
-        <v>952</v>
+        <v>783</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="F289">
-        <v>783</v>
+        <v>402</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -8007,19 +8007,19 @@
         <v>0</v>
       </c>
       <c r="C290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D290">
         <v>0</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F290">
-        <v>402</v>
+        <v>837</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.1194743130227001</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8030,19 +8030,19 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F291">
-        <v>837</v>
+        <v>1011</v>
       </c>
       <c r="G291">
-        <v>0.1194743130227001</v>
+        <v>2.373887240356083</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8050,22 +8050,22 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C292">
         <v>0</v>
       </c>
       <c r="D292">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="F292">
-        <v>1011</v>
+        <v>2212</v>
       </c>
       <c r="G292">
-        <v>0.09891196834817012</v>
+        <v>6.103074141048825</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8073,22 +8073,22 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>530</v>
       </c>
       <c r="E293">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="F293">
-        <v>2212</v>
+        <v>3778</v>
       </c>
       <c r="G293">
-        <v>0.04520795660036166</v>
+        <v>17.94600317628375</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8096,22 +8096,22 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E294">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F294">
-        <v>3778</v>
+        <v>3877</v>
       </c>
       <c r="G294">
-        <v>0.07940709370037057</v>
+        <v>0.4384833634253288</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8122,19 +8122,19 @@
         <v>0</v>
       </c>
       <c r="C295">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E295">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F295">
-        <v>3877</v>
+        <v>488</v>
       </c>
       <c r="G295">
-        <v>0.2579313902501935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>488</v>
+        <v>929</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>929</v>
+        <v>1112</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="F298">
-        <v>1112</v>
+        <v>686</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -8214,19 +8214,19 @@
         <v>0</v>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D299">
         <v>0</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F299">
-        <v>686</v>
+        <v>1278</v>
       </c>
       <c r="G299">
-        <v>0</v>
+        <v>0.1564945226917058</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8237,19 +8237,19 @@
         <v>0</v>
       </c>
       <c r="C300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300">
         <v>0</v>
       </c>
       <c r="E300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F300">
-        <v>1278</v>
+        <v>2912</v>
       </c>
       <c r="G300">
-        <v>0.1564945226917058</v>
+        <v>0.03434065934065934</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8260,19 +8260,19 @@
         <v>0</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301">
         <v>0</v>
       </c>
       <c r="E301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F301">
-        <v>2912</v>
+        <v>243</v>
       </c>
       <c r="G301">
-        <v>0.03434065934065934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
       <c r="F302">
-        <v>243</v>
+        <v>525</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D303">
         <v>0</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F303">
-        <v>525</v>
+        <v>1487</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>0.1344989912575656</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -8329,19 +8329,19 @@
         <v>0</v>
       </c>
       <c r="C304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D304">
         <v>0</v>
       </c>
       <c r="E304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F304">
-        <v>1487</v>
+        <v>309</v>
       </c>
       <c r="G304">
-        <v>0.1344989912575656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -8352,19 +8352,19 @@
         <v>0</v>
       </c>
       <c r="C305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D305">
         <v>0</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F305">
-        <v>309</v>
+        <v>1913</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>0.05227391531625718</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -8375,19 +8375,19 @@
         <v>0</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306">
         <v>0</v>
       </c>
       <c r="E306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F306">
-        <v>1913</v>
+        <v>717</v>
       </c>
       <c r="G306">
-        <v>0.05227391531625718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -8395,22 +8395,22 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F307">
-        <v>717</v>
+        <v>3963</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>1.942972495584153</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -8421,19 +8421,19 @@
         <v>0</v>
       </c>
       <c r="C308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F308">
-        <v>3963</v>
+        <v>21304</v>
       </c>
       <c r="G308">
-        <v>0.05046681806712087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -8441,22 +8441,22 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C309">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F309">
-        <v>21304</v>
+        <v>882</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>0.7936507936507936</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -8467,19 +8467,19 @@
         <v>0</v>
       </c>
       <c r="C310">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E310">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F310">
-        <v>882</v>
+        <v>2998</v>
       </c>
       <c r="G310">
-        <v>0.5668934240362812</v>
+        <v>0.0333555703802535</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -8490,19 +8490,19 @@
         <v>0</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D311">
         <v>0</v>
       </c>
       <c r="E311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F311">
-        <v>2998</v>
+        <v>3010</v>
       </c>
       <c r="G311">
-        <v>0.0333555703802535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="F312">
-        <v>3010</v>
+        <v>4138</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="F313">
-        <v>4138</v>
+        <v>4069</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -8568,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="F314">
-        <v>4069</v>
+        <v>1578</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -8579,22 +8579,22 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="C315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="F315">
-        <v>1578</v>
+        <v>14246</v>
       </c>
       <c r="G315">
-        <v>0</v>
+        <v>3.748420609293837</v>
       </c>
     </row>
     <row r="316" spans="1:7">

--- a/resources/usage_fan_in_file.xlsx
+++ b/resources/usage_fan_in_file.xlsx
@@ -1937,8 +1937,26 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>215</v>
+      </c>
       <c r="J2">
         <v>5151</v>
+      </c>
+      <c r="K2">
+        <v>270</v>
+      </c>
+      <c r="O2">
+        <v>1.06775383420695</v>
+      </c>
+      <c r="P2">
+        <v>4.17394680644535</v>
+      </c>
+      <c r="R2">
+        <v>5.241700640652301</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1961,8 +1979,20 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
       <c r="J5">
         <v>841</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>0.9512485136741973</v>
+      </c>
+      <c r="R5">
+        <v>0.9512485136741973</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1977,16 +2007,55 @@
       <c r="A7" t="s">
         <v>23</v>
       </c>
+      <c r="F7">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>147</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7">
         <v>2935</v>
+      </c>
+      <c r="K7">
+        <v>223</v>
+      </c>
+      <c r="O7">
+        <v>1.976149914821124</v>
+      </c>
+      <c r="P7">
+        <v>5.008517887563884</v>
+      </c>
+      <c r="Q7">
+        <v>0.03407155025553663</v>
+      </c>
+      <c r="R7">
+        <v>7.597955706984667</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>24</v>
       </c>
+      <c r="F8">
+        <v>34</v>
+      </c>
       <c r="J8">
         <v>3249</v>
+      </c>
+      <c r="K8">
+        <v>35</v>
+      </c>
+      <c r="O8">
+        <v>1.046475838719606</v>
+      </c>
+      <c r="R8">
+        <v>1.077254539858418</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2033,8 +2102,26 @@
       <c r="A14" t="s">
         <v>30</v>
       </c>
+      <c r="F14">
+        <v>111</v>
+      </c>
+      <c r="G14">
+        <v>167</v>
+      </c>
       <c r="J14">
         <v>5152</v>
+      </c>
+      <c r="K14">
+        <v>279</v>
+      </c>
+      <c r="O14">
+        <v>2.154503105590062</v>
+      </c>
+      <c r="P14">
+        <v>3.241459627329193</v>
+      </c>
+      <c r="R14">
+        <v>5.415372670807454</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2053,7 +2140,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2061,7 +2148,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2069,7 +2156,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2077,15 +2164,27 @@
         <v>6713</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>36</v>
       </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
       <c r="J20">
         <v>1050</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="R20">
+        <v>0.1904761904761905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2093,31 +2192,79 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>38</v>
       </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
       <c r="J22">
         <v>4182</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>0.1673840267814443</v>
+      </c>
+      <c r="P22">
+        <v>0.2630320420851267</v>
+      </c>
+      <c r="R22">
+        <v>0.430416068866571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>39</v>
       </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
       <c r="J23">
         <v>4520</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>0.0663716814159292</v>
+      </c>
+      <c r="R23">
+        <v>0.08849557522123894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>40</v>
       </c>
+      <c r="F24">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>94</v>
+      </c>
       <c r="J24">
         <v>979</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>182</v>
+      </c>
+      <c r="O24">
+        <v>5.413687436159346</v>
+      </c>
+      <c r="P24">
+        <v>9.601634320735444</v>
+      </c>
+      <c r="R24">
+        <v>18.59039836567926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2125,15 +2272,42 @@
         <v>826</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>42</v>
       </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="J26">
         <v>1260</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>29</v>
+      </c>
+      <c r="O26">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="P26">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="Q26">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="R26">
+        <v>2.301587301587302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2141,15 +2315,27 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>44</v>
       </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
       <c r="J28">
         <v>1500</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="R28">
+        <v>0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2157,7 +2343,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2165,7 +2351,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2173,7 +2359,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2181,7 +2367,7 @@
         <v>11075</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2189,15 +2375,21 @@
         <v>766</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>50</v>
       </c>
       <c r="J34">
         <v>90840</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>0.001100836635843241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2205,15 +2397,33 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>52</v>
       </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
       <c r="J36">
         <v>3638</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>13</v>
+      </c>
+      <c r="O36">
+        <v>0.1924134139637163</v>
+      </c>
+      <c r="P36">
+        <v>0.1649257833974711</v>
+      </c>
+      <c r="R36">
+        <v>0.3573391973611875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2221,31 +2431,79 @@
         <v>811</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>54</v>
       </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
       <c r="J38">
         <v>2923</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>6</v>
+      </c>
+      <c r="O38">
+        <v>0.1368457064659596</v>
+      </c>
+      <c r="P38">
+        <v>0.06842285323297981</v>
+      </c>
+      <c r="R38">
+        <v>0.2052685596989395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>55</v>
       </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
       <c r="J39">
         <v>4666</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>0.04286326618088298</v>
+      </c>
+      <c r="R39">
+        <v>0.04286326618088298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>56</v>
       </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>17</v>
+      </c>
       <c r="J40">
         <v>6529</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>19</v>
+      </c>
+      <c r="O40">
+        <v>0.03063256241384591</v>
+      </c>
+      <c r="P40">
+        <v>0.2603767805176903</v>
+      </c>
+      <c r="R40">
+        <v>0.2910093429315362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2253,7 +2511,7 @@
         <v>5213</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2261,7 +2519,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -2269,15 +2527,27 @@
         <v>5357</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>60</v>
       </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
       <c r="J44">
         <v>3822</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>15</v>
+      </c>
+      <c r="P44">
+        <v>0.2616431187859759</v>
+      </c>
+      <c r="R44">
+        <v>0.3924646781789639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>61</v>
       </c>
@@ -2285,7 +2555,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -2293,7 +2563,7 @@
         <v>12964</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -2301,15 +2571,30 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>64</v>
       </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
       <c r="J48">
         <v>579</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>12</v>
+      </c>
+      <c r="Q48">
+        <v>0.1727115716753022</v>
+      </c>
+      <c r="R48">
+        <v>2.072538860103627</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -2317,15 +2602,42 @@
         <v>4496</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>66</v>
       </c>
+      <c r="F50">
+        <v>21</v>
+      </c>
+      <c r="G50">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
       <c r="J50">
         <v>3949</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>41</v>
+      </c>
+      <c r="O50">
+        <v>0.531780197518359</v>
+      </c>
+      <c r="P50">
+        <v>0.3038743985819195</v>
+      </c>
+      <c r="Q50">
+        <v>0.02532286654849329</v>
+      </c>
+      <c r="R50">
+        <v>1.038237528488225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -2333,15 +2645,27 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>68</v>
       </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
       <c r="J52">
         <v>6568</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="O52">
+        <v>0.06090133982947624</v>
+      </c>
+      <c r="R52">
+        <v>0.06090133982947624</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -2349,15 +2673,42 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>70</v>
       </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>32</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
       <c r="J54">
         <v>10414</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>39</v>
+      </c>
+      <c r="O54">
+        <v>0.04801229114653351</v>
+      </c>
+      <c r="P54">
+        <v>0.3072786633378145</v>
+      </c>
+      <c r="Q54">
+        <v>0.0192049164586134</v>
+      </c>
+      <c r="R54">
+        <v>0.3744958709429614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -2365,7 +2716,7 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -2373,23 +2724,53 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>73</v>
       </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>8</v>
+      </c>
       <c r="J57">
         <v>3092</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>13</v>
+      </c>
+      <c r="O57">
+        <v>0.1617076326002587</v>
+      </c>
+      <c r="P57">
+        <v>0.258732212160414</v>
+      </c>
+      <c r="R57">
+        <v>0.4204398447606726</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>74</v>
       </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
       <c r="J58">
         <v>5325</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>0.03755868544600939</v>
+      </c>
+      <c r="R58">
+        <v>0.03755868544600939</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -2397,7 +2778,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -2405,7 +2786,7 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -2413,23 +2794,47 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>78</v>
       </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
       <c r="J62">
         <v>21269</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>0.009403356998448445</v>
+      </c>
+      <c r="R62">
+        <v>0.009403356998448445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>79</v>
       </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
       <c r="J63">
         <v>5012</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0.01995211492418196</v>
+      </c>
+      <c r="R63">
+        <v>0.01995211492418196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -2437,15 +2842,27 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>81</v>
       </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
       <c r="J65">
         <v>3685</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0.0271370420624152</v>
+      </c>
+      <c r="R65">
+        <v>0.0271370420624152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -2453,15 +2870,27 @@
         <v>25464</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>83</v>
       </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
       <c r="J67">
         <v>14997</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <v>0.01333600053344002</v>
+      </c>
+      <c r="R67">
+        <v>0.01333600053344002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -2469,31 +2898,61 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>85</v>
       </c>
       <c r="J69">
         <v>7510</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>0.02663115845539281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>86</v>
       </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
       <c r="J70">
         <v>14646</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>6</v>
+      </c>
+      <c r="O70">
+        <v>0.01365560562610952</v>
+      </c>
+      <c r="P70">
+        <v>0.02731121125221904</v>
+      </c>
+      <c r="R70">
+        <v>0.04096681687832855</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>87</v>
       </c>
       <c r="J71">
         <v>10715</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>6</v>
+      </c>
+      <c r="R71">
+        <v>0.05599626691553896</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -2501,7 +2960,7 @@
         <v>5723</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>89</v>
       </c>
@@ -2509,7 +2968,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -2517,15 +2976,27 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>91</v>
       </c>
+      <c r="F75">
+        <v>39</v>
+      </c>
       <c r="J75">
         <v>5219</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>39</v>
+      </c>
+      <c r="O75">
+        <v>0.7472695918758382</v>
+      </c>
+      <c r="R75">
+        <v>0.7472695918758382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -2533,23 +3004,59 @@
         <v>370</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>93</v>
       </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>64</v>
+      </c>
       <c r="J77">
         <v>371</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>73</v>
+      </c>
+      <c r="O77">
+        <v>1.617250673854447</v>
+      </c>
+      <c r="P77">
+        <v>17.25067385444744</v>
+      </c>
+      <c r="R77">
+        <v>19.67654986522911</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>94</v>
       </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>6</v>
+      </c>
       <c r="J78">
         <v>385</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>8</v>
+      </c>
+      <c r="O78">
+        <v>0.5194805194805194</v>
+      </c>
+      <c r="P78">
+        <v>1.558441558441559</v>
+      </c>
+      <c r="R78">
+        <v>2.077922077922078</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -2557,7 +3064,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -2565,7 +3072,7 @@
         <v>155048</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -2573,7 +3080,7 @@
         <v>9462</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -2581,7 +3088,7 @@
         <v>11890</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>99</v>
       </c>
@@ -2589,23 +3096,59 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>100</v>
       </c>
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <v>32</v>
+      </c>
       <c r="J84">
         <v>2147</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>134</v>
+      </c>
+      <c r="O84">
+        <v>3.865859338612017</v>
+      </c>
+      <c r="P84">
+        <v>1.490451793199814</v>
+      </c>
+      <c r="R84">
+        <v>6.24126688402422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>101</v>
       </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>4</v>
+      </c>
       <c r="J85">
         <v>1894</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>9</v>
+      </c>
+      <c r="O85">
+        <v>0.2639915522703273</v>
+      </c>
+      <c r="P85">
+        <v>0.2111932418162619</v>
+      </c>
+      <c r="R85">
+        <v>0.4751847940865892</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>102</v>
       </c>
@@ -2613,7 +3156,7 @@
         <v>9258</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -2621,15 +3164,33 @@
         <v>8676</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>104</v>
       </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
       <c r="J88">
         <v>822</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>11</v>
+      </c>
+      <c r="O88">
+        <v>0.364963503649635</v>
+      </c>
+      <c r="P88">
+        <v>0.4866180048661801</v>
+      </c>
+      <c r="R88">
+        <v>1.338199513381995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>105</v>
       </c>
@@ -2637,15 +3198,27 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>106</v>
       </c>
+      <c r="G90">
+        <v>23</v>
+      </c>
       <c r="J90">
         <v>508</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>23</v>
+      </c>
+      <c r="P90">
+        <v>4.52755905511811</v>
+      </c>
+      <c r="R90">
+        <v>4.52755905511811</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>107</v>
       </c>
@@ -2653,7 +3226,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -2661,7 +3234,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -2669,7 +3242,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -2677,23 +3250,53 @@
         <v>581</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>111</v>
       </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
       <c r="J95">
         <v>126</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="O95">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="P95">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="R95">
+        <v>2.380952380952381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>112</v>
       </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
       <c r="J96">
         <v>418</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="P96">
+        <v>0.4784688995215311</v>
+      </c>
+      <c r="R96">
+        <v>0.4784688995215311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>113</v>
       </c>
@@ -2701,23 +3304,62 @@
         <v>7019</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>114</v>
       </c>
+      <c r="F98">
+        <v>58</v>
+      </c>
+      <c r="G98">
+        <v>579</v>
+      </c>
+      <c r="H98">
+        <v>9</v>
+      </c>
+      <c r="I98">
+        <v>9</v>
+      </c>
       <c r="J98">
         <v>3343</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>680</v>
+      </c>
+      <c r="O98">
+        <v>1.734968591085851</v>
+      </c>
+      <c r="P98">
+        <v>17.31977265928807</v>
+      </c>
+      <c r="Q98">
+        <v>0.2692192641340114</v>
+      </c>
+      <c r="R98">
+        <v>20.34101106790308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>115</v>
       </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
       <c r="J99">
         <v>634</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <v>0.3154574132492113</v>
+      </c>
+      <c r="R99">
+        <v>0.3154574132492113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2725,7 +3367,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>117</v>
       </c>
@@ -2733,7 +3375,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -2741,7 +3383,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -2749,47 +3391,128 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>120</v>
       </c>
+      <c r="G104">
+        <v>1568</v>
+      </c>
       <c r="J104">
         <v>12237</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>1570</v>
+      </c>
+      <c r="P104">
+        <v>12.81359810411048</v>
+      </c>
+      <c r="R104">
+        <v>12.82994197924328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>121</v>
       </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
       <c r="J105">
         <v>396</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="P105">
+        <v>0.5050505050505051</v>
+      </c>
+      <c r="R105">
+        <v>0.5050505050505051</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>122</v>
       </c>
+      <c r="F106">
+        <v>328</v>
+      </c>
+      <c r="G106">
+        <v>244</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106">
+        <v>4</v>
+      </c>
       <c r="J106">
         <v>16575</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>577</v>
+      </c>
+      <c r="O106">
+        <v>1.978883861236802</v>
+      </c>
+      <c r="P106">
+        <v>1.47209653092006</v>
+      </c>
+      <c r="Q106">
+        <v>0.02413273001508296</v>
+      </c>
+      <c r="R106">
+        <v>3.481146304675716</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>123</v>
       </c>
+      <c r="F107">
+        <v>20</v>
+      </c>
+      <c r="G107">
+        <v>28</v>
+      </c>
       <c r="J107">
         <v>16129</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>49</v>
+      </c>
+      <c r="O107">
+        <v>0.124000248000496</v>
+      </c>
+      <c r="P107">
+        <v>0.1736003472006944</v>
+      </c>
+      <c r="R107">
+        <v>0.3038006076012152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
         <v>124</v>
       </c>
+      <c r="F108">
+        <v>58</v>
+      </c>
       <c r="J108">
         <v>2497</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>58</v>
+      </c>
+      <c r="O108">
+        <v>2.322787344813777</v>
+      </c>
+      <c r="R108">
+        <v>2.322787344813777</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -2797,23 +3520,47 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>126</v>
       </c>
+      <c r="G110">
+        <v>12</v>
+      </c>
       <c r="J110">
         <v>2763</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>12</v>
+      </c>
+      <c r="P110">
+        <v>0.4343105320304018</v>
+      </c>
+      <c r="R110">
+        <v>0.4343105320304018</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>127</v>
       </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
       <c r="J111">
         <v>6948</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0.01439263097294186</v>
+      </c>
+      <c r="R111">
+        <v>0.01439263097294186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -2821,7 +3568,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>129</v>
       </c>
@@ -2829,7 +3576,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>130</v>
       </c>
@@ -2837,7 +3584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>131</v>
       </c>
@@ -2845,23 +3592,53 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>132</v>
       </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
       <c r="J116">
         <v>415</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>6</v>
+      </c>
+      <c r="O116">
+        <v>0.7228915662650602</v>
+      </c>
+      <c r="P116">
+        <v>0.7228915662650602</v>
+      </c>
+      <c r="R116">
+        <v>1.44578313253012</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>133</v>
       </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
       <c r="J117">
         <v>347</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>5</v>
+      </c>
+      <c r="P117">
+        <v>0.8645533141210375</v>
+      </c>
+      <c r="R117">
+        <v>1.440922190201729</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>134</v>
       </c>
@@ -2869,23 +3646,53 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>135</v>
       </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
       <c r="J119">
         <v>310</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="R119">
+        <v>0.3225806451612903</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>136</v>
       </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>6</v>
+      </c>
       <c r="J120">
         <v>1148</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>7</v>
+      </c>
+      <c r="O120">
+        <v>0.08710801393728224</v>
+      </c>
+      <c r="P120">
+        <v>0.5226480836236934</v>
+      </c>
+      <c r="R120">
+        <v>0.6097560975609756</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -2893,7 +3700,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -2901,31 +3708,85 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>139</v>
       </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
       <c r="J123">
         <v>579</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>6</v>
+      </c>
+      <c r="O123">
+        <v>0.5181347150259068</v>
+      </c>
+      <c r="P123">
+        <v>0.5181347150259068</v>
+      </c>
+      <c r="R123">
+        <v>1.036269430051814</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>140</v>
       </c>
+      <c r="F124">
+        <v>11</v>
+      </c>
+      <c r="G124">
+        <v>10</v>
+      </c>
       <c r="J124">
         <v>971</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>21</v>
+      </c>
+      <c r="O124">
+        <v>1.132852729145211</v>
+      </c>
+      <c r="P124">
+        <v>1.029866117404737</v>
+      </c>
+      <c r="R124">
+        <v>2.162718846549948</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>141</v>
       </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125">
+        <v>14</v>
+      </c>
       <c r="J125">
         <v>24068</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>28</v>
+      </c>
+      <c r="O125">
+        <v>0.058168522519528</v>
+      </c>
+      <c r="P125">
+        <v>0.058168522519528</v>
+      </c>
+      <c r="R125">
+        <v>0.116337045039056</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -2933,7 +3794,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -2941,15 +3802,27 @@
         <v>5645</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>144</v>
       </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
       <c r="J128">
         <v>670</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>5</v>
+      </c>
+      <c r="P128">
+        <v>0.7462686567164178</v>
+      </c>
+      <c r="R128">
+        <v>0.7462686567164178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -2957,31 +3830,73 @@
         <v>476</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>146</v>
       </c>
+      <c r="F130">
+        <v>73</v>
+      </c>
+      <c r="G130">
+        <v>179</v>
+      </c>
       <c r="J130">
         <v>1322</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>318</v>
+      </c>
+      <c r="O130">
+        <v>5.521936459909228</v>
+      </c>
+      <c r="P130">
+        <v>13.54009077155824</v>
+      </c>
+      <c r="R130">
+        <v>24.05446293494705</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>147</v>
       </c>
       <c r="J131">
         <v>5702</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>318</v>
+      </c>
+      <c r="R131">
+        <v>5.576990529638723</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>148</v>
       </c>
+      <c r="F132">
+        <v>32</v>
+      </c>
+      <c r="G132">
+        <v>6</v>
+      </c>
       <c r="J132">
         <v>1146</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>48</v>
+      </c>
+      <c r="O132">
+        <v>2.792321116928447</v>
+      </c>
+      <c r="P132">
+        <v>0.5235602094240838</v>
+      </c>
+      <c r="R132">
+        <v>4.18848167539267</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -2989,7 +3904,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -2997,15 +3912,42 @@
         <v>9040</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>151</v>
       </c>
+      <c r="F135">
+        <v>244</v>
+      </c>
+      <c r="G135">
+        <v>126</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
       <c r="J135">
         <v>2980</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>372</v>
+      </c>
+      <c r="O135">
+        <v>8.187919463087248</v>
+      </c>
+      <c r="P135">
+        <v>4.228187919463087</v>
+      </c>
+      <c r="Q135">
+        <v>0.03355704697986577</v>
+      </c>
+      <c r="R135">
+        <v>12.48322147651007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>152</v>
       </c>
@@ -3013,7 +3955,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>153</v>
       </c>
@@ -3021,7 +3963,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>154</v>
       </c>
@@ -3029,15 +3971,27 @@
         <v>904</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>155</v>
       </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
       <c r="J139">
         <v>1131</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <v>0.08841732979664013</v>
+      </c>
+      <c r="R139">
+        <v>0.08841732979664013</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>156</v>
       </c>
@@ -3045,7 +3999,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>157</v>
       </c>
@@ -3053,15 +4007,33 @@
         <v>613</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>158</v>
       </c>
+      <c r="F142">
+        <v>102</v>
+      </c>
+      <c r="G142">
+        <v>152</v>
+      </c>
       <c r="J142">
         <v>4119</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>255</v>
+      </c>
+      <c r="O142">
+        <v>2.47632920611799</v>
+      </c>
+      <c r="P142">
+        <v>3.690216071862103</v>
+      </c>
+      <c r="R142">
+        <v>6.190823015294974</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -3069,15 +4041,33 @@
         <v>539</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>160</v>
       </c>
+      <c r="F144">
+        <v>101</v>
+      </c>
+      <c r="G144">
+        <v>44</v>
+      </c>
       <c r="J144">
         <v>1272</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>151</v>
+      </c>
+      <c r="O144">
+        <v>7.940251572327043</v>
+      </c>
+      <c r="P144">
+        <v>3.459119496855346</v>
+      </c>
+      <c r="R144">
+        <v>11.87106918238994</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -3085,15 +4075,21 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
         <v>162</v>
       </c>
       <c r="J146">
         <v>4286</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>151</v>
+      </c>
+      <c r="R146">
+        <v>3.52309846010266</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>163</v>
       </c>
@@ -3101,23 +4097,47 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>164</v>
       </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>18</v>
+      </c>
       <c r="J148">
         <v>10310</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>22</v>
+      </c>
+      <c r="O148">
+        <v>0.02909796314258002</v>
+      </c>
+      <c r="P148">
+        <v>0.1745877788554801</v>
+      </c>
+      <c r="R148">
+        <v>0.2133850630455868</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>165</v>
       </c>
       <c r="J149">
         <v>9987</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>22</v>
+      </c>
+      <c r="R149">
+        <v>0.2202863722839692</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>166</v>
       </c>
@@ -3125,15 +4145,27 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>167</v>
       </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
       <c r="J151">
         <v>1863</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="O151">
+        <v>0.05367686527106817</v>
+      </c>
+      <c r="R151">
+        <v>0.05367686527106817</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -3141,15 +4173,21 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
         <v>169</v>
       </c>
       <c r="J153">
         <v>31136</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="R153">
+        <v>0.003211716341212744</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
         <v>170</v>
       </c>
@@ -3157,7 +4195,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -3165,15 +4203,27 @@
         <v>391</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
         <v>172</v>
       </c>
+      <c r="G156">
+        <v>4</v>
+      </c>
       <c r="J156">
         <v>1152</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>4</v>
+      </c>
+      <c r="P156">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="R156">
+        <v>0.3472222222222222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -3181,7 +4231,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
         <v>174</v>
       </c>
@@ -3189,7 +4239,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
         <v>175</v>
       </c>
@@ -3197,7 +4247,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
         <v>176</v>
       </c>
@@ -3205,7 +4255,7 @@
         <v>8048</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
         <v>177</v>
       </c>
@@ -3213,7 +4263,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -3221,7 +4271,7 @@
         <v>4921</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -3229,7 +4279,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -3237,7 +4287,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -3245,15 +4295,42 @@
         <v>984</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
         <v>182</v>
       </c>
+      <c r="F166">
+        <v>26</v>
+      </c>
+      <c r="G166">
+        <v>9</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
       <c r="J166">
         <v>1409</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>40</v>
+      </c>
+      <c r="O166">
+        <v>1.84528034066714</v>
+      </c>
+      <c r="P166">
+        <v>0.63875088715401</v>
+      </c>
+      <c r="Q166">
+        <v>0.14194464158978</v>
+      </c>
+      <c r="R166">
+        <v>2.838892831795599</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -3261,7 +4338,7 @@
         <v>4056</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -3269,7 +4346,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -3277,15 +4354,21 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
         <v>186</v>
       </c>
       <c r="J170">
         <v>15304</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>40</v>
+      </c>
+      <c r="R170">
+        <v>0.261369576581286</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -3293,7 +4376,7 @@
         <v>21198</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -3301,15 +4384,27 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
         <v>189</v>
       </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
       <c r="J173">
         <v>1104</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>3</v>
+      </c>
+      <c r="P173">
+        <v>0.2717391304347826</v>
+      </c>
+      <c r="R173">
+        <v>0.2717391304347826</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -3317,7 +4412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -3325,7 +4420,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:18">
       <c r="A176" t="s">
         <v>192</v>
       </c>
@@ -3333,7 +4428,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
         <v>193</v>
       </c>
@@ -3341,7 +4436,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -3349,23 +4444,47 @@
         <v>415</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
         <v>195</v>
       </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
       <c r="J179">
         <v>865</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>0.115606936416185</v>
+      </c>
+      <c r="R179">
+        <v>0.115606936416185</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
         <v>196</v>
       </c>
+      <c r="F180">
+        <v>11</v>
+      </c>
       <c r="J180">
         <v>2596</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>11</v>
+      </c>
+      <c r="O180">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="R180">
+        <v>0.423728813559322</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>197</v>
       </c>
@@ -3373,15 +4492,33 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>198</v>
       </c>
+      <c r="F182">
+        <v>29</v>
+      </c>
+      <c r="G182">
+        <v>97</v>
+      </c>
       <c r="J182">
         <v>18323</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>140</v>
+      </c>
+      <c r="O182">
+        <v>0.1582710254870927</v>
+      </c>
+      <c r="P182">
+        <v>0.5293892921464826</v>
+      </c>
+      <c r="R182">
+        <v>0.7640670195928614</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -3389,7 +4526,7 @@
         <v>17385</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -3397,7 +4534,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -3405,7 +4542,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -3413,7 +4550,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -3421,23 +4558,59 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>204</v>
       </c>
+      <c r="F188">
+        <v>8</v>
+      </c>
+      <c r="G188">
+        <v>47</v>
+      </c>
       <c r="J188">
         <v>1427</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>55</v>
+      </c>
+      <c r="O188">
+        <v>0.5606166783461808</v>
+      </c>
+      <c r="P188">
+        <v>3.293622985283812</v>
+      </c>
+      <c r="R188">
+        <v>3.854239663629993</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>205</v>
       </c>
+      <c r="F189">
+        <v>158</v>
+      </c>
+      <c r="G189">
+        <v>70</v>
+      </c>
       <c r="J189">
         <v>7600</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>230</v>
+      </c>
+      <c r="O189">
+        <v>2.078947368421053</v>
+      </c>
+      <c r="P189">
+        <v>0.9210526315789472</v>
+      </c>
+      <c r="R189">
+        <v>3.026315789473684</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -3445,7 +4618,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -3453,7 +4626,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:18">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -3461,7 +4634,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:18">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -3469,15 +4642,27 @@
         <v>311</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:18">
       <c r="A194" t="s">
         <v>210</v>
       </c>
+      <c r="G194">
+        <v>29</v>
+      </c>
       <c r="J194">
         <v>780</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>29</v>
+      </c>
+      <c r="P194">
+        <v>3.717948717948718</v>
+      </c>
+      <c r="R194">
+        <v>3.717948717948718</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -3485,7 +4670,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:18">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -3493,15 +4678,42 @@
         <v>926</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:18">
       <c r="A197" t="s">
         <v>213</v>
       </c>
+      <c r="F197">
+        <v>367</v>
+      </c>
+      <c r="G197">
+        <v>436</v>
+      </c>
+      <c r="H197">
+        <v>19</v>
+      </c>
+      <c r="I197">
+        <v>19</v>
+      </c>
       <c r="J197">
         <v>3864</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>967</v>
+      </c>
+      <c r="O197">
+        <v>9.497929606625259</v>
+      </c>
+      <c r="P197">
+        <v>11.28364389233954</v>
+      </c>
+      <c r="Q197">
+        <v>0.4917184265010352</v>
+      </c>
+      <c r="R197">
+        <v>25.02587991718426</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -3509,7 +4721,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:18">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -3517,7 +4729,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:18">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -3525,15 +4737,27 @@
         <v>176267</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:18">
       <c r="A201" t="s">
         <v>217</v>
       </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
       <c r="J201">
         <v>1830</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="P201">
+        <v>0.0546448087431694</v>
+      </c>
+      <c r="R201">
+        <v>0.0546448087431694</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -3541,7 +4765,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:18">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -3549,23 +4773,41 @@
         <v>350</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:18">
       <c r="A204" t="s">
         <v>220</v>
       </c>
       <c r="J204">
         <v>87865</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="R204">
+        <v>0.001138109599954476</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18">
       <c r="A205" t="s">
         <v>221</v>
       </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
       <c r="J205">
         <v>1217</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="P205">
+        <v>0.2465078060805259</v>
+      </c>
+      <c r="R205">
+        <v>0.2465078060805259</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -3573,15 +4815,33 @@
         <v>464</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:18">
       <c r="A207" t="s">
         <v>223</v>
       </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
       <c r="J207">
         <v>1326</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>3</v>
+      </c>
+      <c r="O207">
+        <v>0.07541478129713425</v>
+      </c>
+      <c r="P207">
+        <v>0.1508295625942685</v>
+      </c>
+      <c r="R207">
+        <v>0.2262443438914027</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -3589,15 +4849,33 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:18">
       <c r="A209" t="s">
         <v>225</v>
       </c>
+      <c r="F209">
+        <v>28</v>
+      </c>
+      <c r="G209">
+        <v>115</v>
+      </c>
       <c r="J209">
         <v>10060</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>152</v>
+      </c>
+      <c r="O209">
+        <v>0.2783300198807157</v>
+      </c>
+      <c r="P209">
+        <v>1.143141153081511</v>
+      </c>
+      <c r="R209">
+        <v>1.510934393638171</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -3605,7 +4883,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:18">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -3613,7 +4891,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:18">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -3621,7 +4899,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:18">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -3629,15 +4907,21 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:18">
       <c r="A214" t="s">
         <v>230</v>
       </c>
       <c r="J214">
         <v>12415</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>152</v>
+      </c>
+      <c r="R214">
+        <v>1.224325412807088</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -3645,15 +4929,27 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:18">
       <c r="A216" t="s">
         <v>232</v>
       </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
       <c r="J216">
         <v>546</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="O216">
+        <v>0.1831501831501831</v>
+      </c>
+      <c r="R216">
+        <v>0.1831501831501831</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -3661,15 +4957,27 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:18">
       <c r="A218" t="s">
         <v>234</v>
       </c>
+      <c r="G218">
+        <v>6</v>
+      </c>
       <c r="J218">
         <v>427</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>8</v>
+      </c>
+      <c r="P218">
+        <v>1.405152224824356</v>
+      </c>
+      <c r="R218">
+        <v>1.873536299765808</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -3677,7 +4985,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:18">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -3685,23 +4993,41 @@
         <v>890</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:18">
       <c r="A221" t="s">
         <v>237</v>
       </c>
+      <c r="G221">
+        <v>8</v>
+      </c>
       <c r="J221">
         <v>1166</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>8</v>
+      </c>
+      <c r="P221">
+        <v>0.6861063464837049</v>
+      </c>
+      <c r="R221">
+        <v>0.6861063464837049</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18">
       <c r="A222" t="s">
         <v>238</v>
       </c>
       <c r="J222">
         <v>4451</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>8</v>
+      </c>
+      <c r="R222">
+        <v>0.1797348910357223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -3709,31 +5035,73 @@
         <v>96</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:18">
       <c r="A224" t="s">
         <v>240</v>
       </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
       <c r="J224">
         <v>2335</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="P224">
+        <v>0.04282655246252676</v>
+      </c>
+      <c r="R224">
+        <v>0.04282655246252676</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>241</v>
       </c>
+      <c r="G225">
+        <v>4</v>
+      </c>
       <c r="J225">
         <v>1624</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>6</v>
+      </c>
+      <c r="P225">
+        <v>0.2463054187192118</v>
+      </c>
+      <c r="R225">
+        <v>0.3694581280788177</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>242</v>
       </c>
+      <c r="F226">
+        <v>154</v>
+      </c>
+      <c r="G226">
+        <v>226</v>
+      </c>
       <c r="J226">
         <v>2984</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>715</v>
+      </c>
+      <c r="O226">
+        <v>5.160857908847185</v>
+      </c>
+      <c r="P226">
+        <v>7.57372654155496</v>
+      </c>
+      <c r="R226">
+        <v>23.96112600536193</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -3741,15 +5109,27 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:18">
       <c r="A228" t="s">
         <v>244</v>
       </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
       <c r="J228">
         <v>2821</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="O228">
+        <v>0.03544842254519674</v>
+      </c>
+      <c r="R228">
+        <v>0.03544842254519674</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -3757,23 +5137,53 @@
         <v>472</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:18">
       <c r="A230" t="s">
         <v>246</v>
       </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
       <c r="J230">
         <v>1010</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="O230">
+        <v>0.09900990099009901</v>
+      </c>
+      <c r="R230">
+        <v>0.09900990099009901</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18">
       <c r="A231" t="s">
         <v>247</v>
       </c>
+      <c r="F231">
+        <v>9</v>
+      </c>
+      <c r="G231">
+        <v>2</v>
+      </c>
       <c r="J231">
         <v>1296</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>11</v>
+      </c>
+      <c r="O231">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="P231">
+        <v>0.154320987654321</v>
+      </c>
+      <c r="R231">
+        <v>0.8487654320987654</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -3781,7 +5191,7 @@
         <v>7769</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:18">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -3789,7 +5199,7 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:18">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -3797,15 +5207,33 @@
         <v>310</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:18">
       <c r="A235" t="s">
         <v>251</v>
       </c>
+      <c r="F235">
+        <v>8</v>
+      </c>
+      <c r="G235">
+        <v>20</v>
+      </c>
       <c r="J235">
         <v>3336</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>28</v>
+      </c>
+      <c r="O235">
+        <v>0.2398081534772182</v>
+      </c>
+      <c r="P235">
+        <v>0.5995203836930456</v>
+      </c>
+      <c r="R235">
+        <v>0.8393285371702638</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -3813,7 +5241,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:18">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -3821,7 +5249,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:18">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -3829,7 +5257,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:18">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -3837,7 +5265,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:18">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -3845,23 +5273,53 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>257</v>
       </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+      <c r="G241">
+        <v>14</v>
+      </c>
       <c r="J241">
         <v>1016</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>21</v>
+      </c>
+      <c r="O241">
+        <v>0.1968503937007874</v>
+      </c>
+      <c r="P241">
+        <v>1.377952755905512</v>
+      </c>
+      <c r="R241">
+        <v>2.066929133858268</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18">
       <c r="A242" t="s">
         <v>258</v>
       </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
       <c r="J242">
         <v>2581</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="O242">
+        <v>0.03874467260751647</v>
+      </c>
+      <c r="R242">
+        <v>0.03874467260751647</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -3869,7 +5327,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -3877,15 +5335,27 @@
         <v>163</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:18">
       <c r="A245" t="s">
         <v>261</v>
       </c>
+      <c r="F245">
+        <v>3</v>
+      </c>
       <c r="J245">
         <v>1423</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>3</v>
+      </c>
+      <c r="O245">
+        <v>0.2108222066057625</v>
+      </c>
+      <c r="R245">
+        <v>0.2108222066057625</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -3893,7 +5363,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:18">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -3901,7 +5371,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:18">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -3909,15 +5379,33 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:18">
       <c r="A249" t="s">
         <v>265</v>
       </c>
+      <c r="F249">
+        <v>2</v>
+      </c>
+      <c r="G249">
+        <v>2</v>
+      </c>
       <c r="J249">
         <v>12458</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>5</v>
+      </c>
+      <c r="O249">
+        <v>0.01605394124257505</v>
+      </c>
+      <c r="P249">
+        <v>0.01605394124257505</v>
+      </c>
+      <c r="R249">
+        <v>0.04013485310643763</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -3925,7 +5413,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:18">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -3933,7 +5421,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:18">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -3941,23 +5429,41 @@
         <v>930</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:18">
       <c r="A253" t="s">
         <v>269</v>
       </c>
+      <c r="G253">
+        <v>8</v>
+      </c>
       <c r="J253">
         <v>31535</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>11</v>
+      </c>
+      <c r="P253">
+        <v>0.02536863802124624</v>
+      </c>
+      <c r="R253">
+        <v>0.03488187727921357</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18">
       <c r="A254" t="s">
         <v>270</v>
       </c>
       <c r="J254">
         <v>230526</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>11</v>
+      </c>
+      <c r="R254">
+        <v>0.004771696034286805</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -3965,31 +5471,67 @@
         <v>307</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:18">
       <c r="A256" t="s">
         <v>272</v>
       </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
       <c r="J256">
         <v>248</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="O256">
+        <v>0.4032258064516129</v>
+      </c>
+      <c r="R256">
+        <v>0.4032258064516129</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18">
       <c r="A257" t="s">
         <v>273</v>
       </c>
+      <c r="G257">
+        <v>4</v>
+      </c>
       <c r="J257">
         <v>5047</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>4</v>
+      </c>
+      <c r="P257">
+        <v>0.0792550029720626</v>
+      </c>
+      <c r="R257">
+        <v>0.0792550029720626</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18">
       <c r="A258" t="s">
         <v>274</v>
       </c>
+      <c r="G258">
+        <v>2</v>
+      </c>
       <c r="J258">
         <v>3375</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>2</v>
+      </c>
+      <c r="P258">
+        <v>0.05925925925925926</v>
+      </c>
+      <c r="R258">
+        <v>0.05925925925925926</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -3997,7 +5539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:18">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -4005,7 +5547,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:18">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -4013,7 +5555,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:18">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -4021,15 +5563,27 @@
         <v>502</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:18">
       <c r="A263" t="s">
         <v>91</v>
       </c>
+      <c r="F263">
+        <v>39</v>
+      </c>
       <c r="J263">
         <v>5219</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>39</v>
+      </c>
+      <c r="O263">
+        <v>0.7472695918758382</v>
+      </c>
+      <c r="R263">
+        <v>0.7472695918758382</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18">
       <c r="A264" t="s">
         <v>279</v>
       </c>
@@ -4037,15 +5591,33 @@
         <v>566</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:18">
       <c r="A265" t="s">
         <v>280</v>
       </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+      <c r="G265">
+        <v>17</v>
+      </c>
       <c r="J265">
         <v>1550</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>23</v>
+      </c>
+      <c r="O265">
+        <v>0.1290322580645161</v>
+      </c>
+      <c r="P265">
+        <v>1.096774193548387</v>
+      </c>
+      <c r="R265">
+        <v>1.483870967741935</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18">
       <c r="A266" t="s">
         <v>281</v>
       </c>
@@ -4053,7 +5625,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:18">
       <c r="A267" t="s">
         <v>282</v>
       </c>
@@ -4061,7 +5633,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:18">
       <c r="A268" t="s">
         <v>283</v>
       </c>
@@ -4069,7 +5641,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:18">
       <c r="A269" t="s">
         <v>284</v>
       </c>
@@ -4077,7 +5649,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:18">
       <c r="A270" t="s">
         <v>285</v>
       </c>
@@ -4085,7 +5657,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:18">
       <c r="A271" t="s">
         <v>286</v>
       </c>
@@ -4093,15 +5665,33 @@
         <v>616</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:18">
       <c r="A272" t="s">
         <v>287</v>
       </c>
+      <c r="F272">
+        <v>37</v>
+      </c>
+      <c r="G272">
+        <v>18</v>
+      </c>
       <c r="J272">
         <v>1893</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>57</v>
+      </c>
+      <c r="O272">
+        <v>1.954569466455362</v>
+      </c>
+      <c r="P272">
+        <v>0.9508716323296356</v>
+      </c>
+      <c r="R272">
+        <v>3.011093502377179</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18">
       <c r="A273" t="s">
         <v>288</v>
       </c>
@@ -4109,7 +5699,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:18">
       <c r="A274" t="s">
         <v>289</v>
       </c>
@@ -4117,55 +5707,133 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:18">
       <c r="A275" t="s">
         <v>290</v>
       </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
       <c r="J275">
         <v>8752</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>2</v>
+      </c>
+      <c r="O275">
+        <v>0.02285191956124314</v>
+      </c>
+      <c r="R275">
+        <v>0.02285191956124314</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18">
       <c r="A276" t="s">
         <v>291</v>
       </c>
+      <c r="F276">
+        <v>30</v>
+      </c>
+      <c r="G276">
+        <v>188</v>
+      </c>
       <c r="J276">
         <v>9766</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>273</v>
+      </c>
+      <c r="O276">
+        <v>0.3071882039729675</v>
+      </c>
+      <c r="P276">
+        <v>1.925046078230596</v>
+      </c>
+      <c r="R276">
+        <v>2.795412656154004</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18">
       <c r="A277" t="s">
         <v>292</v>
       </c>
       <c r="J277">
         <v>4973</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>273</v>
+      </c>
+      <c r="R277">
+        <v>5.489644078021315</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18">
       <c r="A278" t="s">
         <v>293</v>
       </c>
       <c r="J278">
         <v>6046</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>273</v>
+      </c>
+      <c r="R278">
+        <v>4.515382070790605</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18">
       <c r="A279" t="s">
         <v>294</v>
       </c>
+      <c r="F279">
+        <v>20</v>
+      </c>
+      <c r="G279">
+        <v>19</v>
+      </c>
       <c r="J279">
         <v>12625</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>39</v>
+      </c>
+      <c r="O279">
+        <v>0.1584158415841584</v>
+      </c>
+      <c r="P279">
+        <v>0.1504950495049505</v>
+      </c>
+      <c r="R279">
+        <v>0.3089108910891089</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18">
       <c r="A280" t="s">
         <v>295</v>
       </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>2</v>
+      </c>
       <c r="J280">
         <v>2056</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>3</v>
+      </c>
+      <c r="O280">
+        <v>0.04863813229571985</v>
+      </c>
+      <c r="P280">
+        <v>0.09727626459143969</v>
+      </c>
+      <c r="R280">
+        <v>0.1459143968871595</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -4173,7 +5841,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:18">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -4181,7 +5849,7 @@
         <v>5872</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:18">
       <c r="A283" t="s">
         <v>298</v>
       </c>
@@ -4189,15 +5857,27 @@
         <v>370</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:18">
       <c r="A284" t="s">
         <v>299</v>
       </c>
+      <c r="F284">
+        <v>11</v>
+      </c>
       <c r="J284">
         <v>3632</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>35</v>
+      </c>
+      <c r="O284">
+        <v>0.302863436123348</v>
+      </c>
+      <c r="R284">
+        <v>0.9636563876651982</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285" t="s">
         <v>300</v>
       </c>
@@ -4205,7 +5885,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:18">
       <c r="A286" t="s">
         <v>301</v>
       </c>
@@ -4213,31 +5893,73 @@
         <v>257</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:18">
       <c r="A287" t="s">
         <v>302</v>
       </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
       <c r="J287">
         <v>3654</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="O287">
+        <v>0.02736726874657909</v>
+      </c>
+      <c r="R287">
+        <v>0.02736726874657909</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18">
       <c r="A288" t="s">
         <v>303</v>
       </c>
+      <c r="F288">
+        <v>6</v>
+      </c>
+      <c r="G288">
+        <v>16</v>
+      </c>
       <c r="J288">
         <v>3600</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>22</v>
+      </c>
+      <c r="O288">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="P288">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="R288">
+        <v>0.6111111111111112</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18">
       <c r="A289" t="s">
         <v>304</v>
       </c>
+      <c r="G289">
+        <v>3</v>
+      </c>
       <c r="J289">
         <v>3142</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>3</v>
+      </c>
+      <c r="P289">
+        <v>0.09548058561425843</v>
+      </c>
+      <c r="R289">
+        <v>0.09548058561425843</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
       <c r="A290" t="s">
         <v>305</v>
       </c>
@@ -4245,7 +5967,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:18">
       <c r="A291" t="s">
         <v>306</v>
       </c>
@@ -4253,7 +5975,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:18">
       <c r="A292" t="s">
         <v>307</v>
       </c>
@@ -4261,7 +5983,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:18">
       <c r="A293" t="s">
         <v>308</v>
       </c>
@@ -4269,7 +5991,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:18">
       <c r="A294" t="s">
         <v>309</v>
       </c>
@@ -4277,31 +5999,61 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:18">
       <c r="A295" t="s">
         <v>310</v>
       </c>
       <c r="J295">
         <v>108431</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>3</v>
+      </c>
+      <c r="R295">
+        <v>0.002766736449908237</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18">
       <c r="A296" t="s">
         <v>311</v>
       </c>
+      <c r="F296">
+        <v>6</v>
+      </c>
+      <c r="G296">
+        <v>9</v>
+      </c>
       <c r="J296">
         <v>4641</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>34</v>
+      </c>
+      <c r="O296">
+        <v>0.1292824822236587</v>
+      </c>
+      <c r="P296">
+        <v>0.193923723335488</v>
+      </c>
+      <c r="R296">
+        <v>0.7326007326007326</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18">
       <c r="A297" t="s">
         <v>312</v>
       </c>
       <c r="J297">
         <v>4204</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>34</v>
+      </c>
+      <c r="R297">
+        <v>0.8087535680304472</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18">
       <c r="A298" t="s">
         <v>313</v>
       </c>
@@ -4309,15 +6061,42 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:18">
       <c r="A299" t="s">
         <v>314</v>
       </c>
+      <c r="F299">
+        <v>4</v>
+      </c>
+      <c r="G299">
+        <v>4</v>
+      </c>
+      <c r="H299">
+        <v>23</v>
+      </c>
+      <c r="I299">
+        <v>23</v>
+      </c>
       <c r="J299">
         <v>3311</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>33</v>
+      </c>
+      <c r="O299">
+        <v>0.1208094231350045</v>
+      </c>
+      <c r="P299">
+        <v>0.1208094231350045</v>
+      </c>
+      <c r="Q299">
+        <v>0.694654183026276</v>
+      </c>
+      <c r="R299">
+        <v>0.9966777408637874</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18">
       <c r="A300" t="s">
         <v>315</v>
       </c>
@@ -4325,15 +6104,33 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:18">
       <c r="A301" t="s">
         <v>316</v>
       </c>
+      <c r="F301">
+        <v>5</v>
+      </c>
+      <c r="G301">
+        <v>4</v>
+      </c>
       <c r="J301">
         <v>437</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>10</v>
+      </c>
+      <c r="O301">
+        <v>1.1441647597254</v>
+      </c>
+      <c r="P301">
+        <v>0.9153318077803204</v>
+      </c>
+      <c r="R301">
+        <v>2.288329519450801</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18">
       <c r="A302" t="s">
         <v>317</v>
       </c>
@@ -4341,7 +6138,7 @@
         <v>8536</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:18">
       <c r="A303" t="s">
         <v>318</v>
       </c>
@@ -4349,7 +6146,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:18">
       <c r="A304" t="s">
         <v>319</v>
       </c>
@@ -4357,15 +6154,27 @@
         <v>423</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:18">
       <c r="A305" t="s">
         <v>320</v>
       </c>
+      <c r="G305">
+        <v>4</v>
+      </c>
       <c r="J305">
         <v>36968</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>4</v>
+      </c>
+      <c r="P305">
+        <v>0.0108201687946332</v>
+      </c>
+      <c r="R305">
+        <v>0.0108201687946332</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18">
       <c r="A306" t="s">
         <v>321</v>
       </c>
@@ -4373,15 +6182,33 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:18">
       <c r="A307" t="s">
         <v>322</v>
       </c>
+      <c r="F307">
+        <v>19</v>
+      </c>
+      <c r="G307">
+        <v>12</v>
+      </c>
       <c r="J307">
         <v>3942</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>31</v>
+      </c>
+      <c r="O307">
+        <v>0.4819888381532217</v>
+      </c>
+      <c r="P307">
+        <v>0.30441400304414</v>
+      </c>
+      <c r="R307">
+        <v>0.7864028411973617</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18">
       <c r="A308" t="s">
         <v>323</v>
       </c>
@@ -4389,7 +6216,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:18">
       <c r="A309" t="s">
         <v>324</v>
       </c>
@@ -4397,7 +6224,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:18">
       <c r="A310" t="s">
         <v>325</v>
       </c>
@@ -4405,23 +6232,59 @@
         <v>866</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:18">
       <c r="A311" t="s">
         <v>326</v>
       </c>
+      <c r="F311">
+        <v>5</v>
+      </c>
+      <c r="G311">
+        <v>4</v>
+      </c>
       <c r="J311">
         <v>1458</v>
       </c>
-    </row>
-    <row r="312" spans="1:10">
+      <c r="K311">
+        <v>10</v>
+      </c>
+      <c r="O311">
+        <v>0.3429355281207133</v>
+      </c>
+      <c r="P311">
+        <v>0.2743484224965706</v>
+      </c>
+      <c r="R311">
+        <v>0.6858710562414266</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18">
       <c r="A312" t="s">
         <v>327</v>
       </c>
+      <c r="F312">
+        <v>13</v>
+      </c>
+      <c r="G312">
+        <v>18</v>
+      </c>
       <c r="J312">
         <v>7928</v>
       </c>
-    </row>
-    <row r="313" spans="1:10">
+      <c r="K312">
+        <v>48</v>
+      </c>
+      <c r="O312">
+        <v>0.1639757820383451</v>
+      </c>
+      <c r="P312">
+        <v>0.2270433905146317</v>
+      </c>
+      <c r="R312">
+        <v>0.6054490413723511</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18">
       <c r="A313" t="s">
         <v>328</v>
       </c>
@@ -4429,7 +6292,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:18">
       <c r="A314" t="s">
         <v>329</v>
       </c>
@@ -4437,15 +6300,33 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:18">
       <c r="A315" t="s">
         <v>330</v>
       </c>
+      <c r="F315">
+        <v>25</v>
+      </c>
+      <c r="G315">
+        <v>131</v>
+      </c>
       <c r="J315">
         <v>516</v>
       </c>
-    </row>
-    <row r="316" spans="1:10">
+      <c r="K315">
+        <v>162</v>
+      </c>
+      <c r="O315">
+        <v>4.844961240310078</v>
+      </c>
+      <c r="P315">
+        <v>25.38759689922481</v>
+      </c>
+      <c r="R315">
+        <v>31.3953488372093</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18">
       <c r="A316" t="s">
         <v>331</v>
       </c>
@@ -4453,7 +6334,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:18">
       <c r="A317" t="s">
         <v>332</v>
       </c>
@@ -4461,7 +6342,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:18">
       <c r="A318" t="s">
         <v>333</v>
       </c>
@@ -4469,7 +6350,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:18">
       <c r="A319" t="s">
         <v>334</v>
       </c>
@@ -4477,23 +6358,59 @@
         <v>304</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:18">
       <c r="A320" t="s">
         <v>335</v>
       </c>
+      <c r="F320">
+        <v>188</v>
+      </c>
+      <c r="G320">
+        <v>10</v>
+      </c>
       <c r="J320">
         <v>3608</v>
       </c>
-    </row>
-    <row r="321" spans="1:10">
+      <c r="K320">
+        <v>238</v>
+      </c>
+      <c r="O320">
+        <v>5.210643015521065</v>
+      </c>
+      <c r="P320">
+        <v>0.2771618625277162</v>
+      </c>
+      <c r="R320">
+        <v>6.596452328159645</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18">
       <c r="A321" t="s">
         <v>336</v>
       </c>
+      <c r="F321">
+        <v>30</v>
+      </c>
+      <c r="G321">
+        <v>195</v>
+      </c>
       <c r="J321">
         <v>2976</v>
       </c>
-    </row>
-    <row r="322" spans="1:10">
+      <c r="K321">
+        <v>270</v>
+      </c>
+      <c r="O321">
+        <v>1.008064516129032</v>
+      </c>
+      <c r="P321">
+        <v>6.552419354838709</v>
+      </c>
+      <c r="R321">
+        <v>9.07258064516129</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18">
       <c r="A322" t="s">
         <v>337</v>
       </c>
@@ -4501,7 +6418,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:18">
       <c r="A323" t="s">
         <v>338</v>
       </c>
@@ -4509,7 +6426,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:18">
       <c r="A324" t="s">
         <v>339</v>
       </c>
@@ -4517,31 +6434,94 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:18">
       <c r="A325" t="s">
         <v>340</v>
       </c>
+      <c r="F325">
+        <v>19</v>
+      </c>
+      <c r="G325">
+        <v>7</v>
+      </c>
       <c r="J325">
         <v>20850</v>
       </c>
-    </row>
-    <row r="326" spans="1:10">
+      <c r="K325">
+        <v>28</v>
+      </c>
+      <c r="O325">
+        <v>0.09112709832134293</v>
+      </c>
+      <c r="P325">
+        <v>0.03357314148681055</v>
+      </c>
+      <c r="R325">
+        <v>0.1342925659472422</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18">
       <c r="A326" t="s">
         <v>341</v>
       </c>
+      <c r="F326">
+        <v>44</v>
+      </c>
+      <c r="G326">
+        <v>99</v>
+      </c>
       <c r="J326">
         <v>964</v>
       </c>
-    </row>
-    <row r="327" spans="1:10">
+      <c r="K326">
+        <v>148</v>
+      </c>
+      <c r="O326">
+        <v>4.564315352697095</v>
+      </c>
+      <c r="P326">
+        <v>10.26970954356846</v>
+      </c>
+      <c r="R326">
+        <v>15.35269709543569</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18">
       <c r="A327" t="s">
         <v>342</v>
       </c>
+      <c r="F327">
+        <v>14</v>
+      </c>
+      <c r="G327">
+        <v>103</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
       <c r="J327">
         <v>10921</v>
       </c>
-    </row>
-    <row r="328" spans="1:10">
+      <c r="K327">
+        <v>124</v>
+      </c>
+      <c r="O327">
+        <v>0.1281933888838019</v>
+      </c>
+      <c r="P327">
+        <v>0.9431370753593993</v>
+      </c>
+      <c r="Q327">
+        <v>0.009156670634557275</v>
+      </c>
+      <c r="R327">
+        <v>1.135427158685102</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18">
       <c r="A328" t="s">
         <v>343</v>
       </c>
@@ -4549,7 +6529,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:18">
       <c r="A329" t="s">
         <v>344</v>
       </c>
@@ -4557,15 +6537,33 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:18">
       <c r="A330" t="s">
         <v>345</v>
       </c>
+      <c r="F330">
+        <v>9</v>
+      </c>
+      <c r="G330">
+        <v>7</v>
+      </c>
       <c r="J330">
         <v>654</v>
       </c>
-    </row>
-    <row r="331" spans="1:10">
+      <c r="K330">
+        <v>16</v>
+      </c>
+      <c r="O330">
+        <v>1.376146788990826</v>
+      </c>
+      <c r="P330">
+        <v>1.070336391437309</v>
+      </c>
+      <c r="R330">
+        <v>2.446483180428134</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18">
       <c r="A331" t="s">
         <v>346</v>
       </c>
@@ -4573,7 +6571,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:18">
       <c r="A332" t="s">
         <v>347</v>
       </c>
@@ -4581,7 +6579,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:18">
       <c r="A333" t="s">
         <v>348</v>
       </c>
@@ -4589,15 +6587,33 @@
         <v>472</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:18">
       <c r="A334" t="s">
         <v>349</v>
       </c>
+      <c r="F334">
+        <v>28</v>
+      </c>
+      <c r="G334">
+        <v>74</v>
+      </c>
       <c r="J334">
         <v>1582</v>
       </c>
-    </row>
-    <row r="335" spans="1:10">
+      <c r="K334">
+        <v>126</v>
+      </c>
+      <c r="O334">
+        <v>1.769911504424779</v>
+      </c>
+      <c r="P334">
+        <v>4.677623261694058</v>
+      </c>
+      <c r="R334">
+        <v>7.964601769911504</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18">
       <c r="A335" t="s">
         <v>350</v>
       </c>
@@ -4605,7 +6621,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:18">
       <c r="A336" t="s">
         <v>351</v>
       </c>
@@ -4613,7 +6629,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:18">
       <c r="A337" t="s">
         <v>145</v>
       </c>
@@ -4621,15 +6637,33 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:18">
       <c r="A338" t="s">
         <v>352</v>
       </c>
+      <c r="F338">
+        <v>7</v>
+      </c>
+      <c r="G338">
+        <v>20</v>
+      </c>
       <c r="J338">
         <v>845</v>
       </c>
-    </row>
-    <row r="339" spans="1:10">
+      <c r="K338">
+        <v>35</v>
+      </c>
+      <c r="O338">
+        <v>0.8284023668639053</v>
+      </c>
+      <c r="P338">
+        <v>2.366863905325444</v>
+      </c>
+      <c r="R338">
+        <v>4.142011834319527</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18">
       <c r="A339" t="s">
         <v>353</v>
       </c>
@@ -4637,7 +6671,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:18">
       <c r="A340" t="s">
         <v>354</v>
       </c>
@@ -4645,23 +6679,47 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:18">
       <c r="A341" t="s">
         <v>355</v>
       </c>
+      <c r="G341">
+        <v>2</v>
+      </c>
       <c r="J341">
         <v>2320</v>
       </c>
-    </row>
-    <row r="342" spans="1:10">
+      <c r="K341">
+        <v>2</v>
+      </c>
+      <c r="P341">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="R341">
+        <v>0.08620689655172414</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18">
       <c r="A342" t="s">
         <v>356</v>
       </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
       <c r="J342">
         <v>839</v>
       </c>
-    </row>
-    <row r="343" spans="1:10">
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="O342">
+        <v>0.1191895113230036</v>
+      </c>
+      <c r="R342">
+        <v>0.1191895113230036</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18">
       <c r="A343" t="s">
         <v>357</v>
       </c>
@@ -4669,15 +6727,21 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:18">
       <c r="A344" t="s">
         <v>358</v>
       </c>
       <c r="J344">
         <v>48871</v>
       </c>
-    </row>
-    <row r="345" spans="1:10">
+      <c r="K344">
+        <v>1</v>
+      </c>
+      <c r="R344">
+        <v>0.002046203269832825</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18">
       <c r="A345" t="s">
         <v>359</v>
       </c>
@@ -4685,7 +6749,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:18">
       <c r="A346" t="s">
         <v>360</v>
       </c>
@@ -4693,7 +6757,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:18">
       <c r="A347" t="s">
         <v>361</v>
       </c>
@@ -4701,15 +6765,27 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:18">
       <c r="A348" t="s">
         <v>362</v>
       </c>
+      <c r="G348">
+        <v>3</v>
+      </c>
       <c r="J348">
         <v>5945</v>
       </c>
-    </row>
-    <row r="349" spans="1:10">
+      <c r="K348">
+        <v>3</v>
+      </c>
+      <c r="P348">
+        <v>0.05046257359125315</v>
+      </c>
+      <c r="R348">
+        <v>0.05046257359125315</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18">
       <c r="A349" t="s">
         <v>363</v>
       </c>
@@ -4717,7 +6793,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:18">
       <c r="A350" t="s">
         <v>364</v>
       </c>
@@ -4725,7 +6801,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:18">
       <c r="A351" t="s">
         <v>365</v>
       </c>
@@ -4733,23 +6809,62 @@
         <v>479</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:18">
       <c r="A352" t="s">
         <v>366</v>
       </c>
+      <c r="F352">
+        <v>10</v>
+      </c>
       <c r="J352">
         <v>902</v>
       </c>
-    </row>
-    <row r="353" spans="1:10">
+      <c r="K352">
+        <v>10</v>
+      </c>
+      <c r="O352">
+        <v>1.108647450110865</v>
+      </c>
+      <c r="R352">
+        <v>1.108647450110865</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18">
       <c r="A353" t="s">
         <v>367</v>
       </c>
+      <c r="F353">
+        <v>20</v>
+      </c>
+      <c r="G353">
+        <v>69</v>
+      </c>
+      <c r="H353">
+        <v>3</v>
+      </c>
+      <c r="I353">
+        <v>3</v>
+      </c>
       <c r="J353">
         <v>800</v>
       </c>
-    </row>
-    <row r="354" spans="1:10">
+      <c r="K353">
+        <v>125</v>
+      </c>
+      <c r="O353">
+        <v>2.5</v>
+      </c>
+      <c r="P353">
+        <v>8.625</v>
+      </c>
+      <c r="Q353">
+        <v>0.375</v>
+      </c>
+      <c r="R353">
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18">
       <c r="A354" t="s">
         <v>368</v>
       </c>
@@ -4757,15 +6872,27 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:18">
       <c r="A355" t="s">
         <v>369</v>
       </c>
+      <c r="G355">
+        <v>47</v>
+      </c>
       <c r="J355">
         <v>4151</v>
       </c>
-    </row>
-    <row r="356" spans="1:10">
+      <c r="K355">
+        <v>47</v>
+      </c>
+      <c r="P355">
+        <v>1.132257287400626</v>
+      </c>
+      <c r="R355">
+        <v>1.132257287400626</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18">
       <c r="A356" t="s">
         <v>370</v>
       </c>
@@ -4773,7 +6900,7 @@
         <v>6615</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:18">
       <c r="A357" t="s">
         <v>371</v>
       </c>
@@ -4781,7 +6908,7 @@
         <v>7574</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:18">
       <c r="A358" t="s">
         <v>372</v>
       </c>
@@ -4789,7 +6916,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:18">
       <c r="A359" t="s">
         <v>373</v>
       </c>
@@ -4797,7 +6924,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:18">
       <c r="A360" t="s">
         <v>374</v>
       </c>
@@ -4805,15 +6932,33 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:18">
       <c r="A361" t="s">
         <v>375</v>
       </c>
+      <c r="F361">
+        <v>4</v>
+      </c>
+      <c r="G361">
+        <v>16</v>
+      </c>
       <c r="J361">
         <v>10561</v>
       </c>
-    </row>
-    <row r="362" spans="1:10">
+      <c r="K361">
+        <v>20</v>
+      </c>
+      <c r="O361">
+        <v>0.03787520121200644</v>
+      </c>
+      <c r="P361">
+        <v>0.1515008048480257</v>
+      </c>
+      <c r="R361">
+        <v>0.1893760060600322</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18">
       <c r="A362" t="s">
         <v>376</v>
       </c>
@@ -4821,7 +6966,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:18">
       <c r="A363" t="s">
         <v>377</v>
       </c>
@@ -4829,7 +6974,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:18">
       <c r="A364" t="s">
         <v>378</v>
       </c>
@@ -4837,15 +6982,33 @@
         <v>223</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:18">
       <c r="A365" t="s">
         <v>379</v>
       </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>21</v>
+      </c>
       <c r="J365">
         <v>4715</v>
       </c>
-    </row>
-    <row r="366" spans="1:10">
+      <c r="K365">
+        <v>23</v>
+      </c>
+      <c r="O365">
+        <v>0.02120890774125132</v>
+      </c>
+      <c r="P365">
+        <v>0.4453870625662778</v>
+      </c>
+      <c r="R365">
+        <v>0.4878048780487805</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18">
       <c r="A366" t="s">
         <v>380</v>
       </c>
@@ -4853,7 +7016,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:18">
       <c r="A367" t="s">
         <v>381</v>
       </c>
@@ -4861,7 +7024,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:18">
       <c r="A368" t="s">
         <v>382</v>
       </c>
@@ -4869,7 +7032,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:18">
       <c r="A369" t="s">
         <v>383</v>
       </c>
@@ -4877,7 +7040,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:18">
       <c r="A370" t="s">
         <v>384</v>
       </c>
@@ -4885,23 +7048,47 @@
         <v>11937</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:18">
       <c r="A371" t="s">
         <v>385</v>
       </c>
+      <c r="G371">
+        <v>1</v>
+      </c>
       <c r="J371">
         <v>7994</v>
       </c>
-    </row>
-    <row r="372" spans="1:10">
+      <c r="K371">
+        <v>4</v>
+      </c>
+      <c r="P371">
+        <v>0.0125093820365274</v>
+      </c>
+      <c r="R371">
+        <v>0.05003752814610958</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18">
       <c r="A372" t="s">
         <v>386</v>
       </c>
+      <c r="G372">
+        <v>104</v>
+      </c>
       <c r="J372">
         <v>814</v>
       </c>
-    </row>
-    <row r="373" spans="1:10">
+      <c r="K372">
+        <v>139</v>
+      </c>
+      <c r="P372">
+        <v>12.77641277641278</v>
+      </c>
+      <c r="R372">
+        <v>17.07616707616707</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18">
       <c r="A373" t="s">
         <v>387</v>
       </c>
@@ -4909,7 +7096,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:18">
       <c r="A374" t="s">
         <v>388</v>
       </c>
@@ -4917,7 +7104,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:18">
       <c r="A375" t="s">
         <v>389</v>
       </c>
@@ -4925,7 +7112,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:18">
       <c r="A376" t="s">
         <v>390</v>
       </c>
@@ -4933,7 +7120,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:18">
       <c r="A377" t="s">
         <v>391</v>
       </c>
@@ -4941,7 +7128,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:18">
       <c r="A378" t="s">
         <v>392</v>
       </c>
@@ -4949,7 +7136,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:18">
       <c r="A379" t="s">
         <v>393</v>
       </c>
@@ -4957,7 +7144,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:18">
       <c r="A380" t="s">
         <v>394</v>
       </c>
@@ -4965,39 +7152,108 @@
         <v>865</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:18">
       <c r="A381" t="s">
         <v>395</v>
       </c>
+      <c r="F381">
+        <v>14</v>
+      </c>
+      <c r="G381">
+        <v>122</v>
+      </c>
       <c r="J381">
         <v>2266</v>
       </c>
-    </row>
-    <row r="382" spans="1:10">
+      <c r="K381">
+        <v>328</v>
+      </c>
+      <c r="O381">
+        <v>0.617828773168579</v>
+      </c>
+      <c r="P381">
+        <v>5.383936451897616</v>
+      </c>
+      <c r="R381">
+        <v>14.47484554280671</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18">
       <c r="A382" t="s">
         <v>396</v>
       </c>
       <c r="J382">
         <v>24416</v>
       </c>
-    </row>
-    <row r="383" spans="1:10">
+      <c r="K382">
+        <v>328</v>
+      </c>
+      <c r="R382">
+        <v>1.343381389252949</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18">
       <c r="A383" t="s">
         <v>397</v>
       </c>
+      <c r="F383">
+        <v>470</v>
+      </c>
+      <c r="G383">
+        <v>175</v>
+      </c>
+      <c r="H383">
+        <v>11</v>
+      </c>
+      <c r="I383">
+        <v>11</v>
+      </c>
       <c r="J383">
         <v>2405</v>
       </c>
-    </row>
-    <row r="384" spans="1:10">
+      <c r="K383">
+        <v>684</v>
+      </c>
+      <c r="O383">
+        <v>19.54261954261954</v>
+      </c>
+      <c r="P383">
+        <v>7.276507276507277</v>
+      </c>
+      <c r="Q383">
+        <v>0.4573804573804574</v>
+      </c>
+      <c r="R383">
+        <v>28.44074844074844</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18">
       <c r="A384" t="s">
         <v>398</v>
       </c>
+      <c r="F384">
+        <v>45</v>
+      </c>
+      <c r="G384">
+        <v>80</v>
+      </c>
       <c r="J384">
         <v>4358</v>
       </c>
-    </row>
-    <row r="385" spans="1:10">
+      <c r="K384">
+        <v>125</v>
+      </c>
+      <c r="O384">
+        <v>1.032583754015604</v>
+      </c>
+      <c r="P384">
+        <v>1.835704451583295</v>
+      </c>
+      <c r="R384">
+        <v>2.868288205598899</v>
+      </c>
+    </row>
+    <row r="385" spans="1:18">
       <c r="A385" t="s">
         <v>399</v>
       </c>
@@ -5005,7 +7261,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:18">
       <c r="A386" t="s">
         <v>400</v>
       </c>
@@ -5013,7 +7269,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:18">
       <c r="A387" t="s">
         <v>401</v>
       </c>
@@ -5021,7 +7277,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:18">
       <c r="A388" t="s">
         <v>402</v>
       </c>
@@ -5029,7 +7285,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:18">
       <c r="A389" t="s">
         <v>402</v>
       </c>
@@ -5037,7 +7293,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:18">
       <c r="A390" t="s">
         <v>403</v>
       </c>
@@ -5045,7 +7301,7 @@
         <v>22024</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:18">
       <c r="A391" t="s">
         <v>404</v>
       </c>
@@ -5053,7 +7309,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:18">
       <c r="A392" t="s">
         <v>405</v>
       </c>
@@ -5061,7 +7317,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:18">
       <c r="A393" t="s">
         <v>406</v>
       </c>
@@ -5069,15 +7325,33 @@
         <v>313</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:18">
       <c r="A394" t="s">
         <v>407</v>
       </c>
+      <c r="F394">
+        <v>2</v>
+      </c>
+      <c r="G394">
+        <v>3</v>
+      </c>
       <c r="J394">
         <v>422</v>
       </c>
-    </row>
-    <row r="395" spans="1:10">
+      <c r="K394">
+        <v>5</v>
+      </c>
+      <c r="O394">
+        <v>0.4739336492890995</v>
+      </c>
+      <c r="P394">
+        <v>0.7109004739336493</v>
+      </c>
+      <c r="R394">
+        <v>1.184834123222749</v>
+      </c>
+    </row>
+    <row r="395" spans="1:18">
       <c r="A395" t="s">
         <v>408</v>
       </c>
@@ -5085,23 +7359,53 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:18">
       <c r="A396" t="s">
         <v>409</v>
       </c>
+      <c r="F396">
+        <v>25</v>
+      </c>
+      <c r="G396">
+        <v>100</v>
+      </c>
       <c r="J396">
         <v>2859</v>
       </c>
-    </row>
-    <row r="397" spans="1:10">
+      <c r="K396">
+        <v>126</v>
+      </c>
+      <c r="O396">
+        <v>0.8744316194473591</v>
+      </c>
+      <c r="P396">
+        <v>3.497726477789437</v>
+      </c>
+      <c r="R396">
+        <v>4.40713536201469</v>
+      </c>
+    </row>
+    <row r="397" spans="1:18">
       <c r="A397" t="s">
         <v>410</v>
       </c>
+      <c r="F397">
+        <v>1</v>
+      </c>
       <c r="J397">
         <v>4343</v>
       </c>
-    </row>
-    <row r="398" spans="1:10">
+      <c r="K397">
+        <v>1</v>
+      </c>
+      <c r="O397">
+        <v>0.02302555836979047</v>
+      </c>
+      <c r="R397">
+        <v>0.02302555836979047</v>
+      </c>
+    </row>
+    <row r="398" spans="1:18">
       <c r="A398" t="s">
         <v>260</v>
       </c>
@@ -5109,7 +7413,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:18">
       <c r="A399" t="s">
         <v>411</v>
       </c>
@@ -5117,7 +7421,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:18">
       <c r="A400" t="s">
         <v>412</v>
       </c>
@@ -5125,7 +7429,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:18">
       <c r="A401" t="s">
         <v>413</v>
       </c>
@@ -5133,15 +7437,33 @@
         <v>349</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:18">
       <c r="A402" t="s">
         <v>414</v>
       </c>
+      <c r="F402">
+        <v>2</v>
+      </c>
+      <c r="G402">
+        <v>7</v>
+      </c>
       <c r="J402">
         <v>2801</v>
       </c>
-    </row>
-    <row r="403" spans="1:10">
+      <c r="K402">
+        <v>9</v>
+      </c>
+      <c r="O402">
+        <v>0.07140307033202428</v>
+      </c>
+      <c r="P402">
+        <v>0.249910746162085</v>
+      </c>
+      <c r="R402">
+        <v>0.3213138164941092</v>
+      </c>
+    </row>
+    <row r="403" spans="1:18">
       <c r="A403" t="s">
         <v>415</v>
       </c>
@@ -5149,7 +7471,7 @@
         <v>8262</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:18">
       <c r="A404" t="s">
         <v>416</v>
       </c>
@@ -5157,7 +7479,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:18">
       <c r="A405" t="s">
         <v>417</v>
       </c>
@@ -5165,7 +7487,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:18">
       <c r="A406" t="s">
         <v>418</v>
       </c>
@@ -5173,7 +7495,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:18">
       <c r="A407" t="s">
         <v>419</v>
       </c>
@@ -5181,15 +7503,27 @@
         <v>688</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:18">
       <c r="A408" t="s">
         <v>420</v>
       </c>
+      <c r="G408">
+        <v>7</v>
+      </c>
       <c r="J408">
         <v>2513</v>
       </c>
-    </row>
-    <row r="409" spans="1:10">
+      <c r="K408">
+        <v>7</v>
+      </c>
+      <c r="P408">
+        <v>0.2785515320334262</v>
+      </c>
+      <c r="R408">
+        <v>0.2785515320334262</v>
+      </c>
+    </row>
+    <row r="409" spans="1:18">
       <c r="A409" t="s">
         <v>421</v>
       </c>
@@ -5197,15 +7531,27 @@
         <v>340</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:18">
       <c r="A410" t="s">
         <v>422</v>
       </c>
+      <c r="F410">
+        <v>2</v>
+      </c>
       <c r="J410">
         <v>1252</v>
       </c>
-    </row>
-    <row r="411" spans="1:10">
+      <c r="K410">
+        <v>2</v>
+      </c>
+      <c r="O410">
+        <v>0.1597444089456869</v>
+      </c>
+      <c r="R410">
+        <v>0.1597444089456869</v>
+      </c>
+    </row>
+    <row r="411" spans="1:18">
       <c r="A411" t="s">
         <v>423</v>
       </c>
@@ -5213,7 +7559,7 @@
         <v>5794</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:18">
       <c r="A412" t="s">
         <v>424</v>
       </c>
@@ -5221,7 +7567,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:18">
       <c r="A413" t="s">
         <v>425</v>
       </c>
@@ -5229,7 +7575,7 @@
         <v>7366</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:18">
       <c r="A414" t="s">
         <v>426</v>
       </c>
@@ -5237,7 +7583,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:18">
       <c r="A415" t="s">
         <v>427</v>
       </c>
@@ -5245,7 +7591,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:18">
       <c r="A416" t="s">
         <v>428</v>
       </c>
@@ -5253,7 +7599,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:18">
       <c r="A417" t="s">
         <v>429</v>
       </c>
@@ -5261,15 +7607,42 @@
         <v>10988</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:18">
       <c r="A418" t="s">
         <v>430</v>
       </c>
+      <c r="F418">
+        <v>99</v>
+      </c>
+      <c r="G418">
+        <v>1040</v>
+      </c>
+      <c r="H418">
+        <v>10</v>
+      </c>
+      <c r="I418">
+        <v>10</v>
+      </c>
       <c r="J418">
         <v>11164</v>
       </c>
-    </row>
-    <row r="419" spans="1:10">
+      <c r="K418">
+        <v>1150</v>
+      </c>
+      <c r="O418">
+        <v>0.8867789322823361</v>
+      </c>
+      <c r="P418">
+        <v>9.315657470440703</v>
+      </c>
+      <c r="Q418">
+        <v>0.08957362952346828</v>
+      </c>
+      <c r="R418">
+        <v>10.30096739519885</v>
+      </c>
+    </row>
+    <row r="419" spans="1:18">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -5277,15 +7650,33 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:18">
       <c r="A420" t="s">
         <v>431</v>
       </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+      <c r="G420">
+        <v>4</v>
+      </c>
       <c r="J420">
         <v>3347</v>
       </c>
-    </row>
-    <row r="421" spans="1:10">
+      <c r="K420">
+        <v>5</v>
+      </c>
+      <c r="O420">
+        <v>0.02987750224081267</v>
+      </c>
+      <c r="P420">
+        <v>0.1195100089632507</v>
+      </c>
+      <c r="R420">
+        <v>0.1493875112040634</v>
+      </c>
+    </row>
+    <row r="421" spans="1:18">
       <c r="A421" t="s">
         <v>432</v>
       </c>
@@ -5293,15 +7684,27 @@
         <v>391</v>
       </c>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:18">
       <c r="A422" t="s">
         <v>433</v>
       </c>
+      <c r="G422">
+        <v>2</v>
+      </c>
       <c r="J422">
         <v>1281</v>
       </c>
-    </row>
-    <row r="423" spans="1:10">
+      <c r="K422">
+        <v>4</v>
+      </c>
+      <c r="P422">
+        <v>0.156128024980484</v>
+      </c>
+      <c r="R422">
+        <v>0.312256049960968</v>
+      </c>
+    </row>
+    <row r="423" spans="1:18">
       <c r="A423" t="s">
         <v>434</v>
       </c>
@@ -5309,15 +7712,27 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:18">
       <c r="A424" t="s">
         <v>435</v>
       </c>
+      <c r="G424">
+        <v>39</v>
+      </c>
       <c r="J424">
         <v>3654</v>
       </c>
-    </row>
-    <row r="425" spans="1:10">
+      <c r="K424">
+        <v>40</v>
+      </c>
+      <c r="P424">
+        <v>1.067323481116585</v>
+      </c>
+      <c r="R424">
+        <v>1.094690749863164</v>
+      </c>
+    </row>
+    <row r="425" spans="1:18">
       <c r="A425" t="s">
         <v>436</v>
       </c>
@@ -5325,31 +7740,79 @@
         <v>840</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:18">
       <c r="A426" t="s">
         <v>437</v>
       </c>
+      <c r="F426">
+        <v>2</v>
+      </c>
+      <c r="G426">
+        <v>3</v>
+      </c>
       <c r="J426">
         <v>811</v>
       </c>
-    </row>
-    <row r="427" spans="1:10">
+      <c r="K426">
+        <v>5</v>
+      </c>
+      <c r="O426">
+        <v>0.2466091245376079</v>
+      </c>
+      <c r="P426">
+        <v>0.3699136868064118</v>
+      </c>
+      <c r="R426">
+        <v>0.6165228113440198</v>
+      </c>
+    </row>
+    <row r="427" spans="1:18">
       <c r="A427" t="s">
         <v>438</v>
       </c>
+      <c r="F427">
+        <v>7</v>
+      </c>
+      <c r="G427">
+        <v>3</v>
+      </c>
       <c r="J427">
         <v>1088</v>
       </c>
-    </row>
-    <row r="428" spans="1:10">
+      <c r="K427">
+        <v>10</v>
+      </c>
+      <c r="O427">
+        <v>0.6433823529411764</v>
+      </c>
+      <c r="P427">
+        <v>0.2757352941176471</v>
+      </c>
+      <c r="R427">
+        <v>0.9191176470588236</v>
+      </c>
+    </row>
+    <row r="428" spans="1:18">
       <c r="A428" t="s">
         <v>439</v>
       </c>
+      <c r="F428">
+        <v>3</v>
+      </c>
       <c r="J428">
         <v>219</v>
       </c>
-    </row>
-    <row r="429" spans="1:10">
+      <c r="K428">
+        <v>3</v>
+      </c>
+      <c r="O428">
+        <v>1.36986301369863</v>
+      </c>
+      <c r="R428">
+        <v>1.36986301369863</v>
+      </c>
+    </row>
+    <row r="429" spans="1:18">
       <c r="A429" t="s">
         <v>440</v>
       </c>
@@ -5357,7 +7820,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:18">
       <c r="A430" t="s">
         <v>441</v>
       </c>
@@ -5365,7 +7828,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:18">
       <c r="A431" t="s">
         <v>442</v>
       </c>
@@ -5373,55 +7836,181 @@
         <v>987</v>
       </c>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:18">
       <c r="A432" t="s">
         <v>443</v>
       </c>
+      <c r="F432">
+        <v>75</v>
+      </c>
+      <c r="G432">
+        <v>38</v>
+      </c>
+      <c r="H432">
+        <v>2</v>
+      </c>
+      <c r="I432">
+        <v>2</v>
+      </c>
       <c r="J432">
         <v>2424</v>
       </c>
-    </row>
-    <row r="433" spans="1:10">
+      <c r="K432">
+        <v>118</v>
+      </c>
+      <c r="O432">
+        <v>3.094059405940594</v>
+      </c>
+      <c r="P432">
+        <v>1.567656765676568</v>
+      </c>
+      <c r="Q432">
+        <v>0.08250825082508251</v>
+      </c>
+      <c r="R432">
+        <v>4.867986798679868</v>
+      </c>
+    </row>
+    <row r="433" spans="1:18">
       <c r="A433" t="s">
         <v>444</v>
       </c>
+      <c r="F433">
+        <v>116</v>
+      </c>
+      <c r="G433">
+        <v>63</v>
+      </c>
       <c r="J433">
         <v>4628</v>
       </c>
-    </row>
-    <row r="434" spans="1:10">
+      <c r="K433">
+        <v>262</v>
+      </c>
+      <c r="O433">
+        <v>2.50648228176318</v>
+      </c>
+      <c r="P433">
+        <v>1.361279170267934</v>
+      </c>
+      <c r="R433">
+        <v>5.661192739844425</v>
+      </c>
+    </row>
+    <row r="434" spans="1:18">
       <c r="A434" t="s">
         <v>445</v>
       </c>
+      <c r="F434">
+        <v>23</v>
+      </c>
+      <c r="G434">
+        <v>20</v>
+      </c>
       <c r="J434">
         <v>4816</v>
       </c>
-    </row>
-    <row r="435" spans="1:10">
+      <c r="K434">
+        <v>50</v>
+      </c>
+      <c r="O434">
+        <v>0.4775747508305648</v>
+      </c>
+      <c r="P434">
+        <v>0.4152823920265781</v>
+      </c>
+      <c r="R434">
+        <v>1.038205980066445</v>
+      </c>
+    </row>
+    <row r="435" spans="1:18">
       <c r="A435" t="s">
         <v>446</v>
       </c>
+      <c r="F435">
+        <v>273</v>
+      </c>
+      <c r="G435">
+        <v>626</v>
+      </c>
+      <c r="H435">
+        <v>1</v>
+      </c>
+      <c r="I435">
+        <v>1</v>
+      </c>
       <c r="J435">
         <v>10154</v>
       </c>
-    </row>
-    <row r="436" spans="1:10">
+      <c r="K435">
+        <v>1008</v>
+      </c>
+      <c r="O435">
+        <v>2.68859562733898</v>
+      </c>
+      <c r="P435">
+        <v>6.165058105180225</v>
+      </c>
+      <c r="Q435">
+        <v>0.009848335631278314</v>
+      </c>
+      <c r="R435">
+        <v>9.927122316328541</v>
+      </c>
+    </row>
+    <row r="436" spans="1:18">
       <c r="A436" t="s">
         <v>447</v>
       </c>
+      <c r="F436">
+        <v>609</v>
+      </c>
+      <c r="G436">
+        <v>22</v>
+      </c>
       <c r="J436">
         <v>2974</v>
       </c>
-    </row>
-    <row r="437" spans="1:10">
+      <c r="K436">
+        <v>672</v>
+      </c>
+      <c r="O436">
+        <v>20.47747141896436</v>
+      </c>
+      <c r="P436">
+        <v>0.7397444519166106</v>
+      </c>
+      <c r="R436">
+        <v>22.59583053127102</v>
+      </c>
+    </row>
+    <row r="437" spans="1:18">
       <c r="A437" t="s">
         <v>448</v>
       </c>
+      <c r="F437">
+        <v>11</v>
+      </c>
+      <c r="G437">
+        <v>36</v>
+      </c>
       <c r="J437">
         <v>1480</v>
       </c>
-    </row>
-    <row r="438" spans="1:10">
+      <c r="K437">
+        <v>61</v>
+      </c>
+      <c r="O437">
+        <v>0.7432432432432433</v>
+      </c>
+      <c r="P437">
+        <v>2.432432432432432</v>
+      </c>
+      <c r="R437">
+        <v>4.121621621621622</v>
+      </c>
+    </row>
+    <row r="438" spans="1:18">
       <c r="A438" t="s">
         <v>271</v>
       </c>
@@ -5429,15 +8018,21 @@
         <v>307</v>
       </c>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:18">
       <c r="A439" t="s">
         <v>449</v>
       </c>
       <c r="J439">
         <v>3006</v>
       </c>
-    </row>
-    <row r="440" spans="1:10">
+      <c r="K439">
+        <v>61</v>
+      </c>
+      <c r="R439">
+        <v>2.029274783765802</v>
+      </c>
+    </row>
+    <row r="440" spans="1:18">
       <c r="A440" t="s">
         <v>450</v>
       </c>
@@ -5445,7 +8040,7 @@
         <v>8788</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:18">
       <c r="A441" t="s">
         <v>451</v>
       </c>
@@ -5453,7 +8048,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:18">
       <c r="A442" t="s">
         <v>452</v>
       </c>
@@ -5461,7 +8056,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:18">
       <c r="A443" t="s">
         <v>453</v>
       </c>
@@ -5469,23 +8064,62 @@
         <v>392</v>
       </c>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:18">
       <c r="A444" t="s">
         <v>454</v>
       </c>
+      <c r="F444">
+        <v>31</v>
+      </c>
+      <c r="G444">
+        <v>9</v>
+      </c>
       <c r="J444">
         <v>1488</v>
       </c>
-    </row>
-    <row r="445" spans="1:10">
+      <c r="K444">
+        <v>42</v>
+      </c>
+      <c r="O444">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="P444">
+        <v>0.6048387096774194</v>
+      </c>
+      <c r="R444">
+        <v>2.82258064516129</v>
+      </c>
+    </row>
+    <row r="445" spans="1:18">
       <c r="A445" t="s">
         <v>455</v>
       </c>
+      <c r="G445">
+        <v>35</v>
+      </c>
+      <c r="H445">
+        <v>6</v>
+      </c>
+      <c r="I445">
+        <v>6</v>
+      </c>
       <c r="J445">
         <v>1298</v>
       </c>
-    </row>
-    <row r="446" spans="1:10">
+      <c r="K445">
+        <v>55</v>
+      </c>
+      <c r="P445">
+        <v>2.696456086286595</v>
+      </c>
+      <c r="Q445">
+        <v>0.4622496147919877</v>
+      </c>
+      <c r="R445">
+        <v>4.23728813559322</v>
+      </c>
+    </row>
+    <row r="446" spans="1:18">
       <c r="A446" t="s">
         <v>456</v>
       </c>
@@ -5493,55 +8127,148 @@
         <v>206</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:18">
       <c r="A447" t="s">
         <v>457</v>
       </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="G447">
+        <v>28</v>
+      </c>
       <c r="J447">
         <v>3137</v>
       </c>
-    </row>
-    <row r="448" spans="1:10">
+      <c r="K447">
+        <v>41</v>
+      </c>
+      <c r="O447">
+        <v>0.0318775900541919</v>
+      </c>
+      <c r="P447">
+        <v>0.8925725215173733</v>
+      </c>
+      <c r="R447">
+        <v>1.306981192221868</v>
+      </c>
+    </row>
+    <row r="448" spans="1:18">
       <c r="A448" t="s">
         <v>458</v>
       </c>
+      <c r="G448">
+        <v>320</v>
+      </c>
+      <c r="H448">
+        <v>1</v>
+      </c>
+      <c r="I448">
+        <v>1</v>
+      </c>
       <c r="J448">
         <v>7402</v>
       </c>
-    </row>
-    <row r="449" spans="1:10">
+      <c r="K448">
+        <v>1172</v>
+      </c>
+      <c r="P448">
+        <v>4.323155903809782</v>
+      </c>
+      <c r="Q448">
+        <v>0.01350986219940557</v>
+      </c>
+      <c r="R448">
+        <v>15.83355849770332</v>
+      </c>
+    </row>
+    <row r="449" spans="1:18">
       <c r="A449" t="s">
         <v>459</v>
       </c>
+      <c r="F449">
+        <v>5</v>
+      </c>
+      <c r="G449">
+        <v>3</v>
+      </c>
       <c r="J449">
         <v>1335</v>
       </c>
-    </row>
-    <row r="450" spans="1:10">
+      <c r="K449">
+        <v>11</v>
+      </c>
+      <c r="O449">
+        <v>0.3745318352059925</v>
+      </c>
+      <c r="P449">
+        <v>0.2247191011235955</v>
+      </c>
+      <c r="R449">
+        <v>0.8239700374531835</v>
+      </c>
+    </row>
+    <row r="450" spans="1:18">
       <c r="A450" t="s">
         <v>460</v>
       </c>
       <c r="J450">
         <v>4978</v>
       </c>
-    </row>
-    <row r="451" spans="1:10">
+      <c r="K450">
+        <v>11</v>
+      </c>
+      <c r="R450">
+        <v>0.2209722780233025</v>
+      </c>
+    </row>
+    <row r="451" spans="1:18">
       <c r="A451" t="s">
         <v>461</v>
       </c>
+      <c r="F451">
+        <v>12</v>
+      </c>
+      <c r="G451">
+        <v>308</v>
+      </c>
       <c r="J451">
         <v>8158</v>
       </c>
-    </row>
-    <row r="452" spans="1:10">
+      <c r="K451">
+        <v>320</v>
+      </c>
+      <c r="O451">
+        <v>0.1470948761951459</v>
+      </c>
+      <c r="P451">
+        <v>3.775435155675411</v>
+      </c>
+      <c r="R451">
+        <v>3.922530031870556</v>
+      </c>
+    </row>
+    <row r="452" spans="1:18">
       <c r="A452" t="s">
         <v>462</v>
       </c>
+      <c r="G452">
+        <v>4</v>
+      </c>
       <c r="J452">
         <v>5744</v>
       </c>
-    </row>
-    <row r="453" spans="1:10">
+      <c r="K452">
+        <v>4</v>
+      </c>
+      <c r="P452">
+        <v>0.06963788300835655</v>
+      </c>
+      <c r="R452">
+        <v>0.06963788300835655</v>
+      </c>
+    </row>
+    <row r="453" spans="1:18">
       <c r="A453" t="s">
         <v>463</v>
       </c>
@@ -5549,15 +8276,33 @@
         <v>5326</v>
       </c>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:18">
       <c r="A454" t="s">
         <v>464</v>
       </c>
+      <c r="F454">
+        <v>7</v>
+      </c>
+      <c r="G454">
+        <v>9</v>
+      </c>
       <c r="J454">
         <v>1665</v>
       </c>
-    </row>
-    <row r="455" spans="1:10">
+      <c r="K454">
+        <v>22</v>
+      </c>
+      <c r="O454">
+        <v>0.4204204204204204</v>
+      </c>
+      <c r="P454">
+        <v>0.5405405405405406</v>
+      </c>
+      <c r="R454">
+        <v>1.321321321321321</v>
+      </c>
+    </row>
+    <row r="455" spans="1:18">
       <c r="A455" t="s">
         <v>465</v>
       </c>
@@ -5565,7 +8310,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:18">
       <c r="A456" t="s">
         <v>466</v>
       </c>
@@ -5573,7 +8318,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:18">
       <c r="A457" t="s">
         <v>467</v>
       </c>
@@ -5581,7 +8326,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:18">
       <c r="A458" t="s">
         <v>468</v>
       </c>
@@ -5589,7 +8334,7 @@
         <v>14717</v>
       </c>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" spans="1:18">
       <c r="A459" t="s">
         <v>469</v>
       </c>
@@ -5597,7 +8342,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:18">
       <c r="A460" t="s">
         <v>470</v>
       </c>
@@ -5605,15 +8350,33 @@
         <v>449</v>
       </c>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" spans="1:18">
       <c r="A461" t="s">
         <v>471</v>
       </c>
+      <c r="F461">
+        <v>1</v>
+      </c>
+      <c r="G461">
+        <v>5</v>
+      </c>
       <c r="J461">
         <v>533</v>
       </c>
-    </row>
-    <row r="462" spans="1:10">
+      <c r="K461">
+        <v>6</v>
+      </c>
+      <c r="O461">
+        <v>0.1876172607879925</v>
+      </c>
+      <c r="P461">
+        <v>0.9380863039399625</v>
+      </c>
+      <c r="R461">
+        <v>1.125703564727955</v>
+      </c>
+    </row>
+    <row r="462" spans="1:18">
       <c r="A462" t="s">
         <v>472</v>
       </c>
@@ -5621,7 +8384,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" spans="1:18">
       <c r="A463" t="s">
         <v>473</v>
       </c>
@@ -5629,7 +8392,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" spans="1:18">
       <c r="A464" t="s">
         <v>474</v>
       </c>
@@ -5637,7 +8400,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="465" spans="1:10">
+    <row r="465" spans="1:18">
       <c r="A465" t="s">
         <v>475</v>
       </c>
@@ -5645,7 +8408,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:18">
       <c r="A466" t="s">
         <v>476</v>
       </c>
@@ -5653,23 +8416,53 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:18">
       <c r="A467" t="s">
         <v>477</v>
       </c>
+      <c r="F467">
+        <v>13</v>
+      </c>
+      <c r="G467">
+        <v>23</v>
+      </c>
       <c r="J467">
         <v>10118</v>
       </c>
-    </row>
-    <row r="468" spans="1:10">
+      <c r="K467">
+        <v>39</v>
+      </c>
+      <c r="O467">
+        <v>0.1284838900968571</v>
+      </c>
+      <c r="P467">
+        <v>0.227317651709824</v>
+      </c>
+      <c r="R467">
+        <v>0.3854516702905713</v>
+      </c>
+    </row>
+    <row r="468" spans="1:18">
       <c r="A468" t="s">
         <v>478</v>
       </c>
+      <c r="G468">
+        <v>2</v>
+      </c>
       <c r="J468">
         <v>721</v>
       </c>
-    </row>
-    <row r="469" spans="1:10">
+      <c r="K468">
+        <v>2</v>
+      </c>
+      <c r="P468">
+        <v>0.2773925104022191</v>
+      </c>
+      <c r="R468">
+        <v>0.2773925104022191</v>
+      </c>
+    </row>
+    <row r="469" spans="1:18">
       <c r="A469" t="s">
         <v>479</v>
       </c>
@@ -5677,23 +8470,53 @@
         <v>333</v>
       </c>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" spans="1:18">
       <c r="A470" t="s">
         <v>480</v>
       </c>
+      <c r="F470">
+        <v>14</v>
+      </c>
+      <c r="G470">
+        <v>127</v>
+      </c>
       <c r="J470">
         <v>4314</v>
       </c>
-    </row>
-    <row r="471" spans="1:10">
+      <c r="K470">
+        <v>149</v>
+      </c>
+      <c r="O470">
+        <v>0.3245248029670839</v>
+      </c>
+      <c r="P470">
+        <v>2.943903569772833</v>
+      </c>
+      <c r="R470">
+        <v>3.453871117292536</v>
+      </c>
+    </row>
+    <row r="471" spans="1:18">
       <c r="A471" t="s">
         <v>481</v>
       </c>
+      <c r="F471">
+        <v>3</v>
+      </c>
       <c r="J471">
         <v>21997</v>
       </c>
-    </row>
-    <row r="472" spans="1:10">
+      <c r="K471">
+        <v>3</v>
+      </c>
+      <c r="O471">
+        <v>0.0136382233940992</v>
+      </c>
+      <c r="R471">
+        <v>0.0136382233940992</v>
+      </c>
+    </row>
+    <row r="472" spans="1:18">
       <c r="A472" t="s">
         <v>482</v>
       </c>
@@ -5701,23 +8524,47 @@
         <v>277</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" spans="1:18">
       <c r="A473" t="s">
         <v>483</v>
       </c>
+      <c r="F473">
+        <v>4</v>
+      </c>
+      <c r="G473">
+        <v>25</v>
+      </c>
       <c r="J473">
         <v>882</v>
       </c>
-    </row>
-    <row r="474" spans="1:10">
+      <c r="K473">
+        <v>29</v>
+      </c>
+      <c r="O473">
+        <v>0.453514739229025</v>
+      </c>
+      <c r="P473">
+        <v>2.834467120181406</v>
+      </c>
+      <c r="R473">
+        <v>3.287981859410431</v>
+      </c>
+    </row>
+    <row r="474" spans="1:18">
       <c r="A474" t="s">
         <v>484</v>
       </c>
       <c r="J474">
         <v>22653</v>
       </c>
-    </row>
-    <row r="475" spans="1:10">
+      <c r="K474">
+        <v>29</v>
+      </c>
+      <c r="R474">
+        <v>0.1280183640135964</v>
+      </c>
+    </row>
+    <row r="475" spans="1:18">
       <c r="A475" t="s">
         <v>485</v>
       </c>
@@ -5725,7 +8572,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" spans="1:18">
       <c r="A476" t="s">
         <v>486</v>
       </c>
@@ -5733,7 +8580,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" spans="1:18">
       <c r="A477" t="s">
         <v>487</v>
       </c>
@@ -5741,7 +8588,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:18">
       <c r="A478" t="s">
         <v>488</v>
       </c>
@@ -5749,15 +8596,21 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:18">
       <c r="A479" t="s">
         <v>489</v>
       </c>
       <c r="J479">
         <v>13414</v>
       </c>
-    </row>
-    <row r="480" spans="1:10">
+      <c r="K479">
+        <v>29</v>
+      </c>
+      <c r="R479">
+        <v>0.2161920381690771</v>
+      </c>
+    </row>
+    <row r="480" spans="1:18">
       <c r="A480" t="s">
         <v>490</v>
       </c>
@@ -5765,7 +8618,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:18">
       <c r="A481" t="s">
         <v>491</v>
       </c>
@@ -5773,15 +8626,33 @@
         <v>775</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:18">
       <c r="A482" t="s">
         <v>492</v>
       </c>
+      <c r="F482">
+        <v>5</v>
+      </c>
+      <c r="G482">
+        <v>15</v>
+      </c>
       <c r="J482">
         <v>287</v>
       </c>
-    </row>
-    <row r="483" spans="1:10">
+      <c r="K482">
+        <v>20</v>
+      </c>
+      <c r="O482">
+        <v>1.742160278745644</v>
+      </c>
+      <c r="P482">
+        <v>5.226480836236933</v>
+      </c>
+      <c r="R482">
+        <v>6.968641114982578</v>
+      </c>
+    </row>
+    <row r="483" spans="1:18">
       <c r="A483" t="s">
         <v>493</v>
       </c>
@@ -5789,7 +8660,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:18">
       <c r="A484" t="s">
         <v>494</v>
       </c>
@@ -5797,7 +8668,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:18">
       <c r="A485" t="s">
         <v>495</v>
       </c>
@@ -5805,15 +8676,27 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:18">
       <c r="A486" t="s">
         <v>496</v>
       </c>
+      <c r="G486">
+        <v>2</v>
+      </c>
       <c r="J486">
         <v>2269</v>
       </c>
-    </row>
-    <row r="487" spans="1:10">
+      <c r="K486">
+        <v>2</v>
+      </c>
+      <c r="P486">
+        <v>0.08814455707360071</v>
+      </c>
+      <c r="R486">
+        <v>0.08814455707360071</v>
+      </c>
+    </row>
+    <row r="487" spans="1:18">
       <c r="A487" t="s">
         <v>497</v>
       </c>
@@ -5821,7 +8704,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:18">
       <c r="A488" t="s">
         <v>498</v>
       </c>
@@ -5829,7 +8712,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:18">
       <c r="A489" t="s">
         <v>499</v>
       </c>

--- a/resources/usage_fan_in_file.xlsx
+++ b/resources/usage_fan_in_file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X362"/>
+  <dimension ref="A1:X363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,29 +800,29 @@
         <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>2935</v>
+        <v>2955</v>
       </c>
       <c r="Q5" t="n">
         <v>373</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03407155025553663</v>
+        <v>0.0338409475465313</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4770017035775128</v>
+        <v>0.4737732656514382</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>2.010221465076661</v>
+        <v>1.996615905245347</v>
       </c>
       <c r="V5" t="n">
-        <v>9.471890971039182</v>
+        <v>9.407783417935702</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03407155025553663</v>
+        <v>0.0338409475465313</v>
       </c>
       <c r="X5" t="n">
-        <v>12.70868824531516</v>
+        <v>12.62267343485618</v>
       </c>
     </row>
     <row r="6">
@@ -932,7 +932,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>59946</v>
+        <v>60208</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -984,7 +984,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>4092</v>
+        <v>3443</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -996,7 +996,7 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>0.02443792766373411</v>
+        <v>0.02904443799012489</v>
       </c>
     </row>
     <row r="9">
@@ -1148,7 +1148,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
@@ -1160,7 +1160,7 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>0.1309471846355303</v>
+        <v>0.1308900523560209</v>
       </c>
     </row>
     <row r="12">
@@ -1252,7 +1252,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="n">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1314,29 +1314,29 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
-        <v>4197</v>
+        <v>4213</v>
       </c>
       <c r="Q14" t="n">
         <v>39</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1191327138432213</v>
+        <v>0.1186802753382388</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1429592566118656</v>
+        <v>0.1424163304058865</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1191327138432213</v>
+        <v>0.1186802753382388</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1906123421491542</v>
+        <v>0.1898884405411821</v>
       </c>
       <c r="V14" t="n">
-        <v>0.262091970455087</v>
+        <v>0.2610966057441254</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>0.9292351679771265</v>
+        <v>0.9257061476382624</v>
       </c>
     </row>
     <row r="15">
@@ -1384,23 +1384,23 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>4525</v>
+        <v>4538</v>
       </c>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02209944751381215</v>
+        <v>0.02203613926840018</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>0.06629834254143646</v>
+        <v>0.06610841780520052</v>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>0.1104972375690608</v>
+        <v>0.1101806963420009</v>
       </c>
     </row>
     <row r="16">
@@ -1596,7 +1596,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="n">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1654,25 +1654,25 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
-        <v>1072</v>
+        <v>1516</v>
       </c>
       <c r="Q19" t="n">
         <v>19</v>
       </c>
       <c r="R19" t="n">
-        <v>0.09328358208955223</v>
+        <v>0.06596306068601583</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>0.7462686567164178</v>
+        <v>0.5277044854881267</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09328358208955223</v>
+        <v>0.06596306068601583</v>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>1.772388059701492</v>
+        <v>1.253298153034301</v>
       </c>
     </row>
     <row r="20">
@@ -1716,7 +1716,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>74140</v>
+        <v>2195</v>
       </c>
       <c r="Q20" t="n">
         <v>10</v>
@@ -1728,7 +1728,7 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>0.01348799568384138</v>
+        <v>0.4555808656036446</v>
       </c>
     </row>
     <row r="21">
@@ -1774,7 +1774,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="Q21" t="n">
         <v>32</v>
@@ -1782,13 +1782,13 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
-        <v>2.037037037037037</v>
+        <v>2.029520295202952</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>2.962962962962963</v>
+        <v>2.952029520295203</v>
       </c>
     </row>
     <row r="22">
@@ -1832,7 +1832,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
-        <v>11075</v>
+        <v>3268</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1844,7 +1844,7 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>0.009029345372460496</v>
+        <v>0.03059975520195838</v>
       </c>
     </row>
     <row r="23">
@@ -1950,29 +1950,29 @@
         <v>2822</v>
       </c>
       <c r="P24" t="n">
-        <v>90851</v>
+        <v>91115</v>
       </c>
       <c r="Q24" t="n">
         <v>10699</v>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>0.169508315813805</v>
+        <v>0.1690171760961423</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7814993781026076</v>
+        <v>0.7792350326510454</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604220096641754</v>
+        <v>0.06585084782966581</v>
       </c>
       <c r="V24" t="n">
-        <v>6.922323364629998</v>
+        <v>6.902266366679472</v>
       </c>
       <c r="W24" t="n">
-        <v>0.4766045503076466</v>
+        <v>0.4752236185040883</v>
       </c>
       <c r="X24" t="n">
-        <v>11.77642513566169</v>
+        <v>11.74230368215991</v>
       </c>
     </row>
     <row r="25">
@@ -2086,29 +2086,29 @@
         <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>3638</v>
+        <v>3214</v>
       </c>
       <c r="Q26" t="n">
         <v>36</v>
       </c>
       <c r="R26" t="n">
-        <v>0.137438152831226</v>
+        <v>0.1555693839452396</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1099505222649808</v>
+        <v>0.1244555071561917</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3023639362286971</v>
+        <v>0.3422526446795271</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1924134139637163</v>
+        <v>0.2177971375233354</v>
       </c>
       <c r="V26" t="n">
-        <v>0.1649257833974711</v>
+        <v>0.1866832607342875</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
-        <v>0.9895547003848268</v>
+        <v>1.120099564405725</v>
       </c>
     </row>
     <row r="27">
@@ -2208,25 +2208,25 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
-        <v>2925</v>
+        <v>2947</v>
       </c>
       <c r="Q28" t="n">
         <v>9</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.0339328130302002</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>0.1367521367521368</v>
+        <v>0.1357312521208008</v>
       </c>
       <c r="V28" t="n">
-        <v>0.06837606837606838</v>
+        <v>0.06786562606040041</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3053953172718018</v>
       </c>
     </row>
     <row r="29">
@@ -2280,29 +2280,29 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="Q29" t="n">
         <v>91</v>
       </c>
       <c r="R29" t="n">
-        <v>0.02143163309044149</v>
+        <v>0.02142704092564817</v>
       </c>
       <c r="S29" t="n">
-        <v>0.02143163309044149</v>
+        <v>0.02142704092564817</v>
       </c>
       <c r="T29" t="n">
-        <v>1.735962280325761</v>
+        <v>1.735590314977502</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08572653236176596</v>
+        <v>0.08570816370259267</v>
       </c>
       <c r="V29" t="n">
-        <v>0.04286326618088298</v>
+        <v>0.04285408185129633</v>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>1.950278611230176</v>
+        <v>1.949860724233983</v>
       </c>
     </row>
     <row r="30">
@@ -2422,7 +2422,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>5058</v>
+        <v>5212</v>
       </c>
       <c r="Q31" t="n">
         <v>28</v>
@@ -2430,13 +2430,13 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="n">
-        <v>0.55357848952155</v>
+        <v>0.5372217958557176</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="n">
-        <v>0.55357848952155</v>
+        <v>0.5372217958557176</v>
       </c>
     </row>
     <row r="32">
@@ -2482,7 +2482,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
-        <v>2448</v>
+        <v>2410</v>
       </c>
       <c r="Q32" t="n">
         <v>13</v>
@@ -2490,13 +2490,13 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="n">
-        <v>0.1225490196078431</v>
+        <v>0.1244813278008299</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="n">
-        <v>0.5310457516339869</v>
+        <v>0.5394190871369294</v>
       </c>
     </row>
     <row r="33">
@@ -2538,7 +2538,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>6068</v>
+        <v>6138</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -2598,25 +2598,25 @@
         <v>13</v>
       </c>
       <c r="P34" t="n">
-        <v>3827</v>
+        <v>3833</v>
       </c>
       <c r="Q34" t="n">
         <v>29</v>
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>0.07839038411288216</v>
+        <v>0.07826767545003914</v>
       </c>
       <c r="T34" t="n">
-        <v>0.05226025607525477</v>
+        <v>0.05217845030002609</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="n">
-        <v>0.2613012803762738</v>
+        <v>0.2608922515001304</v>
       </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="n">
-        <v>0.7577737130911941</v>
+        <v>0.7565875293503782</v>
       </c>
     </row>
     <row r="35">
@@ -2662,7 +2662,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="Q35" t="n">
         <v>3</v>
@@ -2670,13 +2670,13 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="n">
-        <v>0.0271591526344378</v>
+        <v>0.0271370420624152</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="n">
-        <v>0.08147745790331341</v>
+        <v>0.08141112618724558</v>
       </c>
     </row>
     <row r="36">
@@ -2722,7 +2722,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>13414</v>
+        <v>12770</v>
       </c>
       <c r="Q36" t="n">
         <v>4</v>
@@ -2730,13 +2730,13 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="n">
-        <v>0.01490979573579842</v>
+        <v>0.01566170712607674</v>
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="n">
-        <v>0.02981959147159684</v>
+        <v>0.03132341425215349</v>
       </c>
     </row>
     <row r="37">
@@ -2790,25 +2790,25 @@
         <v>11</v>
       </c>
       <c r="P37" t="n">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="Q37" t="n">
         <v>16</v>
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>0.2770083102493075</v>
+        <v>0.1715265866209262</v>
       </c>
       <c r="T37" t="n">
-        <v>0.554016620498615</v>
+        <v>0.3430531732418525</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
-        <v>0.2770083102493075</v>
+        <v>0.1715265866209262</v>
       </c>
       <c r="X37" t="n">
-        <v>4.43213296398892</v>
+        <v>2.74442538593482</v>
       </c>
     </row>
     <row r="38">
@@ -2852,7 +2852,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
-        <v>4496</v>
+        <v>4498</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
@@ -2864,7 +2864,7 @@
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="n">
-        <v>0.02224199288256228</v>
+        <v>0.02223210315695865</v>
       </c>
     </row>
     <row r="39">
@@ -2994,23 +2994,23 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>6570</v>
+        <v>6514</v>
       </c>
       <c r="Q40" t="n">
         <v>9</v>
       </c>
       <c r="R40" t="n">
-        <v>0.06088280060882801</v>
+        <v>0.06140620202640467</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>0.06088280060882801</v>
+        <v>0.06140620202640467</v>
       </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="n">
-        <v>0.136986301369863</v>
+        <v>0.1381639545594105</v>
       </c>
     </row>
     <row r="41">
@@ -3132,7 +3132,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
-        <v>2036</v>
+        <v>1878</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="Q43" t="n">
         <v>18</v>
@@ -3198,17 +3198,17 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="n">
-        <v>0.06468305304010349</v>
+        <v>0.06466214031684449</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1617076326002587</v>
+        <v>0.1616553507921112</v>
       </c>
       <c r="V43" t="n">
-        <v>0.258732212160414</v>
+        <v>0.258648561267378</v>
       </c>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="n">
-        <v>0.5821474773609314</v>
+        <v>0.5819592628516004</v>
       </c>
     </row>
     <row r="44">
@@ -3258,25 +3258,25 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>5330</v>
+        <v>5337</v>
       </c>
       <c r="Q44" t="n">
         <v>297</v>
       </c>
       <c r="R44" t="n">
-        <v>0.0375234521575985</v>
+        <v>0.03747423646243208</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
-        <v>5.309568480300188</v>
+        <v>5.302604459434139</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0375234521575985</v>
+        <v>0.03747423646243208</v>
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="n">
-        <v>5.572232645403377</v>
+        <v>5.564924114671164</v>
       </c>
     </row>
     <row r="45">
@@ -3320,7 +3320,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
-        <v>2843</v>
+        <v>2913</v>
       </c>
       <c r="Q45" t="n">
         <v>12</v>
@@ -3332,7 +3332,7 @@
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="n">
-        <v>0.4220893422441084</v>
+        <v>0.4119464469618949</v>
       </c>
     </row>
     <row r="46">
@@ -3376,7 +3376,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
-        <v>5479</v>
+        <v>5481</v>
       </c>
       <c r="Q46" t="n">
         <v>3</v>
@@ -3384,13 +3384,13 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="n">
-        <v>0.05475451724767294</v>
+        <v>0.05473453749315819</v>
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="n">
-        <v>0.05475451724767294</v>
+        <v>0.05473453749315819</v>
       </c>
     </row>
     <row r="47">
@@ -3446,31 +3446,31 @@
         <v>1</v>
       </c>
       <c r="P47" t="n">
-        <v>2230</v>
+        <v>6235</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
       </c>
       <c r="R47" t="n">
-        <v>0.08968609865470852</v>
+        <v>0.03207698476343224</v>
       </c>
       <c r="S47" t="n">
-        <v>0.2242152466367713</v>
+        <v>0.08019246190858059</v>
       </c>
       <c r="T47" t="n">
-        <v>0.2690582959641256</v>
+        <v>0.09623095429029671</v>
       </c>
       <c r="U47" t="n">
-        <v>0.179372197309417</v>
+        <v>0.06415396952686447</v>
       </c>
       <c r="V47" t="n">
-        <v>0.2690582959641256</v>
+        <v>0.09623095429029671</v>
       </c>
       <c r="W47" t="n">
-        <v>0.04484304932735426</v>
+        <v>0.01603849238171612</v>
       </c>
       <c r="X47" t="n">
-        <v>1.121076233183856</v>
+        <v>0.400962309542903</v>
       </c>
     </row>
     <row r="48">
@@ -3520,25 +3520,25 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>5550</v>
+        <v>21305</v>
       </c>
       <c r="Q48" t="n">
         <v>17</v>
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>0.01801801801801802</v>
+        <v>0.004693733865289838</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1621621621621621</v>
+        <v>0.04224360478760854</v>
       </c>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
-        <v>0.03603603603603604</v>
+        <v>0.009387467730579677</v>
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="n">
-        <v>0.3063063063063063</v>
+        <v>0.07979347570992726</v>
       </c>
     </row>
     <row r="49">
@@ -3588,25 +3588,25 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="Q49" t="n">
         <v>11</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01995211492418196</v>
+        <v>0.01994415636218588</v>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="n">
-        <v>0.07980845969672785</v>
+        <v>0.07977662544874352</v>
       </c>
       <c r="U49" t="n">
-        <v>0.01995211492418196</v>
+        <v>0.01994415636218588</v>
       </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="n">
-        <v>0.2194732641660016</v>
+        <v>0.2193857199840447</v>
       </c>
     </row>
     <row r="50">
@@ -3780,7 +3780,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
-        <v>23756</v>
+        <v>22487</v>
       </c>
       <c r="Q52" t="n">
         <v>2</v>
@@ -3788,13 +3788,13 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="n">
-        <v>0.004209462872537464</v>
+        <v>0.004447013830213012</v>
       </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="n">
-        <v>0.008418925745074928</v>
+        <v>0.008894027660426023</v>
       </c>
     </row>
     <row r="53">
@@ -3840,7 +3840,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="n">
-        <v>4520</v>
+        <v>4505</v>
       </c>
       <c r="Q53" t="n">
         <v>13</v>
@@ -3848,13 +3848,13 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="n">
-        <v>0.1106194690265487</v>
+        <v>0.1109877913429523</v>
       </c>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="n">
-        <v>0.2876106194690266</v>
+        <v>0.2885682574916759</v>
       </c>
     </row>
     <row r="54">
@@ -3904,25 +3904,25 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
-        <v>4966</v>
+        <v>15596</v>
       </c>
       <c r="Q54" t="n">
         <v>205</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06041079339508659</v>
+        <v>0.01923570146191331</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="n">
-        <v>3.040676600886025</v>
+        <v>0.96819697358297</v>
       </c>
       <c r="U54" t="n">
-        <v>0.1812323801852598</v>
+        <v>0.05770710438573994</v>
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="n">
-        <v>4.128070881997584</v>
+        <v>1.31443959989741</v>
       </c>
     </row>
     <row r="55">
@@ -3974,27 +3974,27 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>16459</v>
+        <v>14562</v>
       </c>
       <c r="Q55" t="n">
         <v>22</v>
       </c>
       <c r="R55" t="n">
-        <v>0.006075703262652652</v>
+        <v>0.006867188572998215</v>
       </c>
       <c r="S55" t="n">
-        <v>0.006075703262652652</v>
+        <v>0.006867188572998215</v>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>0.0121514065253053</v>
+        <v>0.01373437714599643</v>
       </c>
       <c r="V55" t="n">
-        <v>0.02430281305061061</v>
+        <v>0.02746875429199286</v>
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="n">
-        <v>0.1336654717783584</v>
+        <v>0.1510781486059607</v>
       </c>
     </row>
     <row r="56">
@@ -4052,31 +4052,31 @@
         <v>84</v>
       </c>
       <c r="P56" t="n">
-        <v>10715</v>
+        <v>10718</v>
       </c>
       <c r="Q56" t="n">
         <v>1549</v>
       </c>
       <c r="R56" t="n">
-        <v>0.8866075594960335</v>
+        <v>0.8863593954095913</v>
       </c>
       <c r="S56" t="n">
-        <v>1.950536630891274</v>
+        <v>1.949990669901101</v>
       </c>
       <c r="T56" t="n">
-        <v>0.1213252449836678</v>
+        <v>0.1212912856876283</v>
       </c>
       <c r="U56" t="n">
-        <v>3.845076994867009</v>
+        <v>3.844000746407912</v>
       </c>
       <c r="V56" t="n">
-        <v>5.804946336910873</v>
+        <v>5.803321515208061</v>
       </c>
       <c r="W56" t="n">
-        <v>0.5599626691553896</v>
+        <v>0.5598059339428998</v>
       </c>
       <c r="X56" t="n">
-        <v>14.45636957536164</v>
+        <v>14.45232319462586</v>
       </c>
     </row>
     <row r="57">
@@ -4131,17 +4131,31 @@
       <c r="O57" t="n">
         <v>74</v>
       </c>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="n">
+        <v>33499</v>
+      </c>
       <c r="Q57" t="n">
         <v>1826</v>
       </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0.08955491208692797</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.09552523955938984</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.770261798859668</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.8209200274635065</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.3223976835129407</v>
+      </c>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
+      <c r="X57" t="n">
+        <v>5.450908982357682</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4196,29 +4210,29 @@
         <v>46</v>
       </c>
       <c r="P58" t="n">
-        <v>58</v>
+        <v>11057</v>
       </c>
       <c r="Q58" t="n">
         <v>2999</v>
       </c>
       <c r="R58" t="n">
-        <v>68.96551724137932</v>
+        <v>0.3617617798679569</v>
       </c>
       <c r="S58" t="n">
-        <v>644.8275862068965</v>
+        <v>3.382472641765397</v>
       </c>
       <c r="T58" t="n">
-        <v>3.448275862068965</v>
+        <v>0.01808808899339785</v>
       </c>
       <c r="U58" t="n">
-        <v>1494.827586206897</v>
+        <v>7.841186578637966</v>
       </c>
       <c r="V58" t="n">
-        <v>2850</v>
+        <v>14.94980555304332</v>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="n">
-        <v>5170.689655172414</v>
+        <v>27.12308944560007</v>
       </c>
     </row>
     <row r="59">
@@ -4508,7 +4522,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -4560,7 +4574,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>155048</v>
+        <v>155056</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -4568,13 +4582,13 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="n">
-        <v>0.0006449615602910066</v>
+        <v>0.000644928283974822</v>
       </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="n">
-        <v>0.0006449615602910066</v>
+        <v>0.000644928283974822</v>
       </c>
     </row>
     <row r="65">
@@ -4616,7 +4630,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>9478</v>
+        <v>9560</v>
       </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -4680,29 +4694,29 @@
         <v>28</v>
       </c>
       <c r="P66" t="n">
-        <v>2155</v>
+        <v>2226</v>
       </c>
       <c r="Q66" t="n">
         <v>301</v>
       </c>
       <c r="R66" t="n">
-        <v>2.877030162412993</v>
+        <v>2.785265049415993</v>
       </c>
       <c r="S66" t="n">
-        <v>1.392111368909513</v>
+        <v>1.347708894878706</v>
       </c>
       <c r="T66" t="n">
-        <v>0.9280742459396751</v>
+        <v>0.8984725965858041</v>
       </c>
       <c r="U66" t="n">
-        <v>4.779582366589327</v>
+        <v>4.627133872416891</v>
       </c>
       <c r="V66" t="n">
-        <v>2.180974477958237</v>
+        <v>2.11141060197664</v>
       </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="n">
-        <v>13.96751740139211</v>
+        <v>13.52201257861635</v>
       </c>
     </row>
     <row r="67">
@@ -4824,29 +4838,29 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>9262</v>
+        <v>8354</v>
       </c>
       <c r="Q68" t="n">
         <v>18</v>
       </c>
       <c r="R68" t="n">
-        <v>0.01079680414597279</v>
+        <v>0.0119703136222169</v>
       </c>
       <c r="S68" t="n">
-        <v>0.01079680414597279</v>
+        <v>0.0119703136222169</v>
       </c>
       <c r="T68" t="n">
-        <v>0.01079680414597279</v>
+        <v>0.0119703136222169</v>
       </c>
       <c r="U68" t="n">
-        <v>0.03239041243791838</v>
+        <v>0.0359109408666507</v>
       </c>
       <c r="V68" t="n">
-        <v>0.04318721658389117</v>
+        <v>0.0478812544888676</v>
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="n">
-        <v>0.1943424746275103</v>
+        <v>0.2154656451999042</v>
       </c>
     </row>
     <row r="69">
@@ -4890,7 +4904,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>4155</v>
+        <v>8675</v>
       </c>
       <c r="Q69" t="n">
         <v>3</v>
@@ -4898,13 +4912,13 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="n">
-        <v>0.07220216606498195</v>
+        <v>0.03458213256484149</v>
       </c>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="n">
-        <v>0.07220216606498195</v>
+        <v>0.03458213256484149</v>
       </c>
     </row>
     <row r="70">
@@ -5020,7 +5034,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>3617</v>
+        <v>3622</v>
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -5408,7 +5422,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
-        <v>7016</v>
+        <v>7043</v>
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
@@ -5474,31 +5488,31 @@
         <v>41</v>
       </c>
       <c r="P79" t="n">
-        <v>3343</v>
+        <v>3886</v>
       </c>
       <c r="Q79" t="n">
         <v>1505</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1794795094226742</v>
+        <v>0.1544004117344313</v>
       </c>
       <c r="S79" t="n">
-        <v>16.51211486688603</v>
+        <v>14.20483787956768</v>
       </c>
       <c r="T79" t="n">
-        <v>4.367334729285073</v>
+        <v>3.757076685537828</v>
       </c>
       <c r="U79" t="n">
-        <v>2.004187855219862</v>
+        <v>1.724137931034483</v>
       </c>
       <c r="V79" t="n">
-        <v>19.86239904277595</v>
+        <v>17.0869788986104</v>
       </c>
       <c r="W79" t="n">
-        <v>0.20939276099312</v>
+        <v>0.1801338136901698</v>
       </c>
       <c r="X79" t="n">
-        <v>45.01944361352079</v>
+        <v>38.72876994338652</v>
       </c>
     </row>
     <row r="80">
@@ -5540,7 +5554,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>971</v>
+        <v>3499</v>
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
@@ -5648,23 +5662,23 @@
         <v>2</v>
       </c>
       <c r="P82" t="n">
-        <v>12237</v>
+        <v>12287</v>
       </c>
       <c r="Q82" t="n">
         <v>1574</v>
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="n">
-        <v>0.008171937566396992</v>
+        <v>0.008138683161064541</v>
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="n">
-        <v>12.81359810411048</v>
+        <v>12.7614551965492</v>
       </c>
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="n">
-        <v>12.86262972950887</v>
+        <v>12.81028729551558</v>
       </c>
     </row>
     <row r="83">
@@ -5784,31 +5798,31 @@
         <v>1</v>
       </c>
       <c r="P84" t="n">
-        <v>16602</v>
+        <v>16612</v>
       </c>
       <c r="Q84" t="n">
         <v>882</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1505842669557885</v>
+        <v>0.1504936190705514</v>
       </c>
       <c r="S84" t="n">
-        <v>0.1264907842428623</v>
+        <v>0.1264146400192632</v>
       </c>
       <c r="T84" t="n">
-        <v>1.421515480062643</v>
+        <v>1.420659764026005</v>
       </c>
       <c r="U84" t="n">
-        <v>1.975665582459945</v>
+        <v>1.974476282205635</v>
       </c>
       <c r="V84" t="n">
-        <v>1.475725816166727</v>
+        <v>1.474837466891404</v>
       </c>
       <c r="W84" t="n">
-        <v>0.02409348271292616</v>
+        <v>0.02407897905128822</v>
       </c>
       <c r="X84" t="n">
-        <v>5.312612938200217</v>
+        <v>5.309414880809054</v>
       </c>
     </row>
     <row r="85">
@@ -5906,23 +5920,23 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
-        <v>2761</v>
+        <v>2785</v>
       </c>
       <c r="Q86" t="n">
         <v>21</v>
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
-        <v>0.03621876131836291</v>
+        <v>0.03590664272890485</v>
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="n">
-        <v>0.4346251358203549</v>
+        <v>0.4308797127468582</v>
       </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="n">
-        <v>0.7605939876856211</v>
+        <v>0.7540394973070017</v>
       </c>
     </row>
     <row r="87">
@@ -5972,25 +5986,25 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
-        <v>6948</v>
+        <v>6983</v>
       </c>
       <c r="Q87" t="n">
         <v>6</v>
       </c>
       <c r="R87" t="n">
-        <v>0.01439263097294186</v>
+        <v>0.0143204926249463</v>
       </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="n">
-        <v>0.02878526194588371</v>
+        <v>0.02864098524989259</v>
       </c>
       <c r="U87" t="n">
-        <v>0.01439263097294186</v>
+        <v>0.0143204926249463</v>
       </c>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="n">
-        <v>0.08635578583765112</v>
+        <v>0.08592295574967779</v>
       </c>
     </row>
     <row r="88">
@@ -6258,25 +6272,25 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="Q91" t="n">
         <v>11</v>
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
-        <v>0.2613240418118467</v>
+        <v>0.2610966057441254</v>
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>0.08710801393728224</v>
+        <v>0.08703220191470844</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5226480836236934</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="n">
-        <v>0.9581881533101044</v>
+        <v>0.9573542210617928</v>
       </c>
     </row>
     <row r="92">
@@ -6318,7 +6332,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
@@ -6442,27 +6456,27 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
-        <v>961</v>
+        <v>978</v>
       </c>
       <c r="Q94" t="n">
         <v>24</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
-        <v>0.1040582726326743</v>
+        <v>0.1022494887525563</v>
       </c>
       <c r="T94" t="n">
-        <v>0.1040582726326743</v>
+        <v>0.1022494887525563</v>
       </c>
       <c r="U94" t="n">
-        <v>1.248699271592091</v>
+        <v>1.226993865030675</v>
       </c>
       <c r="V94" t="n">
-        <v>1.040582726326743</v>
+        <v>1.022494887525562</v>
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="n">
-        <v>2.497398543184183</v>
+        <v>2.45398773006135</v>
       </c>
     </row>
     <row r="95">
@@ -6510,25 +6524,25 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
-        <v>24068</v>
+        <v>24069</v>
       </c>
       <c r="Q95" t="n">
         <v>29</v>
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
-        <v>0.004154894465680571</v>
+        <v>0.00415472184137272</v>
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>0.058168522519528</v>
+        <v>0.05816610577921808</v>
       </c>
       <c r="V95" t="n">
-        <v>0.058168522519528</v>
+        <v>0.05816610577921808</v>
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="n">
-        <v>0.1204919395047366</v>
+        <v>0.1204869333998089</v>
       </c>
     </row>
     <row r="96">
@@ -6622,7 +6636,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
-        <v>5622</v>
+        <v>5642</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -6634,7 +6648,7 @@
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="n">
-        <v>0.01778726431874778</v>
+        <v>0.01772421127259837</v>
       </c>
     </row>
     <row r="98">
@@ -7004,7 +7018,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
-        <v>9057</v>
+        <v>9023</v>
       </c>
       <c r="Q103" t="n">
         <v>4</v>
@@ -7012,13 +7026,13 @@
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="n">
-        <v>0.03312355084465055</v>
+        <v>0.03324836528870664</v>
       </c>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
       <c r="X103" t="n">
-        <v>0.04416473445953406</v>
+        <v>0.04433115371827552</v>
       </c>
     </row>
     <row r="104">
@@ -7076,31 +7090,31 @@
         <v>3</v>
       </c>
       <c r="P104" t="n">
-        <v>3109</v>
+        <v>3121</v>
       </c>
       <c r="Q104" t="n">
         <v>502</v>
       </c>
       <c r="R104" t="n">
-        <v>0.418140881312319</v>
+        <v>0.4165331624479333</v>
       </c>
       <c r="S104" t="n">
-        <v>1.318752010292699</v>
+        <v>1.31368151233579</v>
       </c>
       <c r="T104" t="n">
-        <v>0.06432936635574139</v>
+        <v>0.06408202499198974</v>
       </c>
       <c r="U104" t="n">
-        <v>8.523641042135734</v>
+        <v>8.490868311438641</v>
       </c>
       <c r="V104" t="n">
-        <v>5.660984239305243</v>
+        <v>5.639218199295097</v>
       </c>
       <c r="W104" t="n">
-        <v>0.0321646831778707</v>
+        <v>0.03204101249599487</v>
       </c>
       <c r="X104" t="n">
-        <v>16.14667095529109</v>
+        <v>16.08458827298942</v>
       </c>
     </row>
     <row r="105">
@@ -7142,7 +7156,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
-        <v>1069</v>
+        <v>1085</v>
       </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="inlineStr"/>
@@ -7344,7 +7358,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="Q109" t="n">
         <v>2</v>
@@ -7352,13 +7366,13 @@
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="n">
-        <v>0.3407155025553663</v>
+        <v>0.3717472118959108</v>
       </c>
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="n">
-        <v>0.3407155025553663</v>
+        <v>0.3717472118959108</v>
       </c>
     </row>
     <row r="110">
@@ -7492,31 +7506,31 @@
         <v>23</v>
       </c>
       <c r="P111" t="n">
-        <v>4286</v>
+        <v>4290</v>
       </c>
       <c r="Q111" t="n">
         <v>3005</v>
       </c>
       <c r="R111" t="n">
-        <v>19.83201119925338</v>
+        <v>19.81351981351981</v>
       </c>
       <c r="S111" t="n">
-        <v>0.5366308912739151</v>
+        <v>0.5361305361305362</v>
       </c>
       <c r="T111" t="n">
-        <v>0.04666355576294914</v>
+        <v>0.04662004662004662</v>
       </c>
       <c r="U111" t="n">
-        <v>38.73075128324778</v>
+        <v>38.6946386946387</v>
       </c>
       <c r="V111" t="n">
-        <v>10.26598226784881</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="W111" t="n">
-        <v>0.02333177788147457</v>
+        <v>0.02331002331002331</v>
       </c>
       <c r="X111" t="n">
-        <v>70.11199253383108</v>
+        <v>70.04662004662005</v>
       </c>
     </row>
     <row r="112">
@@ -7558,7 +7572,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
-        <v>3275</v>
+        <v>3277</v>
       </c>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
@@ -7608,7 +7622,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="inlineStr"/>
@@ -7726,7 +7740,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
-        <v>1284</v>
+        <v>1081</v>
       </c>
       <c r="Q115" t="inlineStr"/>
       <c r="R115" t="inlineStr"/>
@@ -7790,29 +7804,29 @@
         <v>435</v>
       </c>
       <c r="P116" t="n">
-        <v>31235</v>
+        <v>31704</v>
       </c>
       <c r="Q116" t="n">
         <v>5088</v>
       </c>
       <c r="R116" t="n">
-        <v>0.06082919801504722</v>
+        <v>0.05992934645470603</v>
       </c>
       <c r="S116" t="n">
-        <v>0.2561229390107251</v>
+        <v>0.2523340903356043</v>
       </c>
       <c r="T116" t="n">
-        <v>0.1280614695053626</v>
+        <v>0.1261670451678022</v>
       </c>
       <c r="U116" t="n">
-        <v>3.909076356651193</v>
+        <v>3.851249053747161</v>
       </c>
       <c r="V116" t="n">
-        <v>10.52345125660317</v>
+        <v>10.36777693666414</v>
       </c>
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="n">
-        <v>16.28941892108212</v>
+        <v>16.04844814534443</v>
       </c>
     </row>
     <row r="117">
@@ -7970,7 +7984,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
-        <v>187</v>
+        <v>797</v>
       </c>
       <c r="Q119" t="n">
         <v>2</v>
@@ -7978,13 +7992,13 @@
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="inlineStr"/>
       <c r="T119" t="n">
-        <v>1.06951871657754</v>
+        <v>0.2509410288582183</v>
       </c>
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="n">
-        <v>1.06951871657754</v>
+        <v>0.2509410288582183</v>
       </c>
     </row>
     <row r="120">
@@ -8026,7 +8040,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
-        <v>1255</v>
+        <v>1287</v>
       </c>
       <c r="Q120" t="inlineStr"/>
       <c r="R120" t="inlineStr"/>
@@ -8076,7 +8090,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="inlineStr"/>
@@ -8128,7 +8142,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
-        <v>8107</v>
+        <v>7941</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -8136,13 +8150,13 @@
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="inlineStr"/>
       <c r="T122" t="n">
-        <v>0.01233501911927963</v>
+        <v>0.01259287243420224</v>
       </c>
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="n">
-        <v>0.01233501911927963</v>
+        <v>0.01259287243420224</v>
       </c>
     </row>
     <row r="123">
@@ -8188,7 +8202,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="Q123" t="n">
         <v>2</v>
@@ -8196,13 +8210,13 @@
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="inlineStr"/>
       <c r="T123" t="n">
-        <v>0.03519887363604365</v>
+        <v>0.0352485019386676</v>
       </c>
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="n">
-        <v>0.07039774727208729</v>
+        <v>0.07049700387733521</v>
       </c>
     </row>
     <row r="124">
@@ -8246,7 +8260,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
-        <v>8522</v>
+        <v>4920</v>
       </c>
       <c r="Q124" t="n">
         <v>5</v>
@@ -8258,7 +8272,7 @@
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="n">
-        <v>0.05867167331612298</v>
+        <v>0.1016260162601626</v>
       </c>
     </row>
     <row r="125">
@@ -8300,7 +8314,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
@@ -8350,7 +8364,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="n">
-        <v>1305</v>
+        <v>1274</v>
       </c>
       <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
@@ -8400,7 +8414,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="n">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
@@ -8450,7 +8464,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="n">
-        <v>4051</v>
+        <v>4062</v>
       </c>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
@@ -8516,31 +8530,31 @@
         <v>25</v>
       </c>
       <c r="P129" t="n">
-        <v>15304</v>
+        <v>15358</v>
       </c>
       <c r="Q129" t="n">
         <v>1961</v>
       </c>
       <c r="R129" t="n">
-        <v>0.5358076319916362</v>
+        <v>0.5339236879802057</v>
       </c>
       <c r="S129" t="n">
-        <v>1.06508102456874</v>
+        <v>1.061336111472848</v>
       </c>
       <c r="T129" t="n">
-        <v>2.090956612650288</v>
+        <v>2.083604636020315</v>
       </c>
       <c r="U129" t="n">
-        <v>1.685833768949294</v>
+        <v>1.679906237791379</v>
       </c>
       <c r="V129" t="n">
-        <v>7.011238891792996</v>
+        <v>6.98658679515562</v>
       </c>
       <c r="W129" t="n">
-        <v>0.0130684788290643</v>
+        <v>0.01302252897512697</v>
       </c>
       <c r="X129" t="n">
-        <v>12.81364349189754</v>
+        <v>12.76858966011199</v>
       </c>
     </row>
     <row r="130">
@@ -8582,7 +8596,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="n">
-        <v>21198</v>
+        <v>21197</v>
       </c>
       <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
@@ -8634,7 +8648,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -8646,7 +8660,7 @@
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="n">
-        <v>0.07363770250368189</v>
+        <v>0.07309941520467836</v>
       </c>
     </row>
     <row r="132">
@@ -8692,23 +8706,23 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="Q132" t="n">
         <v>4</v>
       </c>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="n">
-        <v>0.09057971014492754</v>
+        <v>0.08944543828264759</v>
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="n">
-        <v>0.2717391304347826</v>
+        <v>0.2683363148479427</v>
       </c>
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="n">
-        <v>0.3623188405797101</v>
+        <v>0.3577817531305904</v>
       </c>
     </row>
     <row r="133">
@@ -8750,7 +8764,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="n">
-        <v>4</v>
+        <v>608</v>
       </c>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
@@ -8814,29 +8828,29 @@
         <v>14</v>
       </c>
       <c r="P134" t="n">
-        <v>18398</v>
+        <v>18421</v>
       </c>
       <c r="Q134" t="n">
         <v>487</v>
       </c>
       <c r="R134" t="n">
-        <v>0.005435373410153278</v>
+        <v>0.005428586938819825</v>
       </c>
       <c r="S134" t="n">
-        <v>0.3587346450701163</v>
+        <v>0.3582867379621085</v>
       </c>
       <c r="T134" t="n">
-        <v>0.7120339167300793</v>
+        <v>0.7111448889853971</v>
       </c>
       <c r="U134" t="n">
-        <v>0.1630612023045983</v>
+        <v>0.1628576081645948</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5272312207848679</v>
+        <v>0.5265729330655231</v>
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="n">
-        <v>2.647026850744646</v>
+        <v>2.643721839205255</v>
       </c>
     </row>
     <row r="135">
@@ -8882,7 +8896,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="n">
-        <v>15406</v>
+        <v>17397</v>
       </c>
       <c r="Q135" t="n">
         <v>61</v>
@@ -8890,13 +8904,13 @@
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="n">
-        <v>0.02596391016487083</v>
+        <v>0.02299246996608611</v>
       </c>
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="n">
-        <v>0.3959496300142801</v>
+        <v>0.3506351669828131</v>
       </c>
     </row>
     <row r="136">
@@ -8940,7 +8954,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="n">
-        <v>4673</v>
+        <v>4705</v>
       </c>
       <c r="Q136" t="n">
         <v>2</v>
@@ -8948,13 +8962,13 @@
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="n">
-        <v>0.04279905842071474</v>
+        <v>0.04250797024442083</v>
       </c>
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="n">
-        <v>0.04279905842071474</v>
+        <v>0.04250797024442083</v>
       </c>
     </row>
     <row r="137">
@@ -8996,7 +9010,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="n">
-        <v>1055</v>
+        <v>1071</v>
       </c>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="inlineStr"/>
@@ -9224,7 +9238,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q141" t="inlineStr"/>
       <c r="R141" t="inlineStr"/>
@@ -9340,7 +9354,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="n">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="Q143" t="inlineStr"/>
       <c r="R143" t="inlineStr"/>
@@ -9406,31 +9420,31 @@
         <v>148</v>
       </c>
       <c r="P144" t="n">
-        <v>3862</v>
+        <v>3891</v>
       </c>
       <c r="Q144" t="n">
         <v>1133</v>
       </c>
       <c r="R144" t="n">
-        <v>1.398239254272398</v>
+        <v>1.387818041634541</v>
       </c>
       <c r="S144" t="n">
-        <v>2.563438632832729</v>
+        <v>2.544333076329993</v>
       </c>
       <c r="T144" t="n">
-        <v>0.05178663904712584</v>
+        <v>0.05140066820868672</v>
       </c>
       <c r="U144" t="n">
-        <v>9.554634904194719</v>
+        <v>9.483423284502699</v>
       </c>
       <c r="V144" t="n">
-        <v>11.34127395132056</v>
+        <v>11.25674633770239</v>
       </c>
       <c r="W144" t="n">
-        <v>0.4919730709476955</v>
+        <v>0.4883063479825238</v>
       </c>
       <c r="X144" t="n">
-        <v>29.33713102019679</v>
+        <v>29.11847854022102</v>
       </c>
     </row>
     <row r="145">
@@ -9476,23 +9490,23 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="n">
-        <v>2781</v>
+        <v>2423</v>
       </c>
       <c r="Q145" t="n">
         <v>2</v>
       </c>
       <c r="R145" t="n">
-        <v>0.03595828838547285</v>
+        <v>0.04127115146512588</v>
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>0.03595828838547285</v>
+        <v>0.04127115146512588</v>
       </c>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="n">
-        <v>0.07191657677094571</v>
+        <v>0.08254230293025176</v>
       </c>
     </row>
     <row r="146">
@@ -9826,27 +9840,27 @@
         <v>122</v>
       </c>
       <c r="P151" t="n">
-        <v>88685</v>
+        <v>89712</v>
       </c>
       <c r="Q151" t="n">
         <v>1295</v>
       </c>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="n">
-        <v>0.04623104245362801</v>
+        <v>0.04570180131977885</v>
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="n">
-        <v>0.08231380729548401</v>
+        <v>0.08137149991082575</v>
       </c>
       <c r="V151" t="n">
-        <v>1.185093307774708</v>
+        <v>1.171526663099697</v>
       </c>
       <c r="W151" t="n">
-        <v>0.006765518407848002</v>
+        <v>0.006688068485821294</v>
       </c>
       <c r="X151" t="n">
-        <v>1.46022438969386</v>
+        <v>1.443508114856429</v>
       </c>
     </row>
     <row r="152">
@@ -10008,25 +10022,25 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="n">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="Q154" t="n">
         <v>5</v>
       </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="n">
-        <v>0.07530120481927711</v>
+        <v>0.07524454477050413</v>
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="n">
-        <v>0.07530120481927711</v>
+        <v>0.07524454477050413</v>
       </c>
       <c r="V154" t="n">
-        <v>0.1506024096385542</v>
+        <v>0.1504890895410083</v>
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="n">
-        <v>0.3765060240963856</v>
+        <v>0.3762227238525207</v>
       </c>
     </row>
     <row r="155">
@@ -10068,7 +10082,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="n">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
@@ -10132,29 +10146,29 @@
         <v>9</v>
       </c>
       <c r="P156" t="n">
-        <v>10072</v>
+        <v>10104</v>
       </c>
       <c r="Q156" t="n">
         <v>171</v>
       </c>
       <c r="R156" t="n">
-        <v>0.009928514694201748</v>
+        <v>0.009897070467141725</v>
       </c>
       <c r="S156" t="n">
-        <v>0.09928514694201747</v>
+        <v>0.09897070467141725</v>
       </c>
       <c r="T156" t="n">
-        <v>0.02978554408260525</v>
+        <v>0.02969121140142518</v>
       </c>
       <c r="U156" t="n">
-        <v>0.2779984114376489</v>
+        <v>0.2771179730799683</v>
       </c>
       <c r="V156" t="n">
-        <v>1.141779189833201</v>
+        <v>1.138163103721298</v>
       </c>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="n">
-        <v>1.697776012708499</v>
+        <v>1.692399049881235</v>
       </c>
     </row>
     <row r="157">
@@ -10196,7 +10210,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="n">
-        <v>2086</v>
+        <v>2097</v>
       </c>
       <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
@@ -10246,7 +10260,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
       <c r="P158" t="n">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="inlineStr"/>
@@ -10368,31 +10382,31 @@
         <v>129</v>
       </c>
       <c r="P160" t="n">
-        <v>12417</v>
+        <v>12452</v>
       </c>
       <c r="Q160" t="n">
         <v>1560</v>
       </c>
       <c r="R160" t="n">
-        <v>0.7811870822259804</v>
+        <v>0.7789913266945069</v>
       </c>
       <c r="S160" t="n">
-        <v>1.723443665941854</v>
+        <v>1.718599421779634</v>
       </c>
       <c r="T160" t="n">
-        <v>0.2818716276073125</v>
+        <v>0.281079344683585</v>
       </c>
       <c r="U160" t="n">
-        <v>3.994523636949344</v>
+        <v>3.983295856087375</v>
       </c>
       <c r="V160" t="n">
-        <v>4.445518241121044</v>
+        <v>4.433022807581112</v>
       </c>
       <c r="W160" t="n">
-        <v>0.2416042522348393</v>
+        <v>0.2409251525859299</v>
       </c>
       <c r="X160" t="n">
-        <v>12.56342111621164</v>
+        <v>12.52810793446836</v>
       </c>
     </row>
     <row r="161">
@@ -10434,7 +10448,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
       <c r="P161" t="n">
-        <v>1502</v>
+        <v>1546</v>
       </c>
       <c r="Q161" t="inlineStr"/>
       <c r="R161" t="inlineStr"/>
@@ -10662,23 +10676,23 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr"/>
       <c r="P165" t="n">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="Q165" t="n">
         <v>46</v>
       </c>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="n">
-        <v>0.3369272237196766</v>
+        <v>0.3368515607455648</v>
       </c>
       <c r="T165" t="n">
-        <v>0.5390835579514826</v>
+        <v>0.5389624971929037</v>
       </c>
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr"/>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="n">
-        <v>1.033243486073675</v>
+        <v>1.033011452953065</v>
       </c>
     </row>
     <row r="166">
@@ -10720,7 +10734,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr"/>
       <c r="P166" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
@@ -10778,23 +10792,23 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="n">
-        <v>2335</v>
+        <v>2344</v>
       </c>
       <c r="Q167" t="n">
         <v>3</v>
       </c>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="n">
-        <v>0.04282655246252676</v>
+        <v>0.04266211604095563</v>
       </c>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="n">
-        <v>0.04282655246252676</v>
+        <v>0.04266211604095563</v>
       </c>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="n">
-        <v>0.1284796573875803</v>
+        <v>0.1279863481228669</v>
       </c>
     </row>
     <row r="168">
@@ -10846,25 +10860,25 @@
         <v>2</v>
       </c>
       <c r="P168" t="n">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="Q168" t="n">
         <v>32</v>
       </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="n">
-        <v>0.06146281499692685</v>
+        <v>0.06138735420503376</v>
       </c>
       <c r="T168" t="n">
-        <v>0.06146281499692685</v>
+        <v>0.06138735420503376</v>
       </c>
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="n">
-        <v>0.2458512599877074</v>
+        <v>0.245549416820135</v>
       </c>
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="n">
-        <v>1.966810079901659</v>
+        <v>1.96439533456108</v>
       </c>
     </row>
     <row r="169">
@@ -10920,29 +10934,29 @@
         <v>337</v>
       </c>
       <c r="P169" t="n">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="Q169" t="n">
         <v>841</v>
       </c>
       <c r="R169" t="n">
-        <v>0.03351206434316354</v>
+        <v>0.03348961821835231</v>
       </c>
       <c r="S169" t="n">
-        <v>1.03887399463807</v>
+        <v>1.038178164768922</v>
       </c>
       <c r="T169" t="n">
-        <v>0.3686327077747989</v>
+        <v>0.3683858004018754</v>
       </c>
       <c r="U169" t="n">
-        <v>5.160857908847185</v>
+        <v>5.157401205626256</v>
       </c>
       <c r="V169" t="n">
-        <v>7.57372654155496</v>
+        <v>7.568653717347622</v>
       </c>
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="n">
-        <v>28.18364611260053</v>
+        <v>28.16476892163429</v>
       </c>
     </row>
     <row r="170">
@@ -11172,7 +11186,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
       <c r="P173" t="n">
-        <v>7769</v>
+        <v>7799</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -11184,7 +11198,7 @@
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="n">
-        <v>0.01287166945552838</v>
+        <v>0.01282215668675471</v>
       </c>
     </row>
     <row r="174">
@@ -11288,25 +11302,25 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="n">
-        <v>3337</v>
+        <v>3347</v>
       </c>
       <c r="Q175" t="n">
         <v>33</v>
       </c>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="n">
-        <v>0.1798022175606832</v>
+        <v>0.179265013444876</v>
       </c>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="n">
-        <v>0.2097692538207971</v>
+        <v>0.2091425156856887</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5993407252022775</v>
+        <v>0.5975500448162534</v>
       </c>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>0.988912196583758</v>
+        <v>0.985957573946818</v>
       </c>
     </row>
     <row r="176">
@@ -11406,7 +11420,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
       <c r="P177" t="n">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
@@ -11458,7 +11472,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
       <c r="P178" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="Q178" t="n">
         <v>2</v>
@@ -11466,13 +11480,13 @@
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="n">
-        <v>0.1152073732718894</v>
+        <v>0.1151410477835348</v>
       </c>
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
       <c r="W178" t="inlineStr"/>
       <c r="X178" t="n">
-        <v>0.1152073732718894</v>
+        <v>0.1151410477835348</v>
       </c>
     </row>
     <row r="179">
@@ -11706,23 +11720,23 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
       <c r="P182" t="n">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="Q182" t="n">
         <v>2</v>
       </c>
       <c r="R182" t="n">
-        <v>0.03872966692486445</v>
+        <v>0.03868471953578336</v>
       </c>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>0.03872966692486445</v>
+        <v>0.03868471953578336</v>
       </c>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>0.0774593338497289</v>
+        <v>0.07736943907156672</v>
       </c>
     </row>
     <row r="183">
@@ -12002,25 +12016,25 @@
         <v>2</v>
       </c>
       <c r="P187" t="n">
-        <v>12453</v>
+        <v>12442</v>
       </c>
       <c r="Q187" t="n">
         <v>27</v>
       </c>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="n">
-        <v>0.008030193527664016</v>
+        <v>0.008037293039704229</v>
       </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="n">
-        <v>0.01606038705532803</v>
+        <v>0.01607458607940846</v>
       </c>
       <c r="V187" t="n">
-        <v>0.01606038705532803</v>
+        <v>0.01607458607940846</v>
       </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="n">
-        <v>0.2168152252469285</v>
+        <v>0.2170069120720141</v>
       </c>
     </row>
     <row r="188">
@@ -12066,7 +12080,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="n">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="Q188" t="n">
         <v>6</v>
@@ -12074,13 +12088,13 @@
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="n">
-        <v>0.07401924500370095</v>
+        <v>0.07451564828614009</v>
       </c>
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="n">
-        <v>0.4441154700222057</v>
+        <v>0.4470938897168406</v>
       </c>
     </row>
     <row r="189">
@@ -12132,25 +12146,25 @@
         <v>3</v>
       </c>
       <c r="P189" t="n">
-        <v>31608</v>
+        <v>31764</v>
       </c>
       <c r="Q189" t="n">
         <v>38</v>
       </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="n">
-        <v>0.009491268033409264</v>
+        <v>0.009444654325651681</v>
       </c>
       <c r="T189" t="n">
-        <v>0.003163756011136421</v>
+        <v>0.00314821810855056</v>
       </c>
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="n">
-        <v>0.02531004808909137</v>
+        <v>0.02518574486840448</v>
       </c>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="n">
-        <v>0.120222728423184</v>
+        <v>0.1196322881249213</v>
       </c>
     </row>
     <row r="190">
@@ -12262,25 +12276,25 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="n">
-        <v>5054</v>
+        <v>5079</v>
       </c>
       <c r="Q191" t="n">
         <v>33</v>
       </c>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="n">
-        <v>0.01978630787495054</v>
+        <v>0.01968891514077574</v>
       </c>
       <c r="T191" t="n">
-        <v>0.4155124653739612</v>
+        <v>0.4134672179562906</v>
       </c>
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="n">
-        <v>0.07914523149980214</v>
+        <v>0.07875566056310297</v>
       </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="n">
-        <v>0.6529481598733676</v>
+        <v>0.6497341996455995</v>
       </c>
     </row>
     <row r="192">
@@ -12508,27 +12522,27 @@
         <v>4</v>
       </c>
       <c r="P195" t="n">
-        <v>1554</v>
+        <v>1574</v>
       </c>
       <c r="Q195" t="n">
         <v>46</v>
       </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="n">
-        <v>0.9652509652509652</v>
+        <v>0.9529860228716646</v>
       </c>
       <c r="T195" t="n">
-        <v>0.3217503217503218</v>
+        <v>0.3176620076238882</v>
       </c>
       <c r="U195" t="n">
-        <v>0.1930501930501931</v>
+        <v>0.1905972045743329</v>
       </c>
       <c r="V195" t="n">
-        <v>1.093951093951094</v>
+        <v>1.08005082592122</v>
       </c>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="n">
-        <v>2.96010296010296</v>
+        <v>2.922490470139771</v>
       </c>
     </row>
     <row r="196">
@@ -12620,7 +12634,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
       <c r="P197" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="inlineStr"/>
@@ -12784,29 +12798,29 @@
         <v>2</v>
       </c>
       <c r="P200" t="n">
-        <v>1893</v>
+        <v>1906</v>
       </c>
       <c r="Q200" t="n">
         <v>109</v>
       </c>
       <c r="R200" t="n">
-        <v>1.690438457474908</v>
+        <v>1.67890870933893</v>
       </c>
       <c r="S200" t="n">
-        <v>0.7923930269413629</v>
+        <v>0.7869884575026233</v>
       </c>
       <c r="T200" t="n">
-        <v>0.05282620179609086</v>
+        <v>0.05246589716684155</v>
       </c>
       <c r="U200" t="n">
-        <v>1.954569466455362</v>
+        <v>1.941238195173137</v>
       </c>
       <c r="V200" t="n">
-        <v>1.003697834125726</v>
+        <v>0.9968520461699895</v>
       </c>
       <c r="W200" t="inlineStr"/>
       <c r="X200" t="n">
-        <v>5.758055995773904</v>
+        <v>5.718782791185729</v>
       </c>
     </row>
     <row r="201">
@@ -12848,7 +12862,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="n">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="inlineStr"/>
@@ -12980,29 +12994,29 @@
         <v>72</v>
       </c>
       <c r="P203" t="n">
-        <v>9771</v>
+        <v>9808</v>
       </c>
       <c r="Q203" t="n">
         <v>477</v>
       </c>
       <c r="R203" t="n">
-        <v>0.06140620202640467</v>
+        <v>0.06117455138662316</v>
       </c>
       <c r="S203" t="n">
-        <v>1.44304574762051</v>
+        <v>1.437601957585644</v>
       </c>
       <c r="T203" t="n">
-        <v>0.3582028451540272</v>
+        <v>0.3568515497553018</v>
       </c>
       <c r="U203" t="n">
-        <v>0.3070310101320233</v>
+        <v>0.3058727569331158</v>
       </c>
       <c r="V203" t="n">
-        <v>1.944529730836148</v>
+        <v>1.937194127243067</v>
       </c>
       <c r="W203" t="inlineStr"/>
       <c r="X203" t="n">
-        <v>4.881793061099171</v>
+        <v>4.863376835236542</v>
       </c>
     </row>
     <row r="204">
@@ -13062,31 +13076,31 @@
         <v>374</v>
       </c>
       <c r="P204" t="n">
-        <v>4973</v>
+        <v>4975</v>
       </c>
       <c r="Q204" t="n">
         <v>1335</v>
       </c>
       <c r="R204" t="n">
-        <v>2.493464709430927</v>
+        <v>2.492462311557789</v>
       </c>
       <c r="S204" t="n">
-        <v>3.136939473155037</v>
+        <v>3.135678391959799</v>
       </c>
       <c r="T204" t="n">
-        <v>1.467926804745626</v>
+        <v>1.467336683417085</v>
       </c>
       <c r="U204" t="n">
-        <v>5.771164287150613</v>
+        <v>5.768844221105527</v>
       </c>
       <c r="V204" t="n">
-        <v>6.173336014478182</v>
+        <v>6.170854271356784</v>
       </c>
       <c r="W204" t="n">
-        <v>0.1407601045646491</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="X204" t="n">
-        <v>26.84496279911522</v>
+        <v>26.83417085427136</v>
       </c>
     </row>
     <row r="205">
@@ -13138,27 +13152,27 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="n">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="Q205" t="n">
         <v>12</v>
       </c>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="n">
-        <v>0.04863813229571985</v>
+        <v>0.04873294346978557</v>
       </c>
       <c r="T205" t="n">
-        <v>0.04863813229571985</v>
+        <v>0.04873294346978557</v>
       </c>
       <c r="U205" t="n">
-        <v>0.04863813229571985</v>
+        <v>0.04873294346978557</v>
       </c>
       <c r="V205" t="n">
-        <v>0.09727626459143969</v>
+        <v>0.09746588693957114</v>
       </c>
       <c r="W205" t="inlineStr"/>
       <c r="X205" t="n">
-        <v>0.5836575875486382</v>
+        <v>0.5847953216374269</v>
       </c>
     </row>
     <row r="206">
@@ -13358,23 +13372,23 @@
         <v>24</v>
       </c>
       <c r="P209" t="n">
-        <v>3647</v>
+        <v>3705</v>
       </c>
       <c r="Q209" t="n">
         <v>38</v>
       </c>
       <c r="R209" t="n">
-        <v>0.05483959418700302</v>
+        <v>0.05398110661268556</v>
       </c>
       <c r="S209" t="inlineStr"/>
       <c r="T209" t="inlineStr"/>
       <c r="U209" t="n">
-        <v>0.3016177680285166</v>
+        <v>0.2968960863697706</v>
       </c>
       <c r="V209" t="inlineStr"/>
       <c r="W209" t="inlineStr"/>
       <c r="X209" t="n">
-        <v>1.041952289553057</v>
+        <v>1.025641025641026</v>
       </c>
     </row>
     <row r="210">
@@ -13424,25 +13438,25 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="n">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="Q210" t="n">
         <v>4</v>
       </c>
       <c r="R210" t="n">
-        <v>0.02736726874657909</v>
+        <v>0.02735978112175103</v>
       </c>
       <c r="S210" t="inlineStr"/>
       <c r="T210" t="n">
-        <v>0.02736726874657909</v>
+        <v>0.02735978112175103</v>
       </c>
       <c r="U210" t="n">
-        <v>0.02736726874657909</v>
+        <v>0.02735978112175103</v>
       </c>
       <c r="V210" t="inlineStr"/>
       <c r="W210" t="inlineStr"/>
       <c r="X210" t="n">
-        <v>0.1094690749863164</v>
+        <v>0.1094391244870041</v>
       </c>
     </row>
     <row r="211">
@@ -13806,23 +13820,23 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="n">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="Q216" t="n">
         <v>2</v>
       </c>
       <c r="R216" t="inlineStr"/>
       <c r="S216" t="n">
-        <v>0.02378686964795433</v>
+        <v>0.02378121284185494</v>
       </c>
       <c r="T216" t="n">
-        <v>0.02378686964795433</v>
+        <v>0.02378121284185494</v>
       </c>
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr"/>
       <c r="W216" t="inlineStr"/>
       <c r="X216" t="n">
-        <v>0.04757373929590866</v>
+        <v>0.04756242568370987</v>
       </c>
     </row>
     <row r="217">
@@ -13864,7 +13878,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="n">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="Q217" t="inlineStr"/>
       <c r="R217" t="inlineStr"/>
@@ -13928,29 +13942,29 @@
         <v>2</v>
       </c>
       <c r="P218" t="n">
-        <v>3322</v>
+        <v>3316</v>
       </c>
       <c r="Q218" t="n">
         <v>132</v>
       </c>
       <c r="R218" t="n">
-        <v>0.06020469596628537</v>
+        <v>0.06031363088057901</v>
       </c>
       <c r="S218" t="inlineStr"/>
       <c r="T218" t="n">
-        <v>2.889825406381698</v>
+        <v>2.895054282267793</v>
       </c>
       <c r="U218" t="n">
-        <v>0.1204093919325707</v>
+        <v>0.120627261761158</v>
       </c>
       <c r="V218" t="n">
-        <v>0.1204093919325707</v>
+        <v>0.120627261761158</v>
       </c>
       <c r="W218" t="n">
-        <v>0.6923540036122818</v>
+        <v>0.6936067551266586</v>
       </c>
       <c r="X218" t="n">
-        <v>3.973509933774835</v>
+        <v>3.980699638118215</v>
       </c>
     </row>
     <row r="219">
@@ -14074,7 +14088,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
       <c r="P220" t="n">
-        <v>8564</v>
+        <v>8658</v>
       </c>
       <c r="Q220" t="n">
         <v>33</v>
@@ -14082,13 +14096,13 @@
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="inlineStr"/>
       <c r="T220" t="n">
-        <v>0.08173750583839327</v>
+        <v>0.08085008085008084</v>
       </c>
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr"/>
       <c r="W220" t="inlineStr"/>
       <c r="X220" t="n">
-        <v>0.3853339560952826</v>
+        <v>0.3811503811503811</v>
       </c>
     </row>
     <row r="221">
@@ -14234,23 +14248,23 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="n">
-        <v>36979</v>
+        <v>36993</v>
       </c>
       <c r="Q223" t="n">
         <v>7</v>
       </c>
       <c r="R223" t="inlineStr"/>
       <c r="S223" t="n">
-        <v>0.0081127126206766</v>
+        <v>0.008109642364771713</v>
       </c>
       <c r="T223" t="inlineStr"/>
       <c r="U223" t="inlineStr"/>
       <c r="V223" t="n">
-        <v>0.01081695016090213</v>
+        <v>0.01081285648636228</v>
       </c>
       <c r="W223" t="inlineStr"/>
       <c r="X223" t="n">
-        <v>0.01892966278157874</v>
+        <v>0.018922498851134</v>
       </c>
     </row>
     <row r="224">
@@ -14292,7 +14306,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="n">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="Q224" t="inlineStr"/>
       <c r="R224" t="inlineStr"/>
@@ -14352,27 +14366,27 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="n">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="Q225" t="n">
         <v>38</v>
       </c>
       <c r="R225" t="n">
-        <v>0.02534854245880862</v>
+        <v>0.02536783358701167</v>
       </c>
       <c r="S225" t="n">
-        <v>0.05069708491761724</v>
+        <v>0.05073566717402334</v>
       </c>
       <c r="T225" t="inlineStr"/>
       <c r="U225" t="n">
-        <v>0.4816223067173638</v>
+        <v>0.4819888381532217</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3548795944233207</v>
+        <v>0.3551496702181633</v>
       </c>
       <c r="W225" t="inlineStr"/>
       <c r="X225" t="n">
-        <v>0.9632446134347276</v>
+        <v>0.9639776763064434</v>
       </c>
     </row>
     <row r="226">
@@ -14414,7 +14428,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
       <c r="P226" t="n">
-        <v>3818</v>
+        <v>3903</v>
       </c>
       <c r="Q226" t="inlineStr"/>
       <c r="R226" t="inlineStr"/>
@@ -14524,27 +14538,27 @@
         <v>1</v>
       </c>
       <c r="P228" t="n">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="Q228" t="n">
         <v>21</v>
       </c>
       <c r="R228" t="n">
-        <v>0.4101161995898838</v>
+        <v>0.4087193460490463</v>
       </c>
       <c r="S228" t="n">
-        <v>0.3417634996582365</v>
+        <v>0.3405994550408719</v>
       </c>
       <c r="T228" t="inlineStr"/>
       <c r="U228" t="n">
-        <v>0.3417634996582365</v>
+        <v>0.3405994550408719</v>
       </c>
       <c r="V228" t="n">
-        <v>0.2734107997265892</v>
+        <v>0.2724795640326975</v>
       </c>
       <c r="W228" t="inlineStr"/>
       <c r="X228" t="n">
-        <v>1.435406698564593</v>
+        <v>1.430517711171662</v>
       </c>
     </row>
     <row r="229">
@@ -14598,27 +14612,27 @@
         <v>20</v>
       </c>
       <c r="P229" t="n">
-        <v>7923</v>
+        <v>7963</v>
       </c>
       <c r="Q229" t="n">
         <v>119</v>
       </c>
       <c r="R229" t="n">
-        <v>0.1640792629054651</v>
+        <v>0.1632550546276529</v>
       </c>
       <c r="S229" t="n">
-        <v>0.1009718540956708</v>
+        <v>0.1004646490016326</v>
       </c>
       <c r="T229" t="inlineStr"/>
       <c r="U229" t="n">
-        <v>0.1640792629054651</v>
+        <v>0.1632550546276529</v>
       </c>
       <c r="V229" t="n">
-        <v>0.2271866717152594</v>
+        <v>0.2260454602536733</v>
       </c>
       <c r="W229" t="inlineStr"/>
       <c r="X229" t="n">
-        <v>1.501956329673104</v>
+        <v>1.494411653899284</v>
       </c>
     </row>
     <row r="230">
@@ -14660,7 +14674,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="n">
-        <v>2728</v>
+        <v>3083</v>
       </c>
       <c r="Q230" t="inlineStr"/>
       <c r="R230" t="inlineStr"/>
@@ -14838,7 +14852,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="n">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="Q233" t="inlineStr"/>
       <c r="R233" t="inlineStr"/>
@@ -14888,7 +14902,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="n">
-        <v>4037</v>
+        <v>4051</v>
       </c>
       <c r="Q234" t="inlineStr"/>
       <c r="R234" t="inlineStr"/>
@@ -15002,29 +15016,29 @@
         <v>63</v>
       </c>
       <c r="P236" t="n">
-        <v>920</v>
+        <v>3598</v>
       </c>
       <c r="Q236" t="n">
         <v>426</v>
       </c>
       <c r="R236" t="n">
-        <v>15.76086956521739</v>
+        <v>4.030016675931073</v>
       </c>
       <c r="S236" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.08337965536409116</v>
       </c>
       <c r="T236" t="n">
-        <v>0.108695652173913</v>
+        <v>0.02779321845469705</v>
       </c>
       <c r="U236" t="n">
-        <v>20.43478260869565</v>
+        <v>5.225125069483046</v>
       </c>
       <c r="V236" t="n">
-        <v>1.08695652173913</v>
+        <v>0.2779321845469706</v>
       </c>
       <c r="W236" t="inlineStr"/>
       <c r="X236" t="n">
-        <v>46.30434782608695</v>
+        <v>11.83991106170094</v>
       </c>
     </row>
     <row r="237">
@@ -15144,7 +15158,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
       <c r="P238" t="n">
-        <v>1707</v>
+        <v>1668</v>
       </c>
       <c r="Q238" t="inlineStr"/>
       <c r="R238" t="inlineStr"/>
@@ -15256,27 +15270,27 @@
         <v>3</v>
       </c>
       <c r="P240" t="n">
-        <v>20857</v>
+        <v>20870</v>
       </c>
       <c r="Q240" t="n">
         <v>40</v>
       </c>
       <c r="R240" t="n">
-        <v>0.01917821354940787</v>
+        <v>0.0191662673694298</v>
       </c>
       <c r="S240" t="n">
-        <v>0.009589106774703936</v>
+        <v>0.009583133684714902</v>
       </c>
       <c r="T240" t="inlineStr"/>
       <c r="U240" t="n">
-        <v>0.09589106774703937</v>
+        <v>0.09583133684714902</v>
       </c>
       <c r="V240" t="n">
-        <v>0.03356187371146378</v>
+        <v>0.03354096789650216</v>
       </c>
       <c r="W240" t="inlineStr"/>
       <c r="X240" t="n">
-        <v>0.1917821354940787</v>
+        <v>0.191662673694298</v>
       </c>
     </row>
     <row r="241">
@@ -15392,7 +15406,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="n">
-        <v>1297</v>
+        <v>1357</v>
       </c>
       <c r="Q242" t="inlineStr"/>
       <c r="R242" t="inlineStr"/>
@@ -15442,7 +15456,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="n">
-        <v>1760</v>
+        <v>4793</v>
       </c>
       <c r="Q243" t="inlineStr"/>
       <c r="R243" t="inlineStr"/>
@@ -15504,27 +15518,27 @@
         <v>24</v>
       </c>
       <c r="P244" t="n">
-        <v>159552</v>
+        <v>1582</v>
       </c>
       <c r="Q244" t="n">
         <v>169</v>
       </c>
       <c r="R244" t="n">
-        <v>0.002507019655034095</v>
+        <v>0.2528445006321113</v>
       </c>
       <c r="S244" t="n">
-        <v>0.02130966706778981</v>
+        <v>2.149178255372945</v>
       </c>
       <c r="T244" t="inlineStr"/>
       <c r="U244" t="n">
-        <v>0.01754913758523867</v>
+        <v>1.769911504424779</v>
       </c>
       <c r="V244" t="n">
-        <v>0.04826012835940634</v>
+        <v>4.867256637168142</v>
       </c>
       <c r="W244" t="inlineStr"/>
       <c r="X244" t="n">
-        <v>0.1059215804251905</v>
+        <v>10.6826801517067</v>
       </c>
     </row>
     <row r="245">
@@ -15568,7 +15582,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
       <c r="P245" t="n">
-        <v>3580</v>
+        <v>3404</v>
       </c>
       <c r="Q245" t="n">
         <v>3</v>
@@ -15576,13 +15590,13 @@
       <c r="R245" t="inlineStr"/>
       <c r="S245" t="inlineStr"/>
       <c r="T245" t="n">
-        <v>0.08379888268156424</v>
+        <v>0.08813160987074031</v>
       </c>
       <c r="U245" t="inlineStr"/>
       <c r="V245" t="inlineStr"/>
       <c r="W245" t="inlineStr"/>
       <c r="X245" t="n">
-        <v>0.08379888268156424</v>
+        <v>0.08813160987074031</v>
       </c>
     </row>
     <row r="246">
@@ -15624,7 +15638,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
       <c r="P246" t="n">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="Q246" t="inlineStr"/>
       <c r="R246" t="inlineStr"/>
@@ -15676,7 +15690,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="n">
-        <v>2581</v>
+        <v>2589</v>
       </c>
       <c r="Q247" t="n">
         <v>12</v>
@@ -15688,7 +15702,7 @@
       <c r="V247" t="inlineStr"/>
       <c r="W247" t="inlineStr"/>
       <c r="X247" t="n">
-        <v>0.4649360712901976</v>
+        <v>0.4634994206257242</v>
       </c>
     </row>
     <row r="248">
@@ -15926,31 +15940,31 @@
         <v>18163</v>
       </c>
       <c r="P251" t="n">
-        <v>48902</v>
+        <v>50432</v>
       </c>
       <c r="Q251" t="n">
         <v>25219</v>
       </c>
       <c r="R251" t="n">
-        <v>0.004089812277616458</v>
+        <v>0.003965736040609137</v>
       </c>
       <c r="S251" t="n">
-        <v>0.2331192998241381</v>
+        <v>0.2260469543147208</v>
       </c>
       <c r="T251" t="n">
-        <v>0.008179624555232915</v>
+        <v>0.007931472081218274</v>
       </c>
       <c r="U251" t="n">
-        <v>4.124575681976197</v>
+        <v>3.999444796954315</v>
       </c>
       <c r="V251" t="n">
-        <v>9.868717025888511</v>
+        <v>9.569321065989849</v>
       </c>
       <c r="W251" t="n">
-        <v>0.04703284119258926</v>
+        <v>0.04560596446700508</v>
       </c>
       <c r="X251" t="n">
-        <v>51.57048791460473</v>
+        <v>50.00594860406091</v>
       </c>
     </row>
     <row r="252">
@@ -16042,7 +16056,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
       <c r="P253" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Q253" t="inlineStr"/>
       <c r="R253" t="inlineStr"/>
@@ -16096,7 +16110,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
       <c r="P254" t="n">
-        <v>2211</v>
+        <v>2217</v>
       </c>
       <c r="Q254" t="n">
         <v>21</v>
@@ -16104,13 +16118,13 @@
       <c r="R254" t="inlineStr"/>
       <c r="S254" t="inlineStr"/>
       <c r="T254" t="n">
-        <v>0.135685210312076</v>
+        <v>0.1353179972936401</v>
       </c>
       <c r="U254" t="inlineStr"/>
       <c r="V254" t="inlineStr"/>
       <c r="W254" t="inlineStr"/>
       <c r="X254" t="n">
-        <v>0.9497964721845319</v>
+        <v>0.9472259810554804</v>
       </c>
     </row>
     <row r="255">
@@ -16218,7 +16232,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="n">
-        <v>4019</v>
+        <v>4068</v>
       </c>
       <c r="Q256" t="n">
         <v>9</v>
@@ -16230,7 +16244,7 @@
       <c r="V256" t="inlineStr"/>
       <c r="W256" t="inlineStr"/>
       <c r="X256" t="n">
-        <v>0.2239363025628266</v>
+        <v>0.2212389380530974</v>
       </c>
     </row>
     <row r="257">
@@ -16272,7 +16286,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="n">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="Q257" t="inlineStr"/>
       <c r="R257" t="inlineStr"/>
@@ -16466,7 +16480,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
       <c r="P260" t="n">
-        <v>1623</v>
+        <v>1759</v>
       </c>
       <c r="Q260" t="n">
         <v>2</v>
@@ -16478,7 +16492,7 @@
       <c r="V260" t="inlineStr"/>
       <c r="W260" t="inlineStr"/>
       <c r="X260" t="n">
-        <v>0.1232285890326556</v>
+        <v>0.1137009664582149</v>
       </c>
     </row>
     <row r="261">
@@ -16529,17 +16543,27 @@
       <c r="O261" t="n">
         <v>4</v>
       </c>
-      <c r="P261" t="inlineStr"/>
+      <c r="P261" t="n">
+        <v>16619</v>
+      </c>
       <c r="Q261" t="n">
         <v>393</v>
       </c>
       <c r="R261" t="inlineStr"/>
-      <c r="S261" t="inlineStr"/>
-      <c r="T261" t="inlineStr"/>
+      <c r="S261" t="n">
+        <v>0.2346711595162164</v>
+      </c>
+      <c r="T261" t="n">
+        <v>0.006017209218364523</v>
+      </c>
       <c r="U261" t="inlineStr"/>
-      <c r="V261" t="inlineStr"/>
+      <c r="V261" t="n">
+        <v>2.02178229737048</v>
+      </c>
       <c r="W261" t="inlineStr"/>
-      <c r="X261" t="inlineStr"/>
+      <c r="X261" t="n">
+        <v>2.364763222817257</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -16646,7 +16670,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
       <c r="P263" t="n">
-        <v>6615</v>
+        <v>632</v>
       </c>
       <c r="Q263" t="inlineStr"/>
       <c r="R263" t="inlineStr"/>
@@ -16696,7 +16720,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
       <c r="P264" t="n">
-        <v>7608</v>
+        <v>7656</v>
       </c>
       <c r="Q264" t="inlineStr"/>
       <c r="R264" t="inlineStr"/>
@@ -16802,7 +16826,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
       <c r="P266" t="n">
-        <v>46041</v>
+        <v>1029</v>
       </c>
       <c r="Q266" t="inlineStr"/>
       <c r="R266" t="inlineStr"/>
@@ -16862,27 +16886,27 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr"/>
       <c r="P267" t="n">
-        <v>10566</v>
+        <v>10561</v>
       </c>
       <c r="Q267" t="n">
         <v>33</v>
       </c>
       <c r="R267" t="inlineStr"/>
       <c r="S267" t="n">
-        <v>0.01892863903085368</v>
+        <v>0.01893760060600322</v>
       </c>
       <c r="T267" t="n">
-        <v>0.1041075146696953</v>
+        <v>0.1041568033330177</v>
       </c>
       <c r="U267" t="n">
-        <v>0.03785727806170736</v>
+        <v>0.03787520121200644</v>
       </c>
       <c r="V267" t="n">
-        <v>0.1514291122468295</v>
+        <v>0.1515008048480257</v>
       </c>
       <c r="W267" t="inlineStr"/>
       <c r="X267" t="n">
-        <v>0.3123225440090857</v>
+        <v>0.3124704099990531</v>
       </c>
     </row>
     <row r="268">
@@ -16924,7 +16948,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
       <c r="P268" t="n">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="Q268" t="inlineStr"/>
       <c r="R268" t="inlineStr"/>
@@ -17086,27 +17110,27 @@
         <v>1</v>
       </c>
       <c r="P271" t="n">
-        <v>4715</v>
+        <v>4714</v>
       </c>
       <c r="Q271" t="n">
         <v>31</v>
       </c>
       <c r="R271" t="inlineStr"/>
       <c r="S271" t="n">
-        <v>0.08483563096500529</v>
+        <v>0.0848536274925753</v>
       </c>
       <c r="T271" t="n">
-        <v>0.06362672322375398</v>
+        <v>0.06364022061943148</v>
       </c>
       <c r="U271" t="n">
-        <v>0.02120890774125132</v>
+        <v>0.02121340687314383</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4453870625662778</v>
+        <v>0.4454815443360204</v>
       </c>
       <c r="W271" t="inlineStr"/>
       <c r="X271" t="n">
-        <v>0.6574761399787912</v>
+        <v>0.6576156130674586</v>
       </c>
     </row>
     <row r="272">
@@ -17156,25 +17180,25 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
       <c r="P272" t="n">
-        <v>4902</v>
+        <v>4909</v>
       </c>
       <c r="Q272" t="n">
         <v>23</v>
       </c>
       <c r="R272" t="n">
-        <v>0.08159934720522236</v>
+        <v>0.08148299042574862</v>
       </c>
       <c r="S272" t="inlineStr"/>
       <c r="T272" t="n">
-        <v>0.101999184006528</v>
+        <v>0.1018537380321858</v>
       </c>
       <c r="U272" t="n">
-        <v>0.08159934720522236</v>
+        <v>0.08148299042574862</v>
       </c>
       <c r="V272" t="inlineStr"/>
       <c r="W272" t="inlineStr"/>
       <c r="X272" t="n">
-        <v>0.4691962464300286</v>
+        <v>0.4685271949480546</v>
       </c>
     </row>
     <row r="273">
@@ -17268,7 +17292,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
       <c r="P274" t="n">
-        <v>11936</v>
+        <v>11954</v>
       </c>
       <c r="Q274" t="n">
         <v>8</v>
@@ -17280,7 +17304,7 @@
       <c r="V274" t="inlineStr"/>
       <c r="W274" t="inlineStr"/>
       <c r="X274" t="n">
-        <v>0.06702412868632708</v>
+        <v>0.06692320562154927</v>
       </c>
     </row>
     <row r="275">
@@ -17332,25 +17356,25 @@
         <v>3</v>
       </c>
       <c r="P275" t="n">
-        <v>7994</v>
+        <v>7996</v>
       </c>
       <c r="Q275" t="n">
         <v>1861</v>
       </c>
       <c r="R275" t="inlineStr"/>
       <c r="S275" t="n">
-        <v>0.0125093820365274</v>
+        <v>0.01250625312656328</v>
       </c>
       <c r="T275" t="n">
-        <v>0.02501876407305479</v>
+        <v>0.02501250625312656</v>
       </c>
       <c r="U275" t="inlineStr"/>
       <c r="V275" t="n">
-        <v>0.0125093820365274</v>
+        <v>0.01250625312656328</v>
       </c>
       <c r="W275" t="inlineStr"/>
       <c r="X275" t="n">
-        <v>23.27995996997748</v>
+        <v>23.27413706853427</v>
       </c>
     </row>
     <row r="276">
@@ -17464,7 +17488,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
       <c r="P277" t="n">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="Q277" t="n">
         <v>3</v>
@@ -17476,7 +17500,7 @@
       <c r="V277" t="inlineStr"/>
       <c r="W277" t="inlineStr"/>
       <c r="X277" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2973240832507433</v>
       </c>
     </row>
     <row r="278">
@@ -17630,7 +17654,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr"/>
       <c r="P280" t="n">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="Q280" t="n">
         <v>3</v>
@@ -17638,13 +17662,13 @@
       <c r="R280" t="inlineStr"/>
       <c r="S280" t="inlineStr"/>
       <c r="T280" t="n">
-        <v>0.1832620647525962</v>
+        <v>0.1827040194884287</v>
       </c>
       <c r="U280" t="inlineStr"/>
       <c r="V280" t="inlineStr"/>
       <c r="W280" t="inlineStr"/>
       <c r="X280" t="n">
-        <v>0.1832620647525962</v>
+        <v>0.1827040194884287</v>
       </c>
     </row>
     <row r="281">
@@ -17752,31 +17776,31 @@
         <v>376</v>
       </c>
       <c r="P282" t="n">
-        <v>24479</v>
+        <v>24653</v>
       </c>
       <c r="Q282" t="n">
         <v>4285</v>
       </c>
       <c r="R282" t="n">
-        <v>1.862821193676212</v>
+        <v>1.849673467732122</v>
       </c>
       <c r="S282" t="n">
-        <v>2.892275011234119</v>
+        <v>2.871861436741979</v>
       </c>
       <c r="T282" t="n">
-        <v>0.2124269782262347</v>
+        <v>0.2109276761448911</v>
       </c>
       <c r="U282" t="n">
-        <v>5.192205563952776</v>
+        <v>5.155559161156857</v>
       </c>
       <c r="V282" t="n">
-        <v>5.200375832346093</v>
+        <v>5.163671764085507</v>
       </c>
       <c r="W282" t="n">
-        <v>0.306385064749377</v>
+        <v>0.3042226098243622</v>
       </c>
       <c r="X282" t="n">
-        <v>17.50480003268107</v>
+        <v>17.38125177463189</v>
       </c>
     </row>
     <row r="283">
@@ -17908,25 +17932,25 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
       <c r="P284" t="n">
-        <v>4397</v>
+        <v>4464</v>
       </c>
       <c r="Q284" t="n">
         <v>144</v>
       </c>
       <c r="R284" t="inlineStr"/>
       <c r="S284" t="n">
-        <v>0.06822833750284285</v>
+        <v>0.06720430107526883</v>
       </c>
       <c r="T284" t="inlineStr"/>
       <c r="U284" t="n">
-        <v>1.046167841710257</v>
+        <v>1.030465949820789</v>
       </c>
       <c r="V284" t="n">
-        <v>1.955879008414828</v>
+        <v>1.92652329749104</v>
       </c>
       <c r="W284" t="inlineStr"/>
       <c r="X284" t="n">
-        <v>3.274960200136456</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="285">
@@ -18140,7 +18164,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
       <c r="P288" t="n">
-        <v>1507</v>
+        <v>1528</v>
       </c>
       <c r="Q288" t="inlineStr"/>
       <c r="R288" t="inlineStr"/>
@@ -18190,7 +18214,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
       <c r="P289" t="n">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="Q289" t="inlineStr"/>
       <c r="R289" t="inlineStr"/>
@@ -18240,7 +18264,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
       <c r="P290" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q290" t="inlineStr"/>
       <c r="R290" t="inlineStr"/>
@@ -18358,7 +18382,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="n">
-        <v>1664</v>
+        <v>1712</v>
       </c>
       <c r="Q292" t="n">
         <v>11</v>
@@ -18370,7 +18394,7 @@
       <c r="V292" t="inlineStr"/>
       <c r="W292" t="inlineStr"/>
       <c r="X292" t="n">
-        <v>0.6610576923076923</v>
+        <v>0.6425233644859812</v>
       </c>
     </row>
     <row r="293">
@@ -18426,29 +18450,29 @@
         <v>7</v>
       </c>
       <c r="P293" t="n">
-        <v>2860</v>
+        <v>2924</v>
       </c>
       <c r="Q293" t="n">
         <v>282</v>
       </c>
       <c r="R293" t="n">
-        <v>1.328671328671329</v>
+        <v>1.299589603283174</v>
       </c>
       <c r="S293" t="n">
-        <v>3.216783216783217</v>
+        <v>3.146374829001368</v>
       </c>
       <c r="T293" t="n">
-        <v>0.5244755244755245</v>
+        <v>0.5129958960328317</v>
       </c>
       <c r="U293" t="n">
-        <v>0.8741258741258742</v>
+        <v>0.8549931600547196</v>
       </c>
       <c r="V293" t="n">
-        <v>3.496503496503497</v>
+        <v>3.419972640218878</v>
       </c>
       <c r="W293" t="inlineStr"/>
       <c r="X293" t="n">
-        <v>9.86013986013986</v>
+        <v>9.644322845417237</v>
       </c>
     </row>
     <row r="294">
@@ -18645,7 +18669,9 @@
       <c r="M297" t="inlineStr"/>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
-      <c r="P297" t="inlineStr"/>
+      <c r="P297" t="n">
+        <v>447</v>
+      </c>
       <c r="Q297" t="inlineStr"/>
       <c r="R297" t="inlineStr"/>
       <c r="S297" t="inlineStr"/>
@@ -18764,7 +18790,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
       <c r="P299" t="n">
-        <v>8262</v>
+        <v>8265</v>
       </c>
       <c r="Q299" t="n">
         <v>31</v>
@@ -18772,13 +18798,13 @@
       <c r="R299" t="inlineStr"/>
       <c r="S299" t="inlineStr"/>
       <c r="T299" t="n">
-        <v>0.01210360687484871</v>
+        <v>0.01209921355111918</v>
       </c>
       <c r="U299" t="inlineStr"/>
       <c r="V299" t="inlineStr"/>
       <c r="W299" t="inlineStr"/>
       <c r="X299" t="n">
-        <v>0.3752118131203098</v>
+        <v>0.3750756200846945</v>
       </c>
     </row>
     <row r="300">
@@ -18820,7 +18846,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
       <c r="P300" t="n">
-        <v>2706</v>
+        <v>2716</v>
       </c>
       <c r="Q300" t="inlineStr"/>
       <c r="R300" t="inlineStr"/>
@@ -18926,23 +18952,23 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr"/>
       <c r="P302" t="n">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="Q302" t="n">
         <v>13</v>
       </c>
       <c r="R302" t="n">
-        <v>0.1589825119236884</v>
+        <v>0.1584786053882726</v>
       </c>
       <c r="S302" t="inlineStr"/>
       <c r="T302" t="inlineStr"/>
       <c r="U302" t="n">
-        <v>0.1589825119236884</v>
+        <v>0.1584786053882726</v>
       </c>
       <c r="V302" t="inlineStr"/>
       <c r="W302" t="inlineStr"/>
       <c r="X302" t="n">
-        <v>1.033386327503975</v>
+        <v>1.030110935023772</v>
       </c>
     </row>
     <row r="303">
@@ -18986,7 +19012,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
       <c r="P303" t="n">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="Q303" t="n">
         <v>25</v>
@@ -18998,7 +19024,7 @@
       <c r="V303" t="inlineStr"/>
       <c r="W303" t="inlineStr"/>
       <c r="X303" t="n">
-        <v>0.4314063848144953</v>
+        <v>0.431480842250604</v>
       </c>
     </row>
     <row r="304">
@@ -19042,7 +19068,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
       <c r="P304" t="n">
-        <v>911</v>
+        <v>1199</v>
       </c>
       <c r="Q304" t="n">
         <v>8</v>
@@ -19050,13 +19076,13 @@
       <c r="R304" t="inlineStr"/>
       <c r="S304" t="inlineStr"/>
       <c r="T304" t="n">
-        <v>0.8781558726673985</v>
+        <v>0.6672226855713094</v>
       </c>
       <c r="U304" t="inlineStr"/>
       <c r="V304" t="inlineStr"/>
       <c r="W304" t="inlineStr"/>
       <c r="X304" t="n">
-        <v>0.8781558726673985</v>
+        <v>0.6672226855713094</v>
       </c>
     </row>
     <row r="305">
@@ -19100,7 +19126,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="n">
-        <v>7375</v>
+        <v>7757</v>
       </c>
       <c r="Q305" t="n">
         <v>3</v>
@@ -19112,7 +19138,7 @@
       <c r="V305" t="inlineStr"/>
       <c r="W305" t="inlineStr"/>
       <c r="X305" t="n">
-        <v>0.04067796610169491</v>
+        <v>0.03867474539125951</v>
       </c>
     </row>
     <row r="306">
@@ -19210,7 +19236,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="n">
-        <v>2126</v>
+        <v>2145</v>
       </c>
       <c r="Q307" t="inlineStr"/>
       <c r="R307" t="inlineStr"/>
@@ -19384,31 +19410,31 @@
         <v>1</v>
       </c>
       <c r="P310" t="n">
-        <v>11166</v>
+        <v>11222</v>
       </c>
       <c r="Q310" t="n">
         <v>1371</v>
       </c>
       <c r="R310" t="n">
-        <v>0.05373455131649651</v>
+        <v>0.05346640527535199</v>
       </c>
       <c r="S310" t="n">
-        <v>1.110514060540928</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="T310" t="n">
-        <v>0.7881067526419488</v>
+        <v>0.7841739440384958</v>
       </c>
       <c r="U310" t="n">
-        <v>0.7612394769837005</v>
+        <v>0.7574407414008199</v>
       </c>
       <c r="V310" t="n">
-        <v>9.466236790256135</v>
+        <v>9.418998396007842</v>
       </c>
       <c r="W310" t="n">
-        <v>0.08955758552749418</v>
+        <v>0.08911067545891997</v>
       </c>
       <c r="X310" t="n">
-        <v>12.27834497581945</v>
+        <v>12.21707360541793</v>
       </c>
     </row>
     <row r="311">
@@ -19450,7 +19476,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="n">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="Q311" t="inlineStr"/>
       <c r="R311" t="inlineStr"/>
@@ -19566,25 +19592,25 @@
         <v>2</v>
       </c>
       <c r="P313" t="n">
-        <v>5599</v>
+        <v>1295</v>
       </c>
       <c r="Q313" t="n">
         <v>15</v>
       </c>
       <c r="R313" t="inlineStr"/>
       <c r="S313" t="n">
-        <v>0.03572066440435792</v>
+        <v>0.1544401544401544</v>
       </c>
       <c r="T313" t="n">
-        <v>0.1250223254152527</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="U313" t="inlineStr"/>
       <c r="V313" t="n">
-        <v>0.03572066440435792</v>
+        <v>0.1544401544401544</v>
       </c>
       <c r="W313" t="inlineStr"/>
       <c r="X313" t="n">
-        <v>0.2679049830326844</v>
+        <v>1.158301158301158</v>
       </c>
     </row>
     <row r="314">
@@ -19626,7 +19652,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="n">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="Q314" t="inlineStr"/>
       <c r="R314" t="inlineStr"/>
@@ -19686,25 +19712,25 @@
         <v>1</v>
       </c>
       <c r="P315" t="n">
-        <v>3654</v>
+        <v>3701</v>
       </c>
       <c r="Q315" t="n">
         <v>77</v>
       </c>
       <c r="R315" t="inlineStr"/>
       <c r="S315" t="n">
-        <v>0.2736726874657909</v>
+        <v>0.2701972439881113</v>
       </c>
       <c r="T315" t="n">
-        <v>0.30103995621237</v>
+        <v>0.2972169683869225</v>
       </c>
       <c r="U315" t="inlineStr"/>
       <c r="V315" t="n">
-        <v>1.395730706075534</v>
+        <v>1.378005944339368</v>
       </c>
       <c r="W315" t="inlineStr"/>
       <c r="X315" t="n">
-        <v>2.10727969348659</v>
+        <v>2.080518778708457</v>
       </c>
     </row>
     <row r="316">
@@ -19746,7 +19772,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="n">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="Q316" t="inlineStr"/>
       <c r="R316" t="inlineStr"/>
@@ -19804,27 +19830,27 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="n">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="Q317" t="n">
         <v>8</v>
       </c>
       <c r="R317" t="n">
-        <v>0.2466091245376079</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="S317" t="n">
-        <v>0.1233045622688039</v>
+        <v>0.1225490196078431</v>
       </c>
       <c r="T317" t="inlineStr"/>
       <c r="U317" t="n">
-        <v>0.2466091245376079</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="V317" t="n">
-        <v>0.3699136868064118</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="W317" t="inlineStr"/>
       <c r="X317" t="n">
-        <v>0.9864364981504316</v>
+        <v>0.9803921568627451</v>
       </c>
     </row>
     <row r="318">
@@ -19876,29 +19902,29 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="n">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Q318" t="n">
         <v>20</v>
       </c>
       <c r="R318" t="n">
-        <v>0.4595588235294118</v>
+        <v>0.4599816007359706</v>
       </c>
       <c r="S318" t="n">
-        <v>0.2757352941176471</v>
+        <v>0.2759889604415823</v>
       </c>
       <c r="T318" t="n">
-        <v>0.1838235294117647</v>
+        <v>0.1839926402943882</v>
       </c>
       <c r="U318" t="n">
-        <v>0.6433823529411764</v>
+        <v>0.6439742410303588</v>
       </c>
       <c r="V318" t="n">
-        <v>0.2757352941176471</v>
+        <v>0.2759889604415823</v>
       </c>
       <c r="W318" t="inlineStr"/>
       <c r="X318" t="n">
-        <v>1.838235294117647</v>
+        <v>1.839926402943882</v>
       </c>
     </row>
     <row r="319">
@@ -20054,7 +20080,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
       <c r="P321" t="n">
-        <v>697</v>
+        <v>741</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -20066,7 +20092,7 @@
       <c r="V321" t="inlineStr"/>
       <c r="W321" t="inlineStr"/>
       <c r="X321" t="n">
-        <v>0.1434720229555237</v>
+        <v>0.1349527665317139</v>
       </c>
     </row>
     <row r="322">
@@ -20112,7 +20138,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr"/>
       <c r="P322" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="Q322" t="n">
         <v>15</v>
@@ -20120,13 +20146,13 @@
       <c r="R322" t="inlineStr"/>
       <c r="S322" t="inlineStr"/>
       <c r="T322" t="n">
-        <v>0.7070707070707071</v>
+        <v>0.7056451612903225</v>
       </c>
       <c r="U322" t="inlineStr"/>
       <c r="V322" t="inlineStr"/>
       <c r="W322" t="inlineStr"/>
       <c r="X322" t="n">
-        <v>1.515151515151515</v>
+        <v>1.512096774193548</v>
       </c>
     </row>
     <row r="323">
@@ -20184,31 +20210,31 @@
         <v>4</v>
       </c>
       <c r="P323" t="n">
-        <v>2456</v>
+        <v>2468</v>
       </c>
       <c r="Q323" t="n">
         <v>462</v>
       </c>
       <c r="R323" t="n">
-        <v>0.7736156351791531</v>
+        <v>0.7698541329011345</v>
       </c>
       <c r="S323" t="n">
-        <v>0.4885993485342019</v>
+        <v>0.4862236628849271</v>
       </c>
       <c r="T323" t="n">
-        <v>11.685667752443</v>
+        <v>11.6288492706645</v>
       </c>
       <c r="U323" t="n">
-        <v>3.094462540716612</v>
+        <v>3.079416531604538</v>
       </c>
       <c r="V323" t="n">
-        <v>1.587947882736156</v>
+        <v>1.580226904376013</v>
       </c>
       <c r="W323" t="n">
-        <v>0.08143322475570033</v>
+        <v>0.08103727714748785</v>
       </c>
       <c r="X323" t="n">
-        <v>18.81107491856677</v>
+        <v>18.71961102106969</v>
       </c>
     </row>
     <row r="324">
@@ -20264,29 +20290,29 @@
         <v>90</v>
       </c>
       <c r="P324" t="n">
-        <v>4322</v>
+        <v>4677</v>
       </c>
       <c r="Q324" t="n">
         <v>752</v>
       </c>
       <c r="R324" t="n">
-        <v>0.2082369273484498</v>
+        <v>0.1924310455420141</v>
       </c>
       <c r="S324" t="n">
-        <v>0.02313743637204998</v>
+        <v>0.02138122728244601</v>
       </c>
       <c r="T324" t="n">
-        <v>9.55576122165664</v>
+        <v>8.830446867650203</v>
       </c>
       <c r="U324" t="n">
-        <v>2.753354928273947</v>
+        <v>2.544366046611076</v>
       </c>
       <c r="V324" t="n">
-        <v>1.527070800555298</v>
+        <v>1.411161000641437</v>
       </c>
       <c r="W324" t="inlineStr"/>
       <c r="X324" t="n">
-        <v>17.39935215178158</v>
+        <v>16.0786829163994</v>
       </c>
     </row>
     <row r="325">
@@ -20422,31 +20448,31 @@
         <v>146</v>
       </c>
       <c r="P326" t="n">
-        <v>10161</v>
+        <v>10196</v>
       </c>
       <c r="Q326" t="n">
         <v>1294</v>
       </c>
       <c r="R326" t="n">
-        <v>0.6889085719909458</v>
+        <v>0.6865437426441742</v>
       </c>
       <c r="S326" t="n">
-        <v>0.9349473477019978</v>
+        <v>0.9317379364456649</v>
       </c>
       <c r="T326" t="n">
-        <v>0.2952465308532625</v>
+        <v>0.294233032561789</v>
       </c>
       <c r="U326" t="n">
-        <v>2.716268083850015</v>
+        <v>2.706943899568458</v>
       </c>
       <c r="V326" t="n">
-        <v>6.249384903060722</v>
+        <v>6.227932522557865</v>
       </c>
       <c r="W326" t="n">
-        <v>0.009841551028442082</v>
+        <v>0.009807767752059632</v>
       </c>
       <c r="X326" t="n">
-        <v>12.73496703080405</v>
+        <v>12.69125147116516</v>
       </c>
     </row>
     <row r="327">
@@ -20498,27 +20524,27 @@
         <v>41</v>
       </c>
       <c r="P327" t="n">
-        <v>2989</v>
+        <v>3008</v>
       </c>
       <c r="Q327" t="n">
         <v>757</v>
       </c>
       <c r="R327" t="n">
-        <v>2.509200401472064</v>
+        <v>2.493351063829787</v>
       </c>
       <c r="S327" t="inlineStr"/>
       <c r="T327" t="n">
-        <v>0.06691201070592172</v>
+        <v>0.06648936170212766</v>
       </c>
       <c r="U327" t="n">
-        <v>20.60889929742389</v>
+        <v>20.47872340425532</v>
       </c>
       <c r="V327" t="n">
-        <v>0.7694881231180997</v>
+        <v>0.7646276595744681</v>
       </c>
       <c r="W327" t="inlineStr"/>
       <c r="X327" t="n">
-        <v>25.32619605219137</v>
+        <v>25.16622340425532</v>
       </c>
     </row>
     <row r="328">
@@ -20570,25 +20596,25 @@
         <v>21</v>
       </c>
       <c r="P328" t="n">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="Q328" t="n">
         <v>131</v>
       </c>
       <c r="R328" t="inlineStr"/>
       <c r="S328" t="n">
-        <v>0.3992015968063872</v>
+        <v>0.3996003996003996</v>
       </c>
       <c r="T328" t="n">
-        <v>0.332667997338656</v>
+        <v>0.333000333000333</v>
       </c>
       <c r="U328" t="inlineStr"/>
       <c r="V328" t="n">
-        <v>2.661343978709248</v>
+        <v>2.664002664002664</v>
       </c>
       <c r="W328" t="inlineStr"/>
       <c r="X328" t="n">
-        <v>4.357950765136394</v>
+        <v>4.362304362304362</v>
       </c>
     </row>
     <row r="329">
@@ -20630,7 +20656,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
       <c r="P329" t="n">
-        <v>2649</v>
+        <v>2678</v>
       </c>
       <c r="Q329" t="inlineStr"/>
       <c r="R329" t="inlineStr"/>
@@ -20680,7 +20706,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
       <c r="P330" t="n">
-        <v>1121</v>
+        <v>1138</v>
       </c>
       <c r="Q330" t="inlineStr"/>
       <c r="R330" t="inlineStr"/>
@@ -20794,29 +20820,29 @@
         <v>361</v>
       </c>
       <c r="P332" t="n">
-        <v>206</v>
+        <v>2868</v>
       </c>
       <c r="Q332" t="n">
         <v>980</v>
       </c>
       <c r="R332" t="n">
-        <v>0.4854368932038834</v>
+        <v>0.03486750348675035</v>
       </c>
       <c r="S332" t="n">
-        <v>37.86407766990291</v>
+        <v>2.719665271966528</v>
       </c>
       <c r="T332" t="n">
-        <v>1.941747572815534</v>
+        <v>0.1394700139470014</v>
       </c>
       <c r="U332" t="n">
-        <v>44.1747572815534</v>
+        <v>3.172942817294282</v>
       </c>
       <c r="V332" t="n">
-        <v>204.368932038835</v>
+        <v>14.6792189679219</v>
       </c>
       <c r="W332" t="inlineStr"/>
       <c r="X332" t="n">
-        <v>475.7281553398058</v>
+        <v>34.17015341701534</v>
       </c>
     </row>
     <row r="333">
@@ -20868,25 +20894,25 @@
         <v>19</v>
       </c>
       <c r="P333" t="n">
-        <v>3149</v>
+        <v>3137</v>
       </c>
       <c r="Q333" t="n">
         <v>66</v>
       </c>
       <c r="R333" t="inlineStr"/>
       <c r="S333" t="n">
-        <v>0.2540489044140997</v>
+        <v>0.2550207204335352</v>
       </c>
       <c r="T333" t="inlineStr"/>
       <c r="U333" t="n">
-        <v>0.03175611305176246</v>
+        <v>0.0318775900541919</v>
       </c>
       <c r="V333" t="n">
-        <v>0.889171165449349</v>
+        <v>0.8925725215173733</v>
       </c>
       <c r="W333" t="inlineStr"/>
       <c r="X333" t="n">
-        <v>2.095903461416322</v>
+        <v>2.103920943576666</v>
       </c>
     </row>
     <row r="334">
@@ -20940,27 +20966,27 @@
         <v>988</v>
       </c>
       <c r="P334" t="n">
-        <v>7399</v>
+        <v>7410</v>
       </c>
       <c r="Q334" t="n">
         <v>1444</v>
       </c>
       <c r="R334" t="inlineStr"/>
       <c r="S334" t="n">
-        <v>1.162319232328693</v>
+        <v>1.16059379217274</v>
       </c>
       <c r="T334" t="n">
-        <v>0.2973374780375726</v>
+        <v>0.2968960863697706</v>
       </c>
       <c r="U334" t="inlineStr"/>
       <c r="V334" t="n">
-        <v>4.270847411812407</v>
+        <v>4.26450742240216</v>
       </c>
       <c r="W334" t="n">
-        <v>0.01351533991079876</v>
+        <v>0.01349527665317139</v>
       </c>
       <c r="X334" t="n">
-        <v>19.5161508311934</v>
+        <v>19.48717948717949</v>
       </c>
     </row>
     <row r="335">
@@ -21014,29 +21040,29 @@
         <v>3</v>
       </c>
       <c r="P335" t="n">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="Q335" t="n">
         <v>14</v>
       </c>
       <c r="R335" t="n">
-        <v>0.0749063670411985</v>
+        <v>0.07468259895444362</v>
       </c>
       <c r="S335" t="n">
-        <v>0.0749063670411985</v>
+        <v>0.07468259895444362</v>
       </c>
       <c r="T335" t="n">
-        <v>0.0749063670411985</v>
+        <v>0.07468259895444362</v>
       </c>
       <c r="U335" t="n">
-        <v>0.3745318352059925</v>
+        <v>0.3734129947722181</v>
       </c>
       <c r="V335" t="n">
-        <v>0.2247191011235955</v>
+        <v>0.2240477968633308</v>
       </c>
       <c r="W335" t="inlineStr"/>
       <c r="X335" t="n">
-        <v>1.048689138576779</v>
+        <v>1.045556385362211</v>
       </c>
     </row>
     <row r="336">
@@ -21092,29 +21118,29 @@
         <v>33</v>
       </c>
       <c r="P336" t="n">
-        <v>5000</v>
+        <v>5014</v>
       </c>
       <c r="Q336" t="n">
         <v>1996</v>
       </c>
       <c r="R336" t="inlineStr"/>
       <c r="S336" t="n">
-        <v>6.22</v>
+        <v>6.202632628639808</v>
       </c>
       <c r="T336" t="n">
-        <v>0.12</v>
+        <v>0.1196649381731153</v>
       </c>
       <c r="U336" t="n">
-        <v>0.34</v>
+        <v>0.33905065815716</v>
       </c>
       <c r="V336" t="n">
-        <v>32.36</v>
+        <v>32.26964499401676</v>
       </c>
       <c r="W336" t="n">
-        <v>0.02</v>
+        <v>0.01994415636218588</v>
       </c>
       <c r="X336" t="n">
-        <v>39.92</v>
+        <v>39.80853609892301</v>
       </c>
     </row>
     <row r="337">
@@ -21170,29 +21196,29 @@
         <v>1</v>
       </c>
       <c r="P337" t="n">
-        <v>8162</v>
+        <v>8172</v>
       </c>
       <c r="Q337" t="n">
         <v>446</v>
       </c>
       <c r="R337" t="n">
-        <v>0.03675569713305563</v>
+        <v>0.03671071953010279</v>
       </c>
       <c r="S337" t="n">
-        <v>1.445724087233521</v>
+        <v>1.443954968184043</v>
       </c>
       <c r="T337" t="n">
-        <v>0.02450379808870375</v>
+        <v>0.02447381302006853</v>
       </c>
       <c r="U337" t="n">
-        <v>0.1470227885322225</v>
+        <v>0.1468428781204112</v>
       </c>
       <c r="V337" t="n">
-        <v>3.761333006616026</v>
+        <v>3.756730298580519</v>
       </c>
       <c r="W337" t="inlineStr"/>
       <c r="X337" t="n">
-        <v>5.464346973780936</v>
+        <v>5.457660303475281</v>
       </c>
     </row>
     <row r="338">
@@ -21238,7 +21264,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr"/>
       <c r="P338" t="n">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="Q338" t="n">
         <v>3</v>
@@ -21246,13 +21272,13 @@
       <c r="R338" t="inlineStr"/>
       <c r="S338" t="inlineStr"/>
       <c r="T338" t="n">
-        <v>0.03753753753753754</v>
+        <v>0.03754458419373005</v>
       </c>
       <c r="U338" t="inlineStr"/>
       <c r="V338" t="inlineStr"/>
       <c r="W338" t="inlineStr"/>
       <c r="X338" t="n">
-        <v>0.05630630630630631</v>
+        <v>0.05631687629059508</v>
       </c>
     </row>
     <row r="339">
@@ -21296,7 +21322,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
       <c r="P339" t="n">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="Q339" t="n">
         <v>7</v>
@@ -21304,13 +21330,13 @@
       <c r="R339" t="inlineStr"/>
       <c r="S339" t="inlineStr"/>
       <c r="T339" t="n">
-        <v>0.462046204620462</v>
+        <v>0.4614370468029005</v>
       </c>
       <c r="U339" t="inlineStr"/>
       <c r="V339" t="inlineStr"/>
       <c r="W339" t="inlineStr"/>
       <c r="X339" t="n">
-        <v>0.462046204620462</v>
+        <v>0.4614370468029005</v>
       </c>
     </row>
     <row r="340">
@@ -21354,7 +21380,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
       <c r="P340" t="n">
-        <v>14740</v>
+        <v>14724</v>
       </c>
       <c r="Q340" t="n">
         <v>2</v>
@@ -21366,7 +21392,7 @@
       <c r="V340" t="inlineStr"/>
       <c r="W340" t="inlineStr"/>
       <c r="X340" t="n">
-        <v>0.0135685210312076</v>
+        <v>0.01358326541700625</v>
       </c>
     </row>
     <row r="341">
@@ -21408,7 +21434,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
       <c r="P341" t="n">
-        <v>1418</v>
+        <v>1444</v>
       </c>
       <c r="Q341" t="inlineStr"/>
       <c r="R341" t="inlineStr"/>
@@ -21630,7 +21656,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
       <c r="P345" t="n">
-        <v>1542</v>
+        <v>1551</v>
       </c>
       <c r="Q345" t="inlineStr"/>
       <c r="R345" t="inlineStr"/>
@@ -21682,7 +21708,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
       <c r="P346" t="n">
-        <v>2473</v>
+        <v>2462</v>
       </c>
       <c r="Q346" t="n">
         <v>1</v>
@@ -21694,7 +21720,7 @@
       <c r="V346" t="inlineStr"/>
       <c r="W346" t="inlineStr"/>
       <c r="X346" t="n">
-        <v>0.04043671653861707</v>
+        <v>0.04061738424045491</v>
       </c>
     </row>
     <row r="347">
@@ -21882,7 +21908,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
       <c r="P349" t="n">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="Q349" t="inlineStr"/>
       <c r="R349" t="inlineStr"/>
@@ -22018,25 +22044,25 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
       <c r="P351" t="n">
-        <v>22007</v>
+        <v>22073</v>
       </c>
       <c r="Q351" t="n">
         <v>119</v>
       </c>
       <c r="R351" t="n">
-        <v>0.01363202617349025</v>
+        <v>0.01359126534680379</v>
       </c>
       <c r="S351" t="inlineStr"/>
       <c r="T351" t="n">
-        <v>0.05907211341845776</v>
+        <v>0.05889548316948308</v>
       </c>
       <c r="U351" t="n">
-        <v>0.01363202617349025</v>
+        <v>0.01359126534680379</v>
       </c>
       <c r="V351" t="inlineStr"/>
       <c r="W351" t="inlineStr"/>
       <c r="X351" t="n">
-        <v>0.5407370382151133</v>
+        <v>0.5391201920898836</v>
       </c>
     </row>
     <row r="352">
@@ -22336,31 +22362,31 @@
         <v>175</v>
       </c>
       <c r="P356" t="n">
-        <v>13415</v>
+        <v>13495</v>
       </c>
       <c r="Q356" t="n">
         <v>1939</v>
       </c>
       <c r="R356" t="n">
-        <v>2.86992172940738</v>
+        <v>2.852908484623935</v>
       </c>
       <c r="S356" t="n">
-        <v>0.5068952664927321</v>
+        <v>0.50389032975176</v>
       </c>
       <c r="T356" t="n">
-        <v>1.475959746552367</v>
+        <v>1.467210077806595</v>
       </c>
       <c r="U356" t="n">
-        <v>5.948565039135296</v>
+        <v>5.913301222675065</v>
       </c>
       <c r="V356" t="n">
-        <v>2.087215803205367</v>
+        <v>2.074842534271953</v>
       </c>
       <c r="W356" t="n">
-        <v>0.1192694744688781</v>
+        <v>0.1185624305298259</v>
       </c>
       <c r="X356" t="n">
-        <v>14.45396943719717</v>
+        <v>14.36828454983327</v>
       </c>
     </row>
     <row r="357">
@@ -22406,7 +22432,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
       <c r="P357" t="n">
-        <v>2849</v>
+        <v>2921</v>
       </c>
       <c r="Q357" t="n">
         <v>6</v>
@@ -22414,13 +22440,13 @@
       <c r="R357" t="inlineStr"/>
       <c r="S357" t="inlineStr"/>
       <c r="T357" t="n">
-        <v>0.1755001755001755</v>
+        <v>0.171174255391989</v>
       </c>
       <c r="U357" t="inlineStr"/>
       <c r="V357" t="inlineStr"/>
       <c r="W357" t="inlineStr"/>
       <c r="X357" t="n">
-        <v>0.2106002106002106</v>
+        <v>0.2054091064703869</v>
       </c>
     </row>
     <row r="358">
@@ -22725,7 +22751,89 @@
         <v>0.1326963906581741</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>liferay</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>liferay-portal</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>38220df7f113ab58af84b3297d81db6bb40d3320</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:30:11+00:00</t>
+        </is>
+      </c>
+      <c r="G363" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>1263</v>
+      </c>
+      <c r="I363" t="n">
+        <v>119</v>
+      </c>
+      <c r="J363" t="n">
+        <v>313</v>
+      </c>
+      <c r="K363" t="n">
+        <v>40</v>
+      </c>
+      <c r="L363" t="n">
+        <v>2256</v>
+      </c>
+      <c r="M363" t="n">
+        <v>6430</v>
+      </c>
+      <c r="N363" t="n">
+        <v>22</v>
+      </c>
+      <c r="O363" t="n">
+        <v>1105</v>
+      </c>
+      <c r="P363" t="n">
+        <v>109041</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>11548</v>
+      </c>
+      <c r="R363" t="n">
+        <v>1.158279913060225</v>
+      </c>
+      <c r="S363" t="n">
+        <v>0.1091332618006071</v>
+      </c>
+      <c r="T363" t="n">
+        <v>0.2870479911226053</v>
+      </c>
+      <c r="U363" t="n">
+        <v>2.068946543043443</v>
+      </c>
+      <c r="V363" t="n">
+        <v>5.896864482167259</v>
+      </c>
+      <c r="W363" t="n">
+        <v>0.02017589713960804</v>
+      </c>
+      <c r="X363" t="n">
+        <v>10.59051182582698</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>